--- a/output5/【河洛話注音】《正氣歌》【河洛白話音】.xlsx
+++ b/output5/【河洛話注音】《正氣歌》【河洛白話音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{337A452A-2181-4EED-ACBE-6972E098882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0C1AC53-5A45-4E4D-91C2-B14CBAE142BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -27,6 +27,7 @@
     <definedName name="TITLE">env!$C$4</definedName>
     <definedName name="每列總字數">env!$C$10</definedName>
     <definedName name="每頁總列數">env!$C$9</definedName>
+    <definedName name="漢字庫">env!$C$12</definedName>
     <definedName name="語音類型">env!$C$11</definedName>
     <definedName name="顯示注音輸入">env!$C$8</definedName>
   </definedNames>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1138">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3584,14 +3585,6 @@
   </si>
   <si>
     <t>漢字庫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ir5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6758,7 +6751,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -6798,7 +6791,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -6854,7 +6847,7 @@
         <v>287</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="12" spans="2:3">
@@ -6862,7 +6855,7 @@
         <v>890</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
     </row>
   </sheetData>
@@ -6951,20 +6944,20 @@
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84" t="s">
-        <v>891</v>
+        <v>269</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>585</v>
       </c>
       <c r="F4" s="84" t="s">
+        <v>891</v>
+      </c>
+      <c r="G4" s="84" t="s">
         <v>893</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>895</v>
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J4" s="84" t="s">
         <v>255</v>
@@ -6986,7 +6979,7 @@
         <v>589</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
@@ -7048,20 +7041,20 @@
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85" t="s">
-        <v>892</v>
+        <v>270</v>
       </c>
       <c r="E6" s="85" t="s">
         <v>586</v>
       </c>
       <c r="F6" s="85" t="s">
+        <v>892</v>
+      </c>
+      <c r="G6" s="85" t="s">
         <v>894</v>
-      </c>
-      <c r="G6" s="85" t="s">
-        <v>896</v>
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="85" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J6" s="85" t="s">
         <v>256</v>
@@ -7083,7 +7076,7 @@
         <v>590</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
@@ -7113,13 +7106,13 @@
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E8" s="84" t="s">
         <v>593</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G8" s="84" t="s">
         <v>277</v>
@@ -7132,23 +7125,23 @@
         <v>597</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="M8" s="84"/>
       <c r="N8" s="84" t="s">
         <v>599</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="P8" s="84" t="s">
         <v>601</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
@@ -7211,13 +7204,13 @@
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E10" s="85" t="s">
         <v>594</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G10" s="85" t="s">
         <v>278</v>
@@ -7233,14 +7226,14 @@
         <v>808</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85" t="s">
         <v>600</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="P10" s="85" t="s">
         <v>602</v>
@@ -7278,7 +7271,7 @@
         <v>660</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F12" s="84" t="s">
         <v>603</v>
@@ -7294,23 +7287,23 @@
         <v>609</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="M12" s="84" t="s">
         <v>271</v>
       </c>
       <c r="N12" s="84"/>
       <c r="O12" s="84" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="P12" s="84" t="s">
         <v>612</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="R12" s="84" t="s">
         <v>257</v>
@@ -7377,7 +7370,7 @@
         <v>661</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F14" s="85" t="s">
         <v>604</v>
@@ -7396,7 +7389,7 @@
         <v>785</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="M14" s="85" t="s">
         <v>272</v>
@@ -7450,36 +7443,36 @@
         <v>844</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="84" t="s">
+        <v>915</v>
+      </c>
+      <c r="K16" s="84" t="s">
         <v>917</v>
       </c>
-      <c r="K16" s="84" t="s">
+      <c r="L16" s="84" t="s">
         <v>919</v>
       </c>
-      <c r="L16" s="84" t="s">
+      <c r="M16" s="84" t="s">
         <v>921</v>
-      </c>
-      <c r="M16" s="84" t="s">
-        <v>923</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
         <v>263</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="Q16" s="84" t="s">
         <v>710</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="S16" s="93"/>
       <c r="V16" s="105"/>
@@ -7547,23 +7540,23 @@
         <v>845</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H18" s="85" t="s">
         <v>615</v>
       </c>
       <c r="I18" s="85"/>
       <c r="J18" s="85" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="K18" s="85" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="L18" s="85" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85" t="s">
@@ -7576,7 +7569,7 @@
         <v>711</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="S18" s="96"/>
       <c r="V18" s="105"/>
@@ -7608,23 +7601,23 @@
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
+        <v>924</v>
+      </c>
+      <c r="G20" s="84" t="s">
         <v>926</v>
       </c>
-      <c r="G20" s="84" t="s">
+      <c r="H20" s="84" t="s">
         <v>928</v>
-      </c>
-      <c r="H20" s="84" t="s">
-        <v>930</v>
       </c>
       <c r="I20" s="84" t="s">
         <v>616</v>
       </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="L20" s="84" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="M20" s="84" t="s">
         <v>618</v>
@@ -7637,7 +7630,7 @@
         <v>263</v>
       </c>
       <c r="Q20" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="R20" s="84" t="s">
         <v>710</v>
@@ -7705,13 +7698,13 @@
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="85" t="s">
+        <v>925</v>
+      </c>
+      <c r="G22" s="85" t="s">
         <v>927</v>
       </c>
-      <c r="G22" s="85" t="s">
+      <c r="H22" s="85" t="s">
         <v>929</v>
-      </c>
-      <c r="H22" s="85" t="s">
-        <v>931</v>
       </c>
       <c r="I22" s="85" t="s">
         <v>617</v>
@@ -7721,7 +7714,7 @@
         <v>680</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="M22" s="85" t="s">
         <v>619</v>
@@ -7772,10 +7765,10 @@
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="84" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I24" s="84" t="s">
         <v>763</v>
@@ -7785,13 +7778,13 @@
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="O24" s="84" t="s">
         <v>305</v>
@@ -7801,7 +7794,7 @@
         <v>263</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -7882,13 +7875,13 @@
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="O26" s="85" t="s">
         <v>306</v>
@@ -7947,7 +7940,7 @@
         <v>626</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J28" s="84" t="s">
         <v>628</v>
@@ -7957,13 +7950,13 @@
       </c>
       <c r="L28" s="84"/>
       <c r="M28" s="84" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="N28" s="84" t="s">
         <v>633</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="P28" s="84" t="s">
         <v>761</v>
@@ -8052,7 +8045,7 @@
         <v>627</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="J30" s="85" t="s">
         <v>629</v>
@@ -8062,13 +8055,13 @@
       </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="N30" s="85" t="s">
         <v>634</v>
       </c>
       <c r="O30" s="85" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="P30" s="85" t="s">
         <v>762</v>
@@ -8111,20 +8104,20 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E32" s="84" t="s">
         <v>710</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G32" s="84" t="s">
         <v>612</v>
       </c>
       <c r="H32" s="84"/>
       <c r="I32" s="84" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J32" s="84" t="s">
         <v>636</v>
@@ -8137,10 +8130,10 @@
       </c>
       <c r="M32" s="84"/>
       <c r="N32" s="84" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="O32" s="84" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="P32" s="84" t="s">
         <v>283</v>
@@ -8218,7 +8211,7 @@
         <v>711</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="G34" s="85" t="s">
         <v>613</v>
@@ -8238,10 +8231,10 @@
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="85" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="P34" s="85" t="s">
         <v>284</v>
@@ -8279,13 +8272,13 @@
         <v>263</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F36" s="84" t="s">
         <v>710</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H36" s="84" t="s">
         <v>612</v>
@@ -8298,23 +8291,23 @@
         <v>640</v>
       </c>
       <c r="L36" s="84" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="M36" s="84" t="s">
         <v>642</v>
       </c>
       <c r="N36" s="84"/>
       <c r="O36" s="84" t="s">
+        <v>950</v>
+      </c>
+      <c r="P36" s="84" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q36" s="84" t="s">
         <v>952</v>
       </c>
-      <c r="P36" s="84" t="s">
-        <v>953</v>
-      </c>
-      <c r="Q36" s="84" t="s">
+      <c r="R36" s="84" t="s">
         <v>954</v>
-      </c>
-      <c r="R36" s="84" t="s">
-        <v>956</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -8384,7 +8377,7 @@
         <v>711</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H38" s="85" t="s">
         <v>613</v>
@@ -8404,16 +8397,16 @@
       </c>
       <c r="N38" s="85"/>
       <c r="O38" s="85" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="Q38" s="85" t="s">
+        <v>953</v>
+      </c>
+      <c r="R38" s="85" t="s">
         <v>955</v>
-      </c>
-      <c r="R38" s="85" t="s">
-        <v>957</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -8445,7 +8438,7 @@
         <v>263</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G40" s="84" t="s">
         <v>710</v>
@@ -8604,27 +8597,27 @@
         <v>636</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I44" s="84" t="s">
         <v>612</v>
       </c>
       <c r="J44" s="84" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K44" s="84" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
         <v>263</v>
       </c>
       <c r="N44" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="O44" s="84" t="s">
         <v>710</v>
@@ -8701,11 +8694,11 @@
         <v>637</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="I46" s="85" t="s">
         <v>613</v>
@@ -8759,13 +8752,13 @@
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
+        <v>961</v>
+      </c>
+      <c r="E48" s="84" t="s">
         <v>963</v>
       </c>
-      <c r="E48" s="84" t="s">
-        <v>965</v>
-      </c>
       <c r="F48" s="84" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G48" s="84" t="s">
         <v>612</v>
@@ -8775,16 +8768,16 @@
         <v>609</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="K48" s="84" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="L48" s="84" t="s">
         <v>296</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="N48" s="84" t="s">
         <v>710</v>
@@ -8797,7 +8790,7 @@
         <v>603</v>
       </c>
       <c r="R48" s="84" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="S48" s="93"/>
       <c r="V48" s="60"/>
@@ -8858,13 +8851,13 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E50" s="85" t="s">
         <v>653</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="G50" s="85" t="s">
         <v>613</v>
@@ -8883,7 +8876,7 @@
         <v>304</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="N50" s="85" t="s">
         <v>711</v>
@@ -8896,7 +8889,7 @@
         <v>604</v>
       </c>
       <c r="R50" s="85" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="S50" s="96"/>
       <c r="V50" s="60"/>
@@ -8927,7 +8920,7 @@
         <v>846</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F52" s="84" t="s">
         <v>658</v>
@@ -8937,7 +8930,7 @@
         <v>636</v>
       </c>
       <c r="I52" s="84" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>253</v>
@@ -8956,10 +8949,10 @@
         <v>662</v>
       </c>
       <c r="P52" s="84" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q52" s="84" t="s">
         <v>977</v>
-      </c>
-      <c r="Q52" s="84" t="s">
-        <v>979</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -9024,7 +9017,7 @@
         <v>847</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F54" s="85" t="s">
         <v>659</v>
@@ -9034,7 +9027,7 @@
         <v>637</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J54" s="85" t="s">
         <v>254</v>
@@ -9053,10 +9046,10 @@
         <v>663</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -9085,7 +9078,7 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E56" s="84" t="s">
         <v>603</v>
@@ -9094,20 +9087,20 @@
         <v>267</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H56" s="84"/>
       <c r="I56" s="84" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J56" s="84" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="K56" s="84" t="s">
         <v>848</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="M56" s="84" t="s">
         <v>664</v>
@@ -9116,7 +9109,7 @@
         <v>257</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="P56" s="84"/>
       <c r="Q56" s="84" t="s">
@@ -9184,7 +9177,7 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E58" s="85" t="s">
         <v>604</v>
@@ -9193,20 +9186,20 @@
         <v>268</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H58" s="85"/>
       <c r="I58" s="85" t="s">
         <v>653</v>
       </c>
       <c r="J58" s="85" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K58" s="85" t="s">
         <v>849</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="M58" s="85" t="s">
         <v>665</v>
@@ -9215,7 +9208,7 @@
         <v>258</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="P58" s="85"/>
       <c r="Q58" s="85" t="s">
@@ -9256,23 +9249,23 @@
         <v>285</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G60" s="84" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H60" s="84" t="s">
         <v>265</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84" t="s">
+        <v>991</v>
+      </c>
+      <c r="L60" s="84" t="s">
         <v>993</v>
-      </c>
-      <c r="L60" s="84" t="s">
-        <v>995</v>
       </c>
       <c r="M60" s="84" t="s">
         <v>671</v>
@@ -9280,13 +9273,13 @@
       <c r="N60" s="84"/>
       <c r="O60" s="84"/>
       <c r="P60" s="84" t="s">
+        <v>995</v>
+      </c>
+      <c r="Q60" s="84" t="s">
         <v>997</v>
       </c>
-      <c r="Q60" s="84" t="s">
-        <v>999</v>
-      </c>
       <c r="R60" s="84" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -9353,10 +9346,10 @@
         <v>308</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="G62" s="85" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H62" s="85" t="s">
         <v>266</v>
@@ -9366,10 +9359,10 @@
       </c>
       <c r="J62" s="85"/>
       <c r="K62" s="85" t="s">
+        <v>992</v>
+      </c>
+      <c r="L62" s="85" t="s">
         <v>994</v>
-      </c>
-      <c r="L62" s="85" t="s">
-        <v>996</v>
       </c>
       <c r="M62" s="85" t="s">
         <v>672</v>
@@ -9377,13 +9370,13 @@
       <c r="N62" s="85"/>
       <c r="O62" s="85"/>
       <c r="P62" s="85" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q62" s="85" t="s">
         <v>998</v>
       </c>
-      <c r="Q62" s="85" t="s">
-        <v>1000</v>
-      </c>
       <c r="R62" s="85" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -9411,16 +9404,16 @@
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="56"/>
       <c r="D64" s="84" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E64" s="84" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F64" s="84" t="s">
         <v>257</v>
       </c>
       <c r="G64" s="84" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H64" s="84" t="s">
         <v>612</v>
@@ -9428,7 +9421,7 @@
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="L64" s="84" t="s">
         <v>612</v>
@@ -9437,11 +9430,11 @@
         <v>848</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="O64" s="84"/>
       <c r="P64" s="84" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="Q64" s="84" t="s">
         <v>612</v>
@@ -9508,10 +9501,10 @@
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="58"/>
       <c r="D66" s="85" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F66" s="85" t="s">
         <v>258</v>
@@ -9525,7 +9518,7 @@
       <c r="I66" s="85"/>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="L66" s="85" t="s">
         <v>613</v>
@@ -9538,7 +9531,7 @@
       </c>
       <c r="O66" s="85"/>
       <c r="P66" s="85" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="Q66" s="85" t="s">
         <v>613</v>
@@ -9585,11 +9578,11 @@
         <v>674</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="L68" s="84" t="s">
         <v>265</v>
@@ -9602,10 +9595,10 @@
       </c>
       <c r="O68" s="84"/>
       <c r="P68" s="84" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="Q68" s="84" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="R68" s="84" t="s">
         <v>257</v>
@@ -9686,7 +9679,7 @@
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="L70" s="85" t="s">
         <v>266</v>
@@ -9699,10 +9692,10 @@
       </c>
       <c r="O70" s="85"/>
       <c r="P70" s="85" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="Q70" s="85" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="R70" s="85" t="s">
         <v>258</v>
@@ -9733,7 +9726,7 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E72" s="84"/>
       <c r="F72" s="84" t="s">
@@ -9743,32 +9736,32 @@
         <v>678</v>
       </c>
       <c r="H72" s="84" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I72" s="84" t="s">
+        <v>966</v>
+      </c>
+      <c r="J72" s="84" t="s">
         <v>1007</v>
-      </c>
-      <c r="I72" s="84" t="s">
-        <v>968</v>
-      </c>
-      <c r="J72" s="84" t="s">
-        <v>1009</v>
       </c>
       <c r="K72" s="84" t="s">
         <v>612</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="P72" s="84" t="s">
         <v>612</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="R72" s="84" t="s">
         <v>255</v>
@@ -9842,7 +9835,7 @@
         <v>679</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="I74" s="85" t="s">
         <v>303</v>
@@ -9854,11 +9847,11 @@
         <v>613</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="O74" s="85" t="s">
         <v>866</v>
@@ -9867,7 +9860,7 @@
         <v>613</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="R74" s="85" t="s">
         <v>256</v>
@@ -10075,20 +10068,20 @@
         <v>678</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F84" s="84" t="s">
         <v>848</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H84" s="84" t="s">
         <v>612</v>
       </c>
       <c r="I84" s="84"/>
       <c r="J84" s="84" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="K84" s="84" t="s">
         <v>257</v>
@@ -10104,10 +10097,10 @@
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="R84" s="84" t="s">
         <v>710</v>
@@ -10174,7 +10167,7 @@
         <v>679</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F86" s="85" t="s">
         <v>849</v>
@@ -10203,7 +10196,7 @@
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="Q86" s="85" t="s">
         <v>286</v>
@@ -10244,10 +10237,10 @@
       </c>
       <c r="F88" s="84"/>
       <c r="G88" s="84" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="I88" s="84" t="s">
         <v>710</v>
@@ -10319,7 +10312,7 @@
       </c>
       <c r="F90" s="85"/>
       <c r="G90" s="85" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H90" s="85" t="s">
         <v>286</v>
@@ -10375,7 +10368,7 @@
         <v>671</v>
       </c>
       <c r="G92" s="84" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H92" s="84" t="s">
         <v>257</v>
@@ -10391,7 +10384,7 @@
         <v>305</v>
       </c>
       <c r="M92" s="84" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="N92" s="84" t="s">
         <v>689</v>
@@ -10474,7 +10467,7 @@
         <v>672</v>
       </c>
       <c r="G94" s="85" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H94" s="85" t="s">
         <v>258</v>
@@ -10531,7 +10524,7 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E96" s="84" t="s">
         <v>687</v>
@@ -10550,7 +10543,7 @@
         <v>689</v>
       </c>
       <c r="K96" s="84" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L96" s="84"/>
       <c r="M96" s="84"/>
@@ -10625,7 +10618,7 @@
         <v>690</v>
       </c>
       <c r="K98" s="85" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -10666,7 +10659,7 @@
         <v>251</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="G100" s="84" t="s">
         <v>850</v>
@@ -10688,14 +10681,14 @@
         <v>595</v>
       </c>
       <c r="N100" s="84" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="O100" s="84"/>
       <c r="P100" s="84" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="Q100" s="84" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="R100" s="84" t="s">
         <v>244</v>
@@ -10787,7 +10780,7 @@
         <v>596</v>
       </c>
       <c r="N102" s="85" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="O102" s="85"/>
       <c r="P102" s="85" t="s">
@@ -10825,20 +10818,20 @@
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
       <c r="D104" s="84" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E104" s="84" t="s">
         <v>693</v>
       </c>
       <c r="F104" s="84"/>
       <c r="G104" s="84" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H104" s="84" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="I104" s="84" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="J104" s="84" t="s">
         <v>685</v>
@@ -10900,7 +10893,7 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="85" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E106" s="85" t="s">
         <v>694</v>
@@ -10913,7 +10906,7 @@
         <v>243</v>
       </c>
       <c r="I106" s="85" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="J106" s="85" t="s">
         <v>686</v>
@@ -10954,23 +10947,23 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E108" s="84" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F108" s="84" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G108" s="84" t="s">
         <v>1025</v>
       </c>
-      <c r="F108" s="84" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G108" s="84" t="s">
+      <c r="H108" s="84" t="s">
         <v>1027</v>
-      </c>
-      <c r="H108" s="84" t="s">
-        <v>1029</v>
       </c>
       <c r="I108" s="84"/>
       <c r="J108" s="84" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="K108" s="84" t="s">
         <v>706</v>
@@ -10982,7 +10975,7 @@
         <v>852</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
@@ -10992,7 +10985,7 @@
         <v>712</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -11059,13 +11052,13 @@
         <v>703</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G110" s="85" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H110" s="85" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I110" s="85"/>
       <c r="J110" s="85" t="s">
@@ -11122,7 +11115,7 @@
         <v>715</v>
       </c>
       <c r="E112" s="84" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F112" s="84"/>
       <c r="G112" s="84" t="s">
@@ -11132,7 +11125,7 @@
         <v>717</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J112" s="84" t="s">
         <v>704</v>
@@ -11197,7 +11190,7 @@
         <v>716</v>
       </c>
       <c r="E114" s="85" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F114" s="85"/>
       <c r="G114" s="85" t="s">
@@ -11207,7 +11200,7 @@
         <v>718</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J114" s="85" t="s">
         <v>705</v>
@@ -11251,13 +11244,13 @@
         <v>710</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F116" s="84" t="s">
         <v>878</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H116" s="84" t="s">
         <v>820</v>
@@ -11270,7 +11263,7 @@
         <v>723</v>
       </c>
       <c r="L116" s="84" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M116" s="84" t="s">
         <v>725</v>
@@ -11350,13 +11343,13 @@
         <v>711</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F118" s="85" t="s">
         <v>879</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H118" s="85" t="s">
         <v>821</v>
@@ -11369,7 +11362,7 @@
         <v>724</v>
       </c>
       <c r="L118" s="85" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="M118" s="85" t="s">
         <v>726</v>
@@ -11413,17 +11406,17 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="84" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E120" s="84" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F120" s="84"/>
       <c r="G120" s="84" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H120" s="84" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="I120" s="84" t="s">
         <v>656</v>
@@ -11488,17 +11481,17 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="85" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E122" s="85" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F122" s="85"/>
       <c r="G122" s="85" t="s">
         <v>649</v>
       </c>
       <c r="H122" s="85" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="I122" s="85" t="s">
         <v>657</v>
@@ -11548,10 +11541,10 @@
         <v>710</v>
       </c>
       <c r="F124" s="84" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H124" s="84" t="s">
         <v>733</v>
@@ -11567,7 +11560,7 @@
         <v>739</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="N124" s="84" t="s">
         <v>741</v>
@@ -11650,7 +11643,7 @@
         <v>302</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H126" s="85" t="s">
         <v>734</v>
@@ -11666,7 +11659,7 @@
         <v>740</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="N126" s="85" t="s">
         <v>742</v>
@@ -11710,7 +11703,7 @@
         <v>745</v>
       </c>
       <c r="E128" s="84" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F128" s="84"/>
       <c r="G128" s="84" t="s">
@@ -11723,7 +11716,7 @@
         <v>751</v>
       </c>
       <c r="J128" s="84" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="K128" s="84" t="s">
         <v>753</v>
@@ -11785,7 +11778,7 @@
         <v>746</v>
       </c>
       <c r="E130" s="85" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F130" s="85"/>
       <c r="G130" s="85" t="s">
@@ -11798,7 +11791,7 @@
         <v>752</v>
       </c>
       <c r="J130" s="85" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="K130" s="85" t="s">
         <v>754</v>
@@ -11845,7 +11838,7 @@
         <v>755</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H132" s="84" t="s">
         <v>759</v>
@@ -11855,26 +11848,26 @@
         <v>761</v>
       </c>
       <c r="K132" s="84" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L132" s="84" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M132" s="84" t="s">
         <v>1050</v>
-      </c>
-      <c r="L132" s="84" t="s">
-        <v>1031</v>
-      </c>
-      <c r="M132" s="84" t="s">
-        <v>1052</v>
       </c>
       <c r="N132" s="84" t="s">
         <v>741</v>
       </c>
       <c r="O132" s="84"/>
       <c r="P132" s="84" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="Q132" s="84" t="s">
         <v>612</v>
       </c>
       <c r="R132" s="84" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="S132" s="93"/>
       <c r="V132" s="60"/>
@@ -11944,7 +11937,7 @@
         <v>756</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H134" s="85" t="s">
         <v>760</v>
@@ -11954,13 +11947,13 @@
         <v>762</v>
       </c>
       <c r="K134" s="85" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L134" s="85" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M134" s="85" t="s">
         <v>1051</v>
-      </c>
-      <c r="L134" s="85" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M134" s="85" t="s">
-        <v>1053</v>
       </c>
       <c r="N134" s="85" t="s">
         <v>742</v>
@@ -11973,7 +11966,7 @@
         <v>613</v>
       </c>
       <c r="R134" s="85" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="S134" s="96"/>
       <c r="V134" s="60"/>
@@ -12001,7 +11994,7 @@
     <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="56"/>
       <c r="D136" s="84" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E136" s="84" t="s">
         <v>763</v>
@@ -12014,13 +12007,13 @@
         <v>741</v>
       </c>
       <c r="I136" s="84" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J136" s="84" t="s">
         <v>765</v>
       </c>
       <c r="K136" s="84" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="L136" s="84"/>
       <c r="M136" s="84"/>
@@ -12076,7 +12069,7 @@
     <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="58"/>
       <c r="D138" s="85" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E138" s="85" t="s">
         <v>764</v>
@@ -12089,7 +12082,7 @@
         <v>742</v>
       </c>
       <c r="I138" s="85" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="J138" s="85" t="s">
         <v>766</v>
@@ -12142,7 +12135,7 @@
         <v>271</v>
       </c>
       <c r="H140" s="84" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I140" s="84"/>
       <c r="J140" s="84" t="s">
@@ -12155,14 +12148,14 @@
         <v>668</v>
       </c>
       <c r="M140" s="84" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="N140" s="84" t="s">
         <v>886</v>
       </c>
       <c r="O140" s="84"/>
       <c r="P140" s="84" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="Q140" s="84" t="s">
         <v>710</v>
@@ -12241,7 +12234,7 @@
         <v>272</v>
       </c>
       <c r="H142" s="85" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I142" s="85"/>
       <c r="J142" s="85" t="s">
@@ -12261,7 +12254,7 @@
       </c>
       <c r="O142" s="85"/>
       <c r="P142" s="85" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="Q142" s="85" t="s">
         <v>711</v>
@@ -12305,7 +12298,7 @@
         <v>678</v>
       </c>
       <c r="H144" s="84" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="I144" s="84" t="s">
         <v>768</v>
@@ -12314,7 +12307,7 @@
         <v>846</v>
       </c>
       <c r="K144" s="84" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="L144" s="84"/>
       <c r="M144" s="84"/>
@@ -12380,7 +12373,7 @@
         <v>679</v>
       </c>
       <c r="H146" s="85" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="I146" s="85" t="s">
         <v>769</v>
@@ -12436,11 +12429,11 @@
         <v>778</v>
       </c>
       <c r="H148" s="84" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="I148" s="84"/>
       <c r="J148" s="84" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="K148" s="84" t="s">
         <v>780</v>
@@ -12449,17 +12442,17 @@
         <v>710</v>
       </c>
       <c r="M148" s="84" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="N148" s="84" t="s">
         <v>715</v>
       </c>
       <c r="O148" s="84"/>
       <c r="P148" s="84" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="Q148" s="84" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="R148" s="84" t="s">
         <v>822</v>
@@ -12535,11 +12528,11 @@
         <v>779</v>
       </c>
       <c r="H150" s="85" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="I150" s="85"/>
       <c r="J150" s="85" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="K150" s="85" t="s">
         <v>781</v>
@@ -12558,7 +12551,7 @@
         <v>782</v>
       </c>
       <c r="Q150" s="85" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="R150" s="85" t="s">
         <v>823</v>
@@ -12589,7 +12582,7 @@
     <row r="152" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="56"/>
       <c r="D152" s="84" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E152" s="84" t="s">
         <v>783</v>
@@ -12599,13 +12592,13 @@
         <v>656</v>
       </c>
       <c r="H152" s="84" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I152" s="84" t="s">
         <v>776</v>
       </c>
       <c r="J152" s="84" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="K152" s="84" t="s">
         <v>618</v>
@@ -12664,7 +12657,7 @@
     <row r="154" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="58"/>
       <c r="D154" s="85" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E154" s="85" t="s">
         <v>784</v>
@@ -12674,13 +12667,13 @@
         <v>657</v>
       </c>
       <c r="H154" s="85" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I154" s="85" t="s">
         <v>777</v>
       </c>
       <c r="J154" s="85" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="K154" s="85" t="s">
         <v>619</v>
@@ -12718,19 +12711,19 @@
     <row r="156" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="56"/>
       <c r="D156" s="84" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E156" s="84" t="s">
         <v>585</v>
       </c>
       <c r="F156" s="84" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="G156" s="84" t="s">
         <v>253</v>
       </c>
       <c r="H156" s="84" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I156" s="84"/>
       <c r="J156" s="84" t="s">
@@ -12740,17 +12733,17 @@
         <v>788</v>
       </c>
       <c r="L156" s="84" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M156" s="84" t="s">
         <v>251</v>
       </c>
       <c r="N156" s="84" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="O156" s="84"/>
       <c r="P156" s="84" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="Q156" s="84" t="s">
         <v>646</v>
@@ -12817,19 +12810,19 @@
     <row r="158" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="58"/>
       <c r="D158" s="85" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E158" s="85" t="s">
         <v>586</v>
       </c>
       <c r="F158" s="85" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G158" s="85" t="s">
         <v>254</v>
       </c>
       <c r="H158" s="85" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="I158" s="85"/>
       <c r="J158" s="85" t="s">
@@ -12839,17 +12832,17 @@
         <v>789</v>
       </c>
       <c r="L158" s="85" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="M158" s="85" t="s">
         <v>252</v>
       </c>
       <c r="N158" s="85" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="O158" s="85"/>
       <c r="P158" s="85" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="Q158" s="85" t="s">
         <v>647</v>
@@ -12893,10 +12886,10 @@
         <v>794</v>
       </c>
       <c r="H160" s="84" t="s">
+        <v>966</v>
+      </c>
+      <c r="I160" s="84" t="s">
         <v>968</v>
-      </c>
-      <c r="I160" s="84" t="s">
-        <v>970</v>
       </c>
       <c r="J160" s="84" t="s">
         <v>593</v>
@@ -12971,7 +12964,7 @@
         <v>303</v>
       </c>
       <c r="I162" s="85" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J162" s="85" t="s">
         <v>594</v>
@@ -13012,10 +13005,10 @@
     <row r="164" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="56"/>
       <c r="D164" s="84" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F164" s="84" t="s">
         <v>798</v>
@@ -13024,11 +13017,11 @@
         <v>735</v>
       </c>
       <c r="H164" s="84" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="I164" s="84"/>
       <c r="J164" s="84" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="K164" s="84" t="s">
         <v>888</v>
@@ -13044,7 +13037,7 @@
       </c>
       <c r="O164" s="84"/>
       <c r="P164" s="84" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="Q164" s="84" t="s">
         <v>273</v>
@@ -13111,10 +13104,10 @@
     <row r="166" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="58"/>
       <c r="D166" s="85" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E166" s="85" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F166" s="85" t="s">
         <v>799</v>
@@ -13123,7 +13116,7 @@
         <v>736</v>
       </c>
       <c r="H166" s="85" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="I166" s="85"/>
       <c r="J166" s="85" t="s">
@@ -13143,7 +13136,7 @@
       </c>
       <c r="O166" s="85"/>
       <c r="P166" s="85" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="Q166" s="85" t="s">
         <v>274</v>
@@ -13187,7 +13180,7 @@
         <v>807</v>
       </c>
       <c r="H168" s="84" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="I168" s="84" t="s">
         <v>809</v>
@@ -13260,7 +13253,7 @@
         <v>808</v>
       </c>
       <c r="H170" s="85" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="I170" s="85" t="s">
         <v>810</v>
@@ -13308,7 +13301,7 @@
         <v>616</v>
       </c>
       <c r="F172" s="84" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G172" s="84" t="s">
         <v>811</v>
@@ -13321,10 +13314,10 @@
         <v>813</v>
       </c>
       <c r="K172" s="84" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="L172" s="84" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M172" s="84" t="s">
         <v>704</v>
@@ -13337,10 +13330,10 @@
         <v>792</v>
       </c>
       <c r="Q172" s="84" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="R172" s="84" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="173" spans="2:22" ht="58.5">
@@ -13405,7 +13398,7 @@
         <v>617</v>
       </c>
       <c r="F174" s="85" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="G174" s="85" t="s">
         <v>812</v>
@@ -13418,10 +13411,10 @@
         <v>814</v>
       </c>
       <c r="K174" s="85" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L174" s="85" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="M174" s="85" t="s">
         <v>705</v>
@@ -13463,10 +13456,10 @@
       <c r="B176" s="56"/>
       <c r="C176" s="1"/>
       <c r="D176" s="84" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E176" s="84" t="s">
         <v>1082</v>
-      </c>
-      <c r="E176" s="84" t="s">
-        <v>1084</v>
       </c>
       <c r="F176" s="84"/>
       <c r="G176" s="84" t="s">
@@ -13476,13 +13469,13 @@
         <v>656</v>
       </c>
       <c r="I176" s="84" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="J176" s="84" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K176" s="84" t="s">
         <v>1087</v>
-      </c>
-      <c r="K176" s="84" t="s">
-        <v>1089</v>
       </c>
       <c r="L176" s="84"/>
       <c r="M176" s="84"/>
@@ -13536,10 +13529,10 @@
       <c r="B178" s="58"/>
       <c r="C178" s="1"/>
       <c r="D178" s="85" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E178" s="85" t="s">
         <v>1083</v>
-      </c>
-      <c r="E178" s="85" t="s">
-        <v>1085</v>
       </c>
       <c r="F178" s="85"/>
       <c r="G178" s="85" t="s">
@@ -13552,10 +13545,10 @@
         <v>632</v>
       </c>
       <c r="J178" s="85" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K178" s="85" t="s">
         <v>1088</v>
-      </c>
-      <c r="K178" s="85" t="s">
-        <v>1090</v>
       </c>
       <c r="L178" s="85"/>
       <c r="M178" s="85"/>
@@ -13588,32 +13581,32 @@
       <c r="B180" s="56"/>
       <c r="C180" s="1"/>
       <c r="D180" s="84" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F180" s="84" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="G180" s="84" t="s">
         <v>792</v>
       </c>
       <c r="H180" s="84" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="I180" s="84"/>
       <c r="J180" s="84" t="s">
         <v>710</v>
       </c>
       <c r="K180" s="84" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="L180" s="84" t="s">
         <v>668</v>
       </c>
       <c r="M180" s="84" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="N180" s="84" t="s">
         <v>818</v>
@@ -13626,7 +13619,7 @@
         <v>848</v>
       </c>
       <c r="R180" s="84" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="181" spans="2:18" ht="58.5">
@@ -13691,26 +13684,26 @@
         <v>670</v>
       </c>
       <c r="F182" s="85" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="G182" s="85" t="s">
         <v>793</v>
       </c>
       <c r="H182" s="85" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I182" s="85"/>
       <c r="J182" s="85" t="s">
         <v>711</v>
       </c>
       <c r="K182" s="85" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="L182" s="85" t="s">
         <v>669</v>
       </c>
       <c r="M182" s="85" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="N182" s="85" t="s">
         <v>819</v>
@@ -13723,7 +13716,7 @@
         <v>849</v>
       </c>
       <c r="R182" s="85" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -13749,26 +13742,26 @@
       <c r="B184" s="56"/>
       <c r="C184" s="1"/>
       <c r="D184" s="84" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E184" s="84" t="s">
         <v>1099</v>
-      </c>
-      <c r="E184" s="84" t="s">
-        <v>1101</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="84" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H184" s="84" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="I184" s="84" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J184" s="84" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K184" s="84" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L184" s="84"/>
       <c r="M184" s="84"/>
@@ -13822,26 +13815,26 @@
       <c r="B186" s="58"/>
       <c r="C186" s="1"/>
       <c r="D186" s="85" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E186" s="85" t="s">
         <v>1100</v>
-      </c>
-      <c r="E186" s="85" t="s">
-        <v>1102</v>
       </c>
       <c r="F186" s="85"/>
       <c r="G186" s="85" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H186" s="85" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="I186" s="85" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J186" s="85" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="K186" s="85" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="L186" s="85"/>
       <c r="M186" s="85"/>
@@ -13877,7 +13870,7 @@
         <v>822</v>
       </c>
       <c r="E188" s="84" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F188" s="84" t="s">
         <v>824</v>
@@ -13886,17 +13879,17 @@
         <v>824</v>
       </c>
       <c r="H188" s="84" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="I188" s="84"/>
       <c r="J188" s="84" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="K188" s="84" t="s">
         <v>719</v>
       </c>
       <c r="L188" s="84" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="M188" s="84" t="s">
         <v>826</v>
@@ -13912,7 +13905,7 @@
         <v>605</v>
       </c>
       <c r="R188" s="84" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="58.5">
@@ -13987,13 +13980,13 @@
       </c>
       <c r="I190" s="85"/>
       <c r="J190" s="85" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="K190" s="85" t="s">
         <v>720</v>
       </c>
       <c r="L190" s="85" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="M190" s="85" t="s">
         <v>827</v>
@@ -14009,7 +14002,7 @@
         <v>606</v>
       </c>
       <c r="R190" s="85" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="191" spans="2:18">
@@ -14038,17 +14031,17 @@
         <v>591</v>
       </c>
       <c r="E192" s="84" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="84" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H192" s="84" t="s">
         <v>678</v>
       </c>
       <c r="I192" s="84" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J192" s="84" t="s">
         <v>848</v>
@@ -14111,7 +14104,7 @@
         <v>592</v>
       </c>
       <c r="E194" s="85" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F194" s="85"/>
       <c r="G194" s="85" t="s">
@@ -14121,7 +14114,7 @@
         <v>679</v>
       </c>
       <c r="I194" s="85" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J194" s="85" t="s">
         <v>849</v>
@@ -14182,7 +14175,7 @@
         <v>282</v>
       </c>
       <c r="L196" s="84" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="M196" s="84" t="s">
         <v>834</v>
@@ -14192,7 +14185,7 @@
       </c>
       <c r="O196" s="84"/>
       <c r="P196" s="84" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="Q196" s="84" t="s">
         <v>626</v>
@@ -14289,7 +14282,7 @@
       </c>
       <c r="O198" s="85"/>
       <c r="P198" s="85" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="Q198" s="85" t="s">
         <v>627</v>
@@ -14324,17 +14317,17 @@
         <v>838</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="84" t="s">
         <v>765</v>
       </c>
       <c r="H200" s="84" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="I200" s="84" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="J200" s="84" t="s">
         <v>723</v>
@@ -14397,17 +14390,17 @@
         <v>839</v>
       </c>
       <c r="E202" s="85" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F202" s="85"/>
       <c r="G202" s="85" t="s">
         <v>766</v>
       </c>
       <c r="H202" s="85" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I202" s="85" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="J202" s="85" t="s">
         <v>724</v>

--- a/output5/【河洛話注音】《正氣歌》【河洛白話音】.xlsx
+++ b/output5/【河洛話注音】《正氣歌》【河洛白話音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0C1AC53-5A45-4E4D-91C2-B14CBAE142BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F737F8-FFD5-4FCA-801F-DA5844C96B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1160">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1291,14 +1291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kiong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ki5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1307,22 +1299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>it4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thoo2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1331,14 +1307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ham5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆰˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>si5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1355,14 +1323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆠㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>u5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1387,34 +1347,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sui5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sim5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㆬˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄐㄧㄚˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jin5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄣˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hing5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1427,10 +1363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ti1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄐㄧㆻ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1443,6 +1375,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ti7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1451,38 +1391,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>su2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>liu5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄧㄨˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄏㄧㄥˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kian3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄢ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ian1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1495,6 +1407,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ㄑㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ㄘㄨㆵ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1503,10 +1419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄒㄧㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sai3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1519,10 +1431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>余</t>
   </si>
   <si>
@@ -1547,9 +1455,6 @@
     <t>八</t>
   </si>
   <si>
-    <t>尺</t>
-  </si>
-  <si>
     <t>深</t>
   </si>
   <si>
@@ -1625,18 +1530,12 @@
     <t>涂</t>
   </si>
   <si>
-    <t>泥</t>
-  </si>
-  <si>
     <t>朝</t>
   </si>
   <si>
     <t>蒸</t>
   </si>
   <si>
-    <t>漚</t>
-  </si>
-  <si>
     <t>歷</t>
   </si>
   <si>
@@ -1649,9 +1548,6 @@
     <t>晴</t>
   </si>
   <si>
-    <t>暴</t>
-  </si>
-  <si>
     <t>熱</t>
   </si>
   <si>
@@ -1688,9 +1584,6 @@
     <t>火</t>
   </si>
   <si>
-    <t>倉</t>
-  </si>
-  <si>
     <t>腐</t>
   </si>
   <si>
@@ -1793,9 +1686,6 @@
     <t>幸</t>
   </si>
   <si>
-    <t>恙</t>
-  </si>
-  <si>
     <t>殆</t>
   </si>
   <si>
@@ -2359,22 +2249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kong2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㆲˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2391,6 +2265,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>si3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tan1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2407,30 +2289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ji5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2447,14 +2305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2491,14 +2341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄌㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄚ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2507,19 +2349,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jiat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆰˊ</t>
+    <t>po7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>im1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㆬ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2543,14 +2385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㆲ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2587,14 +2421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄥ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2675,14 +2501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>an1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2723,14 +2541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thian1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄧㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄐㄧㄥ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2775,10 +2585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㆤˊ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2792,10 +2598,6 @@
   </si>
   <si>
     <t>短</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>閒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2882,10 +2684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2942,6 +2740,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ㄘㄜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ping1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2950,14 +2752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>suat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>piau2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3078,6 +2872,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pok8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3114,14 +2916,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆰ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3158,14 +2952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kiu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㄨˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3178,14 +2964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ku1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄍㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kam1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3210,14 +2988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tian5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3246,14 +3016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ke1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3290,14 +3052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hik8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kok4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3378,14 +3132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>su1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kan1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3418,14 +3164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iu2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄨˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nai2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3442,19 +3180,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uan2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tun3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄣ˪</t>
+    <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨㄧ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3490,10 +3220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐㄧㄥ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嵇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3588,14 +3314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tiann5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3604,34 +3322,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tso7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tshe6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tshim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>su3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ke6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sio2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3664,14 +3358,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hee7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄝ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tsu1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3692,22 +3378,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tang6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄉㄤˋ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshong5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆲˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ki1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3764,18 +3438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>to7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄜ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iam1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tsoo7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3792,26 +3454,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>her2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tshong1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bi2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3848,46 +3494,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshir2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄑˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tshut4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thah8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄚㆷ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>si6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soo3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㆦ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tsi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3896,22 +3506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>put4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄨㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thoo7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆦ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tshan1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3932,10 +3526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ah0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄚㆷ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4020,18 +3610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ho6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pi2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tshit4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4052,10 +3630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsing3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ia7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4064,14 +3638,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsok4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㆦㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kua1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4084,14 +3650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshing1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tsai6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4136,10 +3694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsiong1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>thau5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4392,14 +3946,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ngau7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4408,10 +3954,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thann1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>biu7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4444,14 +3986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㆦㆻ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tsiau3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4494,10 +4028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄧㆰ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㆥ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4510,18 +4040,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄚㆷ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄉㄞ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄏㄜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄍㄨㄚ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4566,11 +4088,583 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄊㆩ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄅㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pak4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄚㆻ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tse7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kng2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆭˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆤㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆤㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tng1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆭ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆦ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiunn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆫˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kia3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄚ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phainn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㆮˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siau3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄒㄧㄠ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshinn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㆪ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆬ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄨ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄚㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thinn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆪ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆩ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsoh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lau5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄠˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆰˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄧㄣˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kinn3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆪ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sue5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㆤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨㆩ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆤㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>senn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㆩ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mia7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄇㄧㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄚ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshioh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄑㄧㄜㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄨㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ke7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>li5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tang7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshng5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆭˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄋㄨㄚ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄨㄚㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆤˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshng1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㆭ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tng3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㆭ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㄣ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsho1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thiap8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄧㄚㆴ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bue7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆠㄨㆤ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄤˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsiah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄚㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄚㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gua2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣㄨㄚˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄧ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hng7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆭ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thak8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄚㆻ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5330,7 +5424,7 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5619,9 +5713,6 @@
     </xf>
     <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6751,7 +6842,7 @@
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -6791,7 +6882,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>1111</v>
+        <v>993</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -6799,7 +6890,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -6807,7 +6898,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -6844,18 +6935,18 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="99" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>1109</v>
+        <v>991</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="99" t="s">
-        <v>890</v>
+        <v>820</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>1110</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -6879,8 +6970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -6937,75 +7028,75 @@
       <c r="Q3" s="83"/>
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
-      <c r="V3" s="104" t="s">
-        <v>699</v>
+      <c r="V3" s="103" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="56"/>
       <c r="D4" s="84" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>891</v>
+        <v>1016</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>893</v>
+        <v>821</v>
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>895</v>
+        <v>1018</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>255</v>
+        <v>1020</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>259</v>
+        <v>841</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="M4" s="84"/>
       <c r="N4" s="84" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="O4" s="84" t="s">
-        <v>587</v>
+        <v>1022</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>589</v>
+        <v>1024</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>897</v>
+        <v>1105</v>
       </c>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
-      <c r="V4" s="105"/>
+      <c r="V4" s="104"/>
     </row>
     <row r="5" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="57">
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>311</v>
+        <v>287</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>288</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="J5" s="80" t="s">
         <v>202</v>
@@ -7014,73 +7105,73 @@
         <v>208</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="M5" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="N5" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="O5" s="80" t="s">
-        <v>315</v>
+      <c r="N5" s="98" t="s">
+        <v>291</v>
+      </c>
+      <c r="O5" s="98" t="s">
+        <v>292</v>
       </c>
       <c r="P5" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q5" s="80" t="s">
-        <v>317</v>
+        <v>293</v>
+      </c>
+      <c r="Q5" s="98" t="s">
+        <v>1092</v>
       </c>
       <c r="R5" s="80" t="s">
         <v>186</v>
       </c>
       <c r="S5" s="94"/>
-      <c r="V5" s="105"/>
+      <c r="V5" s="104"/>
     </row>
     <row r="6" spans="2:29" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="58"/>
       <c r="C6" s="87"/>
       <c r="D6" s="85" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>892</v>
+        <v>1017</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="85" t="s">
-        <v>896</v>
+        <v>1019</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>256</v>
+        <v>1021</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>260</v>
+        <v>842</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="85" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="O6" s="85" t="s">
-        <v>588</v>
+        <v>1023</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>590</v>
+        <v>1025</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
-      <c r="V6" s="105"/>
+      <c r="V6" s="104"/>
     </row>
     <row r="7" spans="2:29" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="55"/>
@@ -7101,51 +7192,51 @@
       <c r="Q7" s="83"/>
       <c r="R7" s="83"/>
       <c r="S7" s="66"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="104"/>
     </row>
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84" t="s">
-        <v>898</v>
+        <v>823</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>899</v>
+        <v>562</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>277</v>
+        <v>1107</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>901</v>
+        <v>1109</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>902</v>
+        <v>824</v>
       </c>
       <c r="M8" s="84"/>
       <c r="N8" s="84" t="s">
-        <v>599</v>
+        <v>1026</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>904</v>
+        <v>826</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>601</v>
+        <v>1028</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>906</v>
+        <v>1111</v>
       </c>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="104"/>
     </row>
     <row r="9" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="57">
@@ -7153,28 +7244,28 @@
         <v>2</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>320</v>
-      </c>
-      <c r="G9" s="80" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="98" t="s">
         <v>239</v>
       </c>
       <c r="H9" s="80" t="s">
         <v>198</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>322</v>
-      </c>
-      <c r="K9" s="80" t="s">
-        <v>323</v>
+        <v>298</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>299</v>
       </c>
       <c r="L9" s="80" t="s">
         <v>205</v>
@@ -7183,67 +7274,67 @@
         <v>186</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>324</v>
-      </c>
-      <c r="O9" s="103" t="s">
-        <v>696</v>
+        <v>300</v>
+      </c>
+      <c r="O9" s="102" t="s">
+        <v>1159</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>695</v>
-      </c>
-      <c r="Q9" s="80" t="s">
-        <v>325</v>
+        <v>645</v>
+      </c>
+      <c r="Q9" s="98" t="s">
+        <v>301</v>
       </c>
       <c r="R9" s="80" t="s">
         <v>186</v>
       </c>
       <c r="S9" s="94"/>
       <c r="T9" s="92"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="104"/>
     </row>
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85" t="s">
-        <v>1113</v>
+        <v>995</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>900</v>
+        <v>563</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>278</v>
+        <v>1108</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>598</v>
+        <v>567</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>808</v>
+        <v>1110</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>903</v>
+        <v>825</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85" t="s">
-        <v>600</v>
+        <v>1027</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>905</v>
+        <v>827</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>602</v>
+        <v>1029</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>286</v>
+        <v>1112</v>
       </c>
       <c r="R10" s="85"/>
       <c r="S10" s="96"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="104"/>
     </row>
     <row r="11" spans="2:29" s="66" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="65"/>
@@ -7263,152 +7354,152 @@
       <c r="P11" s="83"/>
       <c r="Q11" s="83"/>
       <c r="R11" s="83"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="104"/>
     </row>
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>660</v>
+        <v>615</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>907</v>
+        <v>1030</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>603</v>
+        <v>1113</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="84" t="s">
-        <v>609</v>
+        <v>1032</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>909</v>
+        <v>831</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>910</v>
+        <v>829</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="N12" s="84"/>
       <c r="O12" s="84" t="s">
-        <v>912</v>
+        <v>832</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>913</v>
+        <v>833</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>257</v>
+        <v>872</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="V12" s="105"/>
+      <c r="V12" s="104"/>
     </row>
     <row r="13" spans="2:29" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="57">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="103" t="s">
-        <v>697</v>
+      <c r="D13" s="80" t="s">
+        <v>646</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>198</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="K13" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="L13" s="80" t="s">
-        <v>331</v>
-      </c>
-      <c r="M13" s="80" t="s">
-        <v>236</v>
+      <c r="L13" s="98" t="s">
+        <v>307</v>
+      </c>
+      <c r="M13" s="98" t="s">
+        <v>1093</v>
       </c>
       <c r="N13" s="80" t="s">
         <v>186</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="P13" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="80" t="s">
-        <v>334</v>
-      </c>
-      <c r="R13" s="80" t="s">
+        <v>310</v>
+      </c>
+      <c r="R13" s="98" t="s">
         <v>207</v>
       </c>
       <c r="S13" s="94"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="104"/>
     </row>
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>661</v>
+        <v>616</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>908</v>
+        <v>1031</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>604</v>
+        <v>1114</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>608</v>
+        <v>571</v>
       </c>
       <c r="I14" s="85"/>
       <c r="J14" s="85" t="s">
-        <v>610</v>
+        <v>1033</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>785</v>
+        <v>730</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>911</v>
+        <v>830</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="85" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>614</v>
+        <v>575</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>258</v>
+        <v>873</v>
       </c>
       <c r="S14" s="96"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="104"/>
     </row>
     <row r="15" spans="2:29" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="63"/>
@@ -7428,7 +7519,7 @@
       <c r="P15" s="83"/>
       <c r="Q15" s="83"/>
       <c r="R15" s="83"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="104"/>
       <c r="AC15" s="67" t="s">
         <v>182</v>
       </c>
@@ -7437,45 +7528,45 @@
       <c r="B16" s="56"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84" t="s">
-        <v>842</v>
+        <v>1034</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>844</v>
+        <v>779</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>899</v>
+        <v>562</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>914</v>
+        <v>834</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="84" t="s">
-        <v>915</v>
+        <v>835</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>917</v>
+        <v>1115</v>
       </c>
       <c r="L16" s="84" t="s">
-        <v>919</v>
+        <v>1117</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>921</v>
+        <v>838</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="Q16" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>922</v>
+        <v>839</v>
       </c>
       <c r="S16" s="93"/>
-      <c r="V16" s="105"/>
+      <c r="V16" s="104"/>
     </row>
     <row r="17" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="57">
@@ -7486,31 +7577,31 @@
         <v>221</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="I17" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="J17" s="103" t="s">
-        <v>338</v>
+      <c r="J17" s="80" t="s">
+        <v>314</v>
       </c>
       <c r="K17" s="80" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="L17" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="M17" s="100" t="s">
-        <v>698</v>
+        <v>316</v>
+      </c>
+      <c r="M17" s="80" t="s">
+        <v>647</v>
       </c>
       <c r="N17" s="80" t="s">
         <v>186</v>
@@ -7518,8 +7609,8 @@
       <c r="O17" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="P17" s="80" t="s">
-        <v>341</v>
+      <c r="P17" s="98" t="s">
+        <v>317</v>
       </c>
       <c r="Q17" s="80" t="s">
         <v>189</v>
@@ -7528,51 +7619,51 @@
         <v>200</v>
       </c>
       <c r="S17" s="94"/>
-      <c r="V17" s="105"/>
+      <c r="V17" s="104"/>
     </row>
     <row r="18" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="58"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85" t="s">
-        <v>843</v>
+        <v>1035</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>845</v>
+        <v>780</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>900</v>
+        <v>563</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="I18" s="85"/>
       <c r="J18" s="85" t="s">
-        <v>916</v>
+        <v>836</v>
       </c>
       <c r="K18" s="85" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="L18" s="85" t="s">
-        <v>920</v>
+        <v>1118</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>1115</v>
+        <v>997</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>923</v>
+        <v>840</v>
       </c>
       <c r="S18" s="96"/>
-      <c r="V18" s="105"/>
+      <c r="V18" s="104"/>
     </row>
     <row r="19" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="63"/>
@@ -7592,51 +7683,51 @@
       <c r="P19" s="83"/>
       <c r="Q19" s="83"/>
       <c r="R19" s="83"/>
-      <c r="V19" s="105"/>
+      <c r="V19" s="104"/>
     </row>
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>924</v>
+        <v>841</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>926</v>
+        <v>843</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>928</v>
+        <v>845</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84" t="s">
-        <v>930</v>
+        <v>847</v>
       </c>
       <c r="L20" s="84" t="s">
-        <v>931</v>
+        <v>848</v>
       </c>
       <c r="M20" s="84" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>620</v>
+        <v>1119</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="S20" s="93"/>
-      <c r="V20" s="105"/>
+      <c r="V20" s="104"/>
     </row>
     <row r="21" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="57">
@@ -7644,37 +7735,37 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="F21" s="80" t="s">
-        <v>342</v>
-      </c>
-      <c r="G21" s="103" t="s">
-        <v>343</v>
+      <c r="F21" s="98" t="s">
+        <v>318</v>
+      </c>
+      <c r="G21" s="80" t="s">
+        <v>1094</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>700</v>
+        <v>649</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="J21" s="80" t="s">
         <v>186</v>
       </c>
       <c r="K21" s="80" t="s">
-        <v>345</v>
-      </c>
-      <c r="L21" s="98" t="s">
-        <v>346</v>
-      </c>
-      <c r="M21" s="80" t="s">
-        <v>347</v>
-      </c>
-      <c r="N21" s="80" t="s">
-        <v>348</v>
+        <v>320</v>
+      </c>
+      <c r="L21" s="80" t="s">
+        <v>1095</v>
+      </c>
+      <c r="M21" s="98" t="s">
+        <v>321</v>
+      </c>
+      <c r="N21" s="98" t="s">
+        <v>322</v>
       </c>
       <c r="O21" s="80" t="s">
         <v>186</v>
@@ -7683,57 +7774,57 @@
         <v>224</v>
       </c>
       <c r="Q21" s="80" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="R21" s="98" t="s">
         <v>189</v>
       </c>
       <c r="S21" s="94"/>
-      <c r="V21" s="105"/>
+      <c r="V21" s="104"/>
     </row>
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="85" t="s">
-        <v>925</v>
+        <v>842</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>927</v>
+        <v>844</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>929</v>
+        <v>846</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="J22" s="85"/>
       <c r="K22" s="85" t="s">
-        <v>680</v>
+        <v>631</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>1116</v>
+        <v>998</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="N22" s="85" t="s">
-        <v>621</v>
+        <v>1120</v>
       </c>
       <c r="O22" s="85"/>
       <c r="P22" s="85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="R22" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="S22" s="96"/>
-      <c r="V22" s="106"/>
+      <c r="V22" s="105"/>
     </row>
     <row r="23" spans="2:22" s="67" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="63"/>
@@ -7758,43 +7849,43 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="84" t="s">
-        <v>259</v>
+        <v>841</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="84" t="s">
-        <v>932</v>
+        <v>849</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>933</v>
+        <v>850</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>763</v>
+        <v>583</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>624</v>
+        <v>1121</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>934</v>
+        <v>851</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>899</v>
+        <v>562</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="P24" s="84"/>
       <c r="Q24" s="84" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -7808,37 +7899,37 @@
         <v>208</v>
       </c>
       <c r="E25" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="F25" s="80" t="s">
         <v>193</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>349</v>
+        <v>323</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>350</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>351</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>352</v>
+        <v>324</v>
+      </c>
+      <c r="I25" s="98" t="s">
+        <v>1096</v>
+      </c>
+      <c r="J25" s="98" t="s">
+        <v>325</v>
       </c>
       <c r="K25" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="L25" s="98" t="s">
-        <v>353</v>
+      <c r="L25" s="80" t="s">
+        <v>326</v>
       </c>
       <c r="M25" s="98" t="s">
         <v>237</v>
       </c>
       <c r="N25" s="80" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="P25" s="80" t="s">
         <v>186</v>
@@ -7847,7 +7938,7 @@
         <v>224</v>
       </c>
       <c r="R25" s="80" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
@@ -7855,43 +7946,43 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="85" t="s">
-        <v>260</v>
+        <v>842</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="F26" s="85"/>
       <c r="G26" s="85" t="s">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>764</v>
+        <v>584</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>625</v>
+        <v>1122</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>1117</v>
+        <v>999</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>900</v>
+        <v>563</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
@@ -7927,43 +8018,43 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="G28" s="84"/>
       <c r="H28" s="84" t="s">
-        <v>626</v>
+        <v>1123</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>937</v>
+        <v>585</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>628</v>
+        <v>587</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>630</v>
+        <v>589</v>
       </c>
       <c r="L28" s="84"/>
       <c r="M28" s="84" t="s">
-        <v>938</v>
+        <v>852</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>633</v>
+        <v>1036</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>940</v>
+        <v>854</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>761</v>
+        <v>708</v>
       </c>
       <c r="Q28" s="84"/>
       <c r="R28" s="84" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="S28" s="93"/>
       <c r="U28" s="67" t="str">
@@ -7977,44 +8068,44 @@
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="98" t="s">
         <v>236</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="G29" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="H29" s="80" t="s">
-        <v>355</v>
+      <c r="H29" s="98" t="s">
+        <v>1097</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="K29" s="80" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="L29" s="80" t="s">
         <v>186</v>
       </c>
       <c r="M29" s="80" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="N29" s="80" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="P29" s="80" t="s">
-        <v>362</v>
+        <v>334</v>
+      </c>
+      <c r="P29" s="98" t="s">
+        <v>335</v>
       </c>
       <c r="Q29" s="80" t="s">
         <v>186</v>
@@ -8032,43 +8123,43 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="G30" s="85"/>
       <c r="H30" s="85" t="s">
-        <v>627</v>
+        <v>1124</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>1118</v>
+        <v>586</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>629</v>
+        <v>588</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>631</v>
+        <v>590</v>
       </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85" t="s">
-        <v>939</v>
+        <v>853</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>634</v>
+        <v>1037</v>
       </c>
       <c r="O30" s="85" t="s">
-        <v>941</v>
+        <v>855</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>762</v>
+        <v>709</v>
       </c>
       <c r="Q30" s="85"/>
       <c r="R30" s="85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="S30" s="96"/>
       <c r="U30" s="67" t="str">
@@ -8104,42 +8195,42 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>942</v>
+        <v>1125</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="H32" s="84"/>
       <c r="I32" s="84" t="s">
-        <v>944</v>
+        <v>1127</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>636</v>
+        <v>593</v>
       </c>
       <c r="K32" s="84" t="s">
-        <v>273</v>
+        <v>1038</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>856</v>
+        <v>1129</v>
       </c>
       <c r="M32" s="84"/>
       <c r="N32" s="84" t="s">
-        <v>945</v>
+        <v>1131</v>
       </c>
       <c r="O32" s="84" t="s">
-        <v>945</v>
+        <v>1131</v>
       </c>
       <c r="P32" s="84" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>280</v>
+        <v>1133</v>
       </c>
       <c r="R32" s="84"/>
       <c r="S32" s="93"/>
@@ -8155,43 +8246,43 @@
         <v>8</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="F33" s="98" t="s">
-        <v>363</v>
+      <c r="F33" s="80" t="s">
+        <v>336</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>193</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>364</v>
+        <v>1098</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="K33" s="98" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="L33" s="98" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="M33" s="80" t="s">
         <v>186</v>
       </c>
       <c r="N33" s="98" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="P33" s="80" t="s">
-        <v>369</v>
+        <v>340</v>
+      </c>
+      <c r="P33" s="98" t="s">
+        <v>341</v>
       </c>
       <c r="Q33" s="80" t="s">
         <v>188</v>
@@ -8205,42 +8296,42 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>943</v>
+        <v>1126</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="H34" s="85"/>
       <c r="I34" s="85" t="s">
-        <v>635</v>
+        <v>1128</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>637</v>
+        <v>594</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>274</v>
+        <v>1039</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>857</v>
+        <v>1130</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="85" t="s">
-        <v>946</v>
+        <v>1132</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>946</v>
+        <v>1132</v>
       </c>
       <c r="P34" s="85" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>281</v>
+        <v>1134</v>
       </c>
       <c r="R34" s="85"/>
       <c r="S34" s="96"/>
@@ -8269,45 +8360,45 @@
     <row r="36" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="56"/>
       <c r="D36" s="84" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>947</v>
+        <v>857</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="84" t="s">
-        <v>638</v>
+        <v>595</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>640</v>
+        <v>597</v>
       </c>
       <c r="L36" s="84" t="s">
-        <v>949</v>
+        <v>859</v>
       </c>
       <c r="M36" s="84" t="s">
-        <v>642</v>
+        <v>599</v>
       </c>
       <c r="N36" s="84"/>
       <c r="O36" s="84" t="s">
-        <v>950</v>
+        <v>1044</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>951</v>
+        <v>1135</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>952</v>
+        <v>862</v>
       </c>
       <c r="R36" s="84" t="s">
-        <v>954</v>
+        <v>864</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -8321,46 +8412,46 @@
         <v>224</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="F37" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="100" t="s">
-        <v>370</v>
+      <c r="G37" s="80" t="s">
+        <v>342</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I37" s="80" t="s">
         <v>193</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="L37" s="80" t="s">
         <v>197</v>
       </c>
       <c r="M37" s="80" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="N37" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="O37" s="80" t="s">
-        <v>374</v>
-      </c>
-      <c r="P37" s="80" t="s">
-        <v>375</v>
+      <c r="O37" s="98" t="s">
+        <v>346</v>
+      </c>
+      <c r="P37" s="98" t="s">
+        <v>347</v>
       </c>
       <c r="Q37" s="80" t="s">
-        <v>376</v>
-      </c>
-      <c r="R37" s="80" t="s">
-        <v>377</v>
+        <v>348</v>
+      </c>
+      <c r="R37" s="98" t="s">
+        <v>349</v>
       </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
@@ -8368,45 +8459,45 @@
     <row r="38" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="58"/>
       <c r="D38" s="85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E38" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>948</v>
+        <v>858</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="I38" s="85"/>
       <c r="J38" s="85" t="s">
-        <v>639</v>
+        <v>596</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>641</v>
+        <v>598</v>
       </c>
       <c r="L38" s="85" t="s">
         <v>250</v>
       </c>
       <c r="M38" s="85" t="s">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="N38" s="85"/>
       <c r="O38" s="85" t="s">
-        <v>1119</v>
+        <v>1045</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>1120</v>
+        <v>677</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>953</v>
+        <v>863</v>
       </c>
       <c r="R38" s="85" t="s">
-        <v>955</v>
+        <v>865</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -8435,39 +8526,39 @@
       <c r="B40" s="56"/>
       <c r="D40" s="84"/>
       <c r="E40" s="84" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="H40" s="84" t="s">
-        <v>280</v>
+        <v>1133</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="J40" s="84"/>
       <c r="K40" s="84" t="s">
-        <v>816</v>
+        <v>1054</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>648</v>
+        <v>603</v>
       </c>
       <c r="M40" s="84" t="s">
-        <v>858</v>
+        <v>789</v>
       </c>
       <c r="N40" s="84"/>
       <c r="O40" s="84" t="s">
-        <v>816</v>
+        <v>1054</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>652</v>
+        <v>607</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -8485,7 +8576,7 @@
         <v>224</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>189</v>
@@ -8494,31 +8585,31 @@
         <v>188</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="J41" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="K41" s="80" t="s">
-        <v>378</v>
+      <c r="K41" s="98" t="s">
+        <v>1099</v>
       </c>
       <c r="L41" s="80" t="s">
-        <v>379</v>
+        <v>351</v>
       </c>
       <c r="M41" s="80" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
       <c r="N41" s="80" t="s">
         <v>211</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="P41" s="80" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="Q41" s="80" t="s">
-        <v>382</v>
+        <v>354</v>
       </c>
       <c r="R41" s="80" t="s">
         <v>211</v>
@@ -8530,39 +8621,39 @@
       <c r="B42" s="58"/>
       <c r="D42" s="85"/>
       <c r="E42" s="85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="H42" s="85" t="s">
-        <v>281</v>
+        <v>1134</v>
       </c>
       <c r="I42" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="85" t="s">
-        <v>817</v>
+        <v>1055</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="M42" s="85" t="s">
-        <v>859</v>
+        <v>790</v>
       </c>
       <c r="N42" s="85"/>
       <c r="O42" s="85" t="s">
-        <v>817</v>
+        <v>1055</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>653</v>
+        <v>608</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -8591,42 +8682,42 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>816</v>
+        <v>1054</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>636</v>
+        <v>593</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>956</v>
+        <v>1136</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>958</v>
+        <v>1040</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="J44" s="84" t="s">
-        <v>949</v>
+        <v>859</v>
       </c>
       <c r="K44" s="84" t="s">
-        <v>960</v>
+        <v>866</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="N44" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="P44" s="84" t="s">
-        <v>654</v>
+        <v>609</v>
       </c>
       <c r="Q44" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="R44" s="84"/>
       <c r="S44" s="93"/>
@@ -8638,22 +8729,22 @@
         <v>11</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="E45" s="80" t="s">
-        <v>365</v>
+        <v>337</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>383</v>
+        <v>355</v>
       </c>
       <c r="G45" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="H45" s="80" t="s">
-        <v>384</v>
+      <c r="H45" s="98" t="s">
+        <v>356</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="J45" s="80" t="s">
         <v>197</v>
@@ -8668,16 +8759,16 @@
         <v>224</v>
       </c>
       <c r="N45" s="80" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="O45" s="80" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="80" t="s">
-        <v>862</v>
+        <v>793</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="R45" s="80" t="s">
         <v>198</v>
@@ -8688,42 +8779,42 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>817</v>
+        <v>1055</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>637</v>
+        <v>594</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>957</v>
+        <v>280</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>959</v>
+        <v>1041</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="J46" s="85" t="s">
         <v>250</v>
       </c>
       <c r="K46" s="85" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="N46" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="P46" s="85" t="s">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="Q46" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="R46" s="85"/>
       <c r="S46" s="96"/>
@@ -8741,56 +8832,60 @@
       <c r="J47" s="83"/>
       <c r="K47" s="83"/>
       <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
+      <c r="M47" s="83" t="s">
+        <v>1100</v>
+      </c>
       <c r="N47" s="83"/>
       <c r="O47" s="83"/>
       <c r="P47" s="83"/>
       <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
+      <c r="R47" s="83" t="s">
+        <v>1101</v>
+      </c>
       <c r="V47" s="68"/>
     </row>
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>961</v>
+        <v>1137</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>963</v>
+        <v>272</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>964</v>
+        <v>1042</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="H48" s="84"/>
       <c r="I48" s="84" t="s">
-        <v>609</v>
+        <v>1032</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>966</v>
+        <v>867</v>
       </c>
       <c r="K48" s="84" t="s">
-        <v>967</v>
+        <v>868</v>
       </c>
       <c r="L48" s="84" t="s">
-        <v>296</v>
+        <v>1044</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>968</v>
+        <v>1139</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>656</v>
+        <v>611</v>
       </c>
       <c r="P48" s="84"/>
       <c r="Q48" s="84" t="s">
-        <v>603</v>
+        <v>1113</v>
       </c>
       <c r="R48" s="84" t="s">
-        <v>970</v>
+        <v>259</v>
       </c>
       <c r="S48" s="93"/>
       <c r="V48" s="60"/>
@@ -8800,23 +8895,23 @@
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="80" t="s">
-        <v>385</v>
+      <c r="D49" s="98" t="s">
+        <v>357</v>
       </c>
       <c r="E49" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="F49" s="80" t="s">
+      <c r="F49" s="98" t="s">
         <v>194</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="H49" s="80" t="s">
         <v>186</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="J49" s="80" t="s">
         <v>191</v>
@@ -8825,25 +8920,25 @@
         <v>242</v>
       </c>
       <c r="L49" s="80" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="M49" s="98" t="s">
-        <v>863</v>
+        <v>794</v>
       </c>
       <c r="N49" s="80" t="s">
         <v>189</v>
       </c>
       <c r="O49" s="80" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="P49" s="80" t="s">
         <v>198</v>
       </c>
       <c r="Q49" s="80" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="R49" s="98" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="S49" s="94"/>
       <c r="V49" s="60"/>
@@ -8851,45 +8946,45 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>962</v>
+        <v>1138</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>653</v>
+        <v>273</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>965</v>
+        <v>1043</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="H50" s="85"/>
       <c r="I50" s="85" t="s">
-        <v>610</v>
+        <v>1033</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="K50" s="85" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="L50" s="85" t="s">
-        <v>304</v>
+        <v>1045</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>969</v>
+        <v>1140</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
       <c r="P50" s="85"/>
       <c r="Q50" s="85" t="s">
-        <v>604</v>
+        <v>1114</v>
       </c>
       <c r="R50" s="85" t="s">
-        <v>971</v>
+        <v>260</v>
       </c>
       <c r="S50" s="96"/>
       <c r="V50" s="60"/>
@@ -8903,8 +8998,12 @@
       <c r="G51" s="83"/>
       <c r="H51" s="83"/>
       <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
+      <c r="J51" s="83" t="s">
+        <v>1102</v>
+      </c>
+      <c r="K51" s="83" t="s">
+        <v>1103</v>
+      </c>
       <c r="L51" s="83"/>
       <c r="M51" s="83"/>
       <c r="N51" s="83"/>
@@ -8917,42 +9016,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>846</v>
+        <v>781</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>972</v>
+        <v>869</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>658</v>
+        <v>613</v>
       </c>
       <c r="G52" s="84"/>
       <c r="H52" s="84" t="s">
-        <v>636</v>
+        <v>593</v>
       </c>
       <c r="I52" s="84" t="s">
-        <v>973</v>
+        <v>870</v>
       </c>
       <c r="J52" s="84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>840</v>
+        <v>775</v>
       </c>
       <c r="L52" s="84"/>
       <c r="M52" s="84" t="s">
-        <v>660</v>
+        <v>272</v>
       </c>
       <c r="N52" s="84" t="s">
-        <v>874</v>
+        <v>804</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>662</v>
+        <v>617</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>975</v>
+        <v>843</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>977</v>
+        <v>781</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -8964,22 +9063,22 @@
         <v>13</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E53" s="80" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="F53" s="80" t="s">
-        <v>391</v>
+        <v>363</v>
       </c>
       <c r="G53" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H53" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="I53" s="98" t="s">
-        <v>393</v>
+        <v>364</v>
+      </c>
+      <c r="I53" s="80" t="s">
+        <v>365</v>
       </c>
       <c r="J53" s="80" t="s">
         <v>199</v>
@@ -8990,20 +9089,20 @@
       <c r="L53" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="M53" s="80" t="s">
-        <v>394</v>
-      </c>
-      <c r="N53" s="80" t="s">
-        <v>864</v>
+      <c r="M53" s="98" t="s">
+        <v>366</v>
+      </c>
+      <c r="N53" s="98" t="s">
+        <v>795</v>
       </c>
       <c r="O53" s="80" t="s">
-        <v>395</v>
+        <v>367</v>
       </c>
       <c r="P53" s="80" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q53" s="80" t="s">
-        <v>397</v>
+        <v>368</v>
+      </c>
+      <c r="Q53" s="98" t="s">
+        <v>369</v>
       </c>
       <c r="R53" s="80" t="s">
         <v>186</v>
@@ -9014,42 +9113,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>847</v>
+        <v>782</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>1121</v>
+        <v>1002</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>659</v>
+        <v>614</v>
       </c>
       <c r="G54" s="85"/>
       <c r="H54" s="85" t="s">
-        <v>637</v>
+        <v>594</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>974</v>
+        <v>871</v>
       </c>
       <c r="J54" s="85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>841</v>
+        <v>776</v>
       </c>
       <c r="L54" s="85"/>
       <c r="M54" s="85" t="s">
-        <v>661</v>
+        <v>273</v>
       </c>
       <c r="N54" s="85" t="s">
-        <v>875</v>
+        <v>805</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>663</v>
+        <v>618</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>976</v>
+        <v>844</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>1122</v>
+        <v>782</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -9078,45 +9177,45 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>979</v>
+        <v>875</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>603</v>
+        <v>1113</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>267</v>
+        <v>1050</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>981</v>
+        <v>877</v>
       </c>
       <c r="H56" s="84"/>
       <c r="I56" s="84" t="s">
-        <v>963</v>
+        <v>272</v>
       </c>
       <c r="J56" s="84" t="s">
-        <v>983</v>
+        <v>879</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>848</v>
+        <v>1052</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>984</v>
+        <v>880</v>
       </c>
       <c r="M56" s="84" t="s">
-        <v>664</v>
+        <v>619</v>
       </c>
       <c r="N56" s="84" t="s">
-        <v>257</v>
+        <v>872</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>986</v>
+        <v>882</v>
       </c>
       <c r="P56" s="84"/>
       <c r="Q56" s="84" t="s">
-        <v>257</v>
+        <v>872</v>
       </c>
       <c r="R56" s="84" t="s">
-        <v>666</v>
+        <v>1054</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -9127,16 +9226,16 @@
         <v>14</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>398</v>
-      </c>
-      <c r="E57" s="80" t="s">
-        <v>327</v>
+        <v>370</v>
+      </c>
+      <c r="E57" s="98" t="s">
+        <v>303</v>
       </c>
       <c r="F57" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="G57" s="81" t="s">
-        <v>399</v>
+      <c r="G57" s="100" t="s">
+        <v>1104</v>
       </c>
       <c r="H57" s="80" t="s">
         <v>186</v>
@@ -9145,22 +9244,22 @@
         <v>231</v>
       </c>
       <c r="J57" s="80" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="K57" s="80" t="s">
         <v>204</v>
       </c>
       <c r="L57" s="80" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="M57" s="80" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="N57" s="80" t="s">
         <v>207</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>865</v>
+        <v>796</v>
       </c>
       <c r="P57" s="80" t="s">
         <v>198</v>
@@ -9169,7 +9268,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="80" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
@@ -9177,45 +9276,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>980</v>
+        <v>876</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>604</v>
+        <v>1114</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>268</v>
+        <v>1051</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>982</v>
+        <v>878</v>
       </c>
       <c r="H58" s="85"/>
       <c r="I58" s="85" t="s">
-        <v>653</v>
+        <v>273</v>
       </c>
       <c r="J58" s="85" t="s">
-        <v>1123</v>
+        <v>1003</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>849</v>
+        <v>1053</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>985</v>
+        <v>881</v>
       </c>
       <c r="M58" s="85" t="s">
-        <v>665</v>
+        <v>620</v>
       </c>
       <c r="N58" s="85" t="s">
-        <v>258</v>
+        <v>873</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>987</v>
+        <v>883</v>
       </c>
       <c r="P58" s="85"/>
       <c r="Q58" s="85" t="s">
-        <v>258</v>
+        <v>873</v>
       </c>
       <c r="R58" s="85" t="s">
-        <v>667</v>
+        <v>1055</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -9243,43 +9342,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>285</v>
+        <v>886</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>988</v>
+        <v>884</v>
       </c>
       <c r="G60" s="84" t="s">
-        <v>984</v>
+        <v>880</v>
       </c>
       <c r="H60" s="84" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>990</v>
+        <v>886</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84" t="s">
-        <v>991</v>
+        <v>887</v>
       </c>
       <c r="L60" s="84" t="s">
-        <v>993</v>
+        <v>889</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="N60" s="84"/>
       <c r="O60" s="84"/>
       <c r="P60" s="84" t="s">
-        <v>995</v>
+        <v>891</v>
       </c>
       <c r="Q60" s="84" t="s">
-        <v>997</v>
+        <v>893</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>984</v>
+        <v>880</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -9290,34 +9389,34 @@
         <v>15</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="F61" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="G61" s="101" t="s">
-        <v>401</v>
+      <c r="G61" s="100" t="s">
+        <v>372</v>
       </c>
       <c r="H61" s="80" t="s">
         <v>232</v>
       </c>
       <c r="I61" s="80" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="J61" s="80" t="s">
         <v>233</v>
       </c>
       <c r="K61" s="80" t="s">
-        <v>407</v>
-      </c>
-      <c r="L61" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="L61" s="98" t="s">
         <v>225</v>
       </c>
       <c r="M61" s="80" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="N61" s="80" t="s">
         <v>221</v>
@@ -9326,13 +9425,13 @@
         <v>222</v>
       </c>
       <c r="P61" s="80" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q61" s="80" t="s">
-        <v>410</v>
+        <v>380</v>
+      </c>
+      <c r="Q61" s="98" t="s">
+        <v>381</v>
       </c>
       <c r="R61" s="98" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="S61" s="94"/>
       <c r="V61" s="60"/>
@@ -9340,43 +9439,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>308</v>
+        <v>623</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>989</v>
+        <v>885</v>
       </c>
       <c r="G62" s="85" t="s">
-        <v>985</v>
+        <v>881</v>
       </c>
       <c r="H62" s="85" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="J62" s="85"/>
       <c r="K62" s="85" t="s">
-        <v>992</v>
+        <v>888</v>
       </c>
       <c r="L62" s="85" t="s">
-        <v>994</v>
+        <v>890</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="N62" s="85"/>
       <c r="O62" s="85"/>
       <c r="P62" s="85" t="s">
-        <v>996</v>
+        <v>892</v>
       </c>
       <c r="Q62" s="85" t="s">
-        <v>998</v>
+        <v>894</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>985</v>
+        <v>881</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -9404,43 +9503,43 @@
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="56"/>
       <c r="D64" s="84" t="s">
-        <v>995</v>
+        <v>891</v>
       </c>
       <c r="E64" s="84" t="s">
-        <v>999</v>
+        <v>1141</v>
       </c>
       <c r="F64" s="84" t="s">
-        <v>257</v>
+        <v>872</v>
       </c>
       <c r="G64" s="84" t="s">
-        <v>966</v>
+        <v>867</v>
       </c>
       <c r="H64" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>1000</v>
+        <v>1056</v>
       </c>
       <c r="L64" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>848</v>
+        <v>1052</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>1002</v>
+        <v>895</v>
       </c>
       <c r="O64" s="84"/>
       <c r="P64" s="84" t="s">
-        <v>995</v>
+        <v>891</v>
       </c>
       <c r="Q64" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="R64" s="84" t="s">
-        <v>848</v>
+        <v>1052</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -9451,19 +9550,19 @@
         <v>16</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="E65" s="98" t="s">
-        <v>411</v>
-      </c>
-      <c r="F65" s="80" t="s">
+        <v>382</v>
+      </c>
+      <c r="F65" s="98" t="s">
         <v>207</v>
       </c>
       <c r="G65" s="81" t="s">
         <v>191</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I65" s="80" t="s">
         <v>198</v>
@@ -9471,26 +9570,26 @@
       <c r="J65" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="K65" s="100" t="s">
-        <v>412</v>
+      <c r="K65" s="80" t="s">
+        <v>383</v>
       </c>
       <c r="L65" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="M65" s="80" t="s">
         <v>204</v>
       </c>
       <c r="N65" s="80" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="O65" s="80" t="s">
         <v>186</v>
       </c>
       <c r="P65" s="80" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="Q65" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="R65" s="80" t="s">
         <v>204</v>
@@ -9501,43 +9600,43 @@
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="58"/>
       <c r="D66" s="85" t="s">
-        <v>996</v>
+        <v>892</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>258</v>
+        <v>873</v>
       </c>
       <c r="G66" s="85" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="H66" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="I66" s="85"/>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>1001</v>
+        <v>1057</v>
       </c>
       <c r="L66" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>849</v>
+        <v>1053</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="O66" s="85"/>
       <c r="P66" s="85" t="s">
-        <v>996</v>
+        <v>892</v>
       </c>
       <c r="Q66" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="R66" s="85" t="s">
-        <v>849</v>
+        <v>1053</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -9565,43 +9664,43 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>255</v>
+        <v>1020</v>
       </c>
       <c r="E68" s="84"/>
       <c r="F68" s="84" t="s">
-        <v>846</v>
+        <v>781</v>
       </c>
       <c r="G68" s="84" t="s">
-        <v>255</v>
+        <v>1020</v>
       </c>
       <c r="H68" s="84" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>1002</v>
+        <v>895</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84" t="s">
-        <v>995</v>
+        <v>891</v>
       </c>
       <c r="L68" s="84" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M68" s="84" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="N68" s="84" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="O68" s="84"/>
       <c r="P68" s="84" t="s">
-        <v>1003</v>
+        <v>896</v>
       </c>
       <c r="Q68" s="84" t="s">
-        <v>999</v>
+        <v>1141</v>
       </c>
       <c r="R68" s="84" t="s">
-        <v>257</v>
+        <v>872</v>
       </c>
       <c r="S68" s="93"/>
       <c r="V68" s="60"/>
@@ -9611,35 +9710,35 @@
         <f>B65+1</f>
         <v>17</v>
       </c>
-      <c r="D69" s="98" t="s">
+      <c r="D69" s="80" t="s">
         <v>202</v>
       </c>
       <c r="E69" s="80" t="s">
         <v>186</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="H69" s="80" t="s">
-        <v>414</v>
+      <c r="H69" s="98" t="s">
+        <v>385</v>
       </c>
       <c r="I69" s="80" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="J69" s="80" t="s">
         <v>186</v>
       </c>
       <c r="K69" s="80" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="L69" s="80" t="s">
         <v>232</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
       <c r="N69" s="80" t="s">
         <v>228</v>
@@ -9648,10 +9747,10 @@
         <v>235</v>
       </c>
       <c r="P69" s="80" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="Q69" s="80" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="R69" s="80" t="s">
         <v>207</v>
@@ -9662,43 +9761,43 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>256</v>
+        <v>1021</v>
       </c>
       <c r="E70" s="85"/>
       <c r="F70" s="85" t="s">
-        <v>847</v>
+        <v>782</v>
       </c>
       <c r="G70" s="85" t="s">
-        <v>256</v>
+        <v>1021</v>
       </c>
       <c r="H70" s="85" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85" t="s">
-        <v>996</v>
+        <v>892</v>
       </c>
       <c r="L70" s="85" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M70" s="85" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="N70" s="85" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="O70" s="85"/>
       <c r="P70" s="85" t="s">
-        <v>1004</v>
+        <v>897</v>
       </c>
       <c r="Q70" s="85" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="R70" s="85" t="s">
-        <v>258</v>
+        <v>873</v>
       </c>
       <c r="S70" s="96"/>
       <c r="V70" s="60"/>
@@ -9726,45 +9825,45 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>967</v>
+        <v>868</v>
       </c>
       <c r="E72" s="84"/>
       <c r="F72" s="84" t="s">
-        <v>850</v>
+        <v>783</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>678</v>
+        <v>1058</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>1005</v>
+        <v>898</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>966</v>
+        <v>867</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>1007</v>
+        <v>1060</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>1008</v>
+        <v>900</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>1010</v>
+        <v>1062</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>1007</v>
+        <v>1060</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>1012</v>
+        <v>902</v>
       </c>
       <c r="R72" s="84" t="s">
-        <v>255</v>
+        <v>1020</v>
       </c>
       <c r="S72" s="93"/>
       <c r="V72" s="60"/>
@@ -9784,7 +9883,7 @@
         <v>217</v>
       </c>
       <c r="G73" s="80" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="H73" s="80" t="s">
         <v>209</v>
@@ -9793,10 +9892,10 @@
         <v>191</v>
       </c>
       <c r="J73" s="98" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="K73" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="L73" s="80" t="s">
         <v>238</v>
@@ -9804,17 +9903,17 @@
       <c r="M73" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="N73" s="80" t="s">
+      <c r="N73" s="98" t="s">
         <v>213</v>
       </c>
       <c r="O73" s="98" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="P73" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="Q73" s="80" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="R73" s="80" t="s">
         <v>202</v>
@@ -9825,45 +9924,45 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="85" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E74" s="85"/>
       <c r="F74" s="85" t="s">
-        <v>851</v>
+        <v>784</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>679</v>
+        <v>1059</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>1006</v>
+        <v>899</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>866</v>
+        <v>1061</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>1009</v>
+        <v>901</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>1011</v>
+        <v>1063</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>866</v>
+        <v>1061</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>1125</v>
+        <v>1004</v>
       </c>
       <c r="R74" s="85" t="s">
-        <v>256</v>
+        <v>1021</v>
       </c>
       <c r="S74" s="96"/>
       <c r="V74" s="60"/>
@@ -9891,7 +9990,7 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E76" s="84"/>
       <c r="F76" s="84"/>
@@ -9916,7 +10015,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="E77" s="80" t="s">
         <v>198</v>
@@ -9940,7 +10039,7 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
@@ -10065,45 +10164,45 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>678</v>
+        <v>1058</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>1005</v>
+        <v>898</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>848</v>
+        <v>1052</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>1007</v>
+        <v>1060</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="I84" s="84"/>
       <c r="J84" s="84" t="s">
-        <v>949</v>
+        <v>859</v>
       </c>
       <c r="K84" s="84" t="s">
-        <v>257</v>
+        <v>872</v>
       </c>
       <c r="L84" s="84" t="s">
-        <v>681</v>
+        <v>632</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>293</v>
+        <v>1064</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>907</v>
+        <v>1030</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -10114,7 +10213,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="E85" s="80" t="s">
         <v>209</v>
@@ -10122,11 +10221,11 @@
       <c r="F85" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="G85" s="101" t="s">
-        <v>418</v>
+      <c r="G85" s="100" t="s">
+        <v>389</v>
       </c>
       <c r="H85" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="I85" s="80" t="s">
         <v>186</v>
@@ -10138,22 +10237,22 @@
         <v>207</v>
       </c>
       <c r="L85" s="80" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
       <c r="M85" s="80" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="N85" s="80" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="O85" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P85" s="80" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="Q85" s="80" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="R85" s="80" t="s">
         <v>189</v>
@@ -10164,45 +10263,45 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>679</v>
+        <v>1059</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>1006</v>
+        <v>899</v>
       </c>
       <c r="F86" s="85" t="s">
-        <v>849</v>
+        <v>1053</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>866</v>
+        <v>1061</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="I86" s="85"/>
       <c r="J86" s="85" t="s">
         <v>250</v>
       </c>
       <c r="K86" s="85" t="s">
-        <v>258</v>
+        <v>873</v>
       </c>
       <c r="L86" s="85" t="s">
-        <v>682</v>
+        <v>633</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>294</v>
+        <v>1065</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>908</v>
+        <v>1031</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -10230,26 +10329,26 @@
     <row r="88" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="56"/>
       <c r="D88" s="84" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>683</v>
+        <v>634</v>
       </c>
       <c r="F88" s="84"/>
       <c r="G88" s="84" t="s">
-        <v>1013</v>
+        <v>903</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>906</v>
+        <v>828</v>
       </c>
       <c r="I88" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="J88" s="84" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
       <c r="L88" s="84"/>
       <c r="M88" s="84"/>
@@ -10267,19 +10366,19 @@
         <v>22</v>
       </c>
       <c r="D89" s="80" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="E89" s="80" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
       <c r="F89" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G89" s="80" t="s">
-        <v>426</v>
+        <v>397</v>
       </c>
       <c r="H89" s="80" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="I89" s="80" t="s">
         <v>189</v>
@@ -10288,7 +10387,7 @@
         <v>236</v>
       </c>
       <c r="K89" s="98" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="L89" s="80" t="s">
         <v>198</v>
@@ -10305,26 +10404,26 @@
     <row r="90" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="58"/>
       <c r="D90" s="85" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>684</v>
+        <v>635</v>
       </c>
       <c r="F90" s="85"/>
       <c r="G90" s="85" t="s">
-        <v>1014</v>
+        <v>904</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="I90" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="J90" s="85" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -10359,35 +10458,35 @@
     <row r="92" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B92" s="56"/>
       <c r="D92" s="84" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>280</v>
+        <v>1133</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="G92" s="84" t="s">
-        <v>999</v>
+        <v>1141</v>
       </c>
       <c r="H92" s="84" t="s">
-        <v>257</v>
+        <v>872</v>
       </c>
       <c r="I92" s="84"/>
       <c r="J92" s="84" t="s">
-        <v>876</v>
+        <v>806</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="L92" s="84" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="M92" s="84" t="s">
-        <v>944</v>
+        <v>856</v>
       </c>
       <c r="N92" s="84" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="O92" s="84"/>
       <c r="P92" s="84" t="s">
@@ -10397,7 +10496,7 @@
         <v>246</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>609</v>
+        <v>1032</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -10408,16 +10507,16 @@
         <v>23</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="E93" s="80" t="s">
         <v>188</v>
       </c>
       <c r="F93" s="80" t="s">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="G93" s="80" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="H93" s="80" t="s">
         <v>207</v>
@@ -10426,31 +10525,31 @@
         <v>186</v>
       </c>
       <c r="J93" s="98" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
       <c r="K93" s="98" t="s">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="L93" s="98" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="M93" s="80" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="N93" s="80" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="O93" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P93" s="80" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="Q93" s="80" t="s">
         <v>190</v>
       </c>
       <c r="R93" s="80" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="S93" s="94"/>
       <c r="V93" s="60"/>
@@ -10458,35 +10557,35 @@
     <row r="94" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B94" s="58"/>
       <c r="D94" s="85" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E94" s="85" t="s">
-        <v>281</v>
+        <v>1134</v>
       </c>
       <c r="F94" s="85" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="G94" s="85" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="H94" s="85" t="s">
-        <v>258</v>
+        <v>873</v>
       </c>
       <c r="I94" s="85"/>
       <c r="J94" s="85" t="s">
-        <v>877</v>
+        <v>807</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="L94" s="85" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="M94" s="85" t="s">
-        <v>635</v>
+        <v>592</v>
       </c>
       <c r="N94" s="85" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="O94" s="85"/>
       <c r="P94" s="85" t="s">
@@ -10496,7 +10595,7 @@
         <v>247</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>610</v>
+        <v>1033</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -10524,26 +10623,26 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>1015</v>
+        <v>1044</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84" t="s">
-        <v>261</v>
+        <v>1066</v>
       </c>
       <c r="H96" s="84" t="s">
-        <v>265</v>
+        <v>665</v>
       </c>
       <c r="I96" s="84" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J96" s="84" t="s">
-        <v>689</v>
+        <v>1068</v>
       </c>
       <c r="K96" s="84" t="s">
-        <v>893</v>
+        <v>821</v>
       </c>
       <c r="L96" s="84"/>
       <c r="M96" s="84"/>
@@ -10561,28 +10660,28 @@
         <v>24</v>
       </c>
       <c r="D97" s="80" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="E97" s="80" t="s">
-        <v>435</v>
+        <v>406</v>
       </c>
       <c r="F97" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G97" s="81" t="s">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="H97" s="80" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="I97" s="80" t="s">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="J97" s="80" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="K97" s="80" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="L97" s="80" t="s">
         <v>198</v>
@@ -10599,26 +10698,26 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>649</v>
+        <v>1045</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85" t="s">
-        <v>262</v>
+        <v>1067</v>
       </c>
       <c r="H98" s="85" t="s">
-        <v>266</v>
+        <v>666</v>
       </c>
       <c r="I98" s="85" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J98" s="85" t="s">
-        <v>690</v>
+        <v>1069</v>
       </c>
       <c r="K98" s="85" t="s">
-        <v>894</v>
+        <v>822</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -10653,42 +10752,42 @@
     <row r="100" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="56"/>
       <c r="D100" s="84" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E100" s="84" t="s">
-        <v>251</v>
+        <v>1070</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>1016</v>
+        <v>1072</v>
       </c>
       <c r="G100" s="84" t="s">
-        <v>850</v>
+        <v>783</v>
       </c>
       <c r="H100" s="84" t="s">
-        <v>297</v>
+        <v>1074</v>
       </c>
       <c r="I100" s="84"/>
       <c r="J100" s="84" t="s">
-        <v>255</v>
+        <v>1020</v>
       </c>
       <c r="K100" s="84" t="s">
-        <v>255</v>
+        <v>1020</v>
       </c>
       <c r="L100" s="84" t="s">
-        <v>275</v>
+        <v>1076</v>
       </c>
       <c r="M100" s="84" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="N100" s="84" t="s">
-        <v>950</v>
+        <v>860</v>
       </c>
       <c r="O100" s="84"/>
       <c r="P100" s="84" t="s">
-        <v>1017</v>
+        <v>905</v>
       </c>
       <c r="Q100" s="84" t="s">
-        <v>1018</v>
+        <v>906</v>
       </c>
       <c r="R100" s="84" t="s">
         <v>244</v>
@@ -10705,16 +10804,16 @@
         <v>224</v>
       </c>
       <c r="E101" s="80" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="F101" s="80" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="G101" s="80" t="s">
         <v>217</v>
       </c>
       <c r="H101" s="80" t="s">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="I101" s="80" t="s">
         <v>186</v>
@@ -10729,19 +10828,19 @@
         <v>215</v>
       </c>
       <c r="M101" s="80" t="s">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="N101" s="80" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="O101" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P101" s="80" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="Q101" s="80" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
       <c r="R101" s="80" t="s">
         <v>184</v>
@@ -10752,42 +10851,42 @@
     <row r="102" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="58"/>
       <c r="D102" s="85" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E102" s="85" t="s">
-        <v>252</v>
+        <v>1071</v>
       </c>
       <c r="F102" s="85" t="s">
-        <v>691</v>
+        <v>1073</v>
       </c>
       <c r="G102" s="85" t="s">
-        <v>851</v>
+        <v>784</v>
       </c>
       <c r="H102" s="85" t="s">
-        <v>298</v>
+        <v>1075</v>
       </c>
       <c r="I102" s="85"/>
       <c r="J102" s="85" t="s">
-        <v>256</v>
+        <v>1021</v>
       </c>
       <c r="K102" s="85" t="s">
-        <v>256</v>
+        <v>1021</v>
       </c>
       <c r="L102" s="85" t="s">
-        <v>276</v>
+        <v>1077</v>
       </c>
       <c r="M102" s="85" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="N102" s="85" t="s">
-        <v>1119</v>
+        <v>1000</v>
       </c>
       <c r="O102" s="85"/>
       <c r="P102" s="85" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="Q102" s="85" t="s">
-        <v>692</v>
+        <v>642</v>
       </c>
       <c r="R102" s="85" t="s">
         <v>245</v>
@@ -10818,26 +10917,26 @@
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
       <c r="D104" s="84" t="s">
-        <v>1019</v>
+        <v>907</v>
       </c>
       <c r="E104" s="84" t="s">
-        <v>693</v>
+        <v>643</v>
       </c>
       <c r="F104" s="84"/>
       <c r="G104" s="84" t="s">
-        <v>1017</v>
+        <v>905</v>
       </c>
       <c r="H104" s="84" t="s">
-        <v>1021</v>
+        <v>909</v>
       </c>
       <c r="I104" s="84" t="s">
-        <v>1022</v>
+        <v>910</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>685</v>
+        <v>636</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84"/>
@@ -10855,35 +10954,35 @@
         <v>26</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="E105" s="80" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="F105" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="G105" s="101" t="s">
-        <v>445</v>
+      <c r="G105" s="100" t="s">
+        <v>416</v>
       </c>
       <c r="H105" s="80" t="s">
         <v>183</v>
       </c>
       <c r="I105" s="80" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="J105" s="80" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="K105" s="80" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="L105" s="80" t="s">
         <v>198</v>
       </c>
       <c r="M105" s="98"/>
       <c r="N105" s="80"/>
-      <c r="O105" s="102"/>
+      <c r="O105" s="101"/>
       <c r="P105" s="80"/>
       <c r="Q105" s="80"/>
       <c r="R105" s="80"/>
@@ -10893,26 +10992,26 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="85" t="s">
-        <v>1020</v>
+        <v>908</v>
       </c>
       <c r="E106" s="85" t="s">
-        <v>694</v>
+        <v>644</v>
       </c>
       <c r="F106" s="85"/>
       <c r="G106" s="85" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="H106" s="85" t="s">
         <v>243</v>
       </c>
       <c r="I106" s="85" t="s">
-        <v>918</v>
+        <v>837</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>686</v>
+        <v>637</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>702</v>
+        <v>651</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -10947,45 +11046,45 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>1017</v>
+        <v>905</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>1023</v>
+        <v>911</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>1024</v>
+        <v>912</v>
       </c>
       <c r="G108" s="84" t="s">
-        <v>1025</v>
+        <v>913</v>
       </c>
       <c r="H108" s="84" t="s">
-        <v>1027</v>
+        <v>915</v>
       </c>
       <c r="I108" s="84"/>
       <c r="J108" s="84" t="s">
-        <v>1017</v>
+        <v>905</v>
       </c>
       <c r="K108" s="84" t="s">
-        <v>706</v>
+        <v>655</v>
       </c>
       <c r="L108" s="84" t="s">
-        <v>708</v>
+        <v>657</v>
       </c>
       <c r="M108" s="84" t="s">
-        <v>852</v>
+        <v>785</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>1016</v>
+        <v>1072</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>712</v>
+        <v>661</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>1028</v>
+        <v>1078</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -10996,37 +11095,37 @@
         <v>27</v>
       </c>
       <c r="D109" s="80" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="E109" s="80" t="s">
         <v>223</v>
       </c>
       <c r="F109" s="98" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="G109" s="80" t="s">
         <v>210</v>
       </c>
       <c r="H109" s="80" t="s">
-        <v>868</v>
+        <v>798</v>
       </c>
       <c r="I109" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J109" s="80" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="K109" s="80" t="s">
         <v>234</v>
       </c>
       <c r="L109" s="80" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="M109" s="80" t="s">
         <v>187</v>
       </c>
       <c r="N109" s="80" t="s">
-        <v>441</v>
+        <v>412</v>
       </c>
       <c r="O109" s="80" t="s">
         <v>198</v>
@@ -11035,10 +11134,10 @@
         <v>189</v>
       </c>
       <c r="Q109" s="80" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="R109" s="80" t="s">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="S109" s="94"/>
       <c r="V109" s="60"/>
@@ -11046,45 +11145,45 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>703</v>
+        <v>652</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>1126</v>
+        <v>1005</v>
       </c>
       <c r="G110" s="85" t="s">
-        <v>1026</v>
+        <v>914</v>
       </c>
       <c r="H110" s="85" t="s">
-        <v>1127</v>
+        <v>1006</v>
       </c>
       <c r="I110" s="85"/>
       <c r="J110" s="85" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="K110" s="85" t="s">
-        <v>707</v>
+        <v>656</v>
       </c>
       <c r="L110" s="85" t="s">
-        <v>709</v>
+        <v>658</v>
       </c>
       <c r="M110" s="85" t="s">
-        <v>853</v>
+        <v>786</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>691</v>
+        <v>1073</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>713</v>
+        <v>662</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>714</v>
+        <v>1079</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -11112,26 +11211,26 @@
     <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="56"/>
       <c r="D112" s="84" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="E112" s="84" t="s">
-        <v>1029</v>
+        <v>916</v>
       </c>
       <c r="F112" s="84"/>
       <c r="G112" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>717</v>
+        <v>665</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>1031</v>
+        <v>918</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>721</v>
+        <v>669</v>
       </c>
       <c r="L112" s="84"/>
       <c r="M112" s="84"/>
@@ -11149,10 +11248,10 @@
         <v>28</v>
       </c>
       <c r="D113" s="80" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="E113" s="80" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="F113" s="80" t="s">
         <v>186</v>
@@ -11161,23 +11260,23 @@
         <v>189</v>
       </c>
       <c r="H113" s="98" t="s">
-        <v>867</v>
+        <v>797</v>
       </c>
       <c r="I113" s="80" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="J113" s="80" t="s">
         <v>185</v>
       </c>
       <c r="K113" s="98" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="L113" s="80" t="s">
         <v>198</v>
       </c>
       <c r="M113" s="80"/>
       <c r="N113" s="80"/>
-      <c r="O113" s="102"/>
+      <c r="O113" s="101"/>
       <c r="P113" s="80"/>
       <c r="Q113" s="80"/>
       <c r="R113" s="80"/>
@@ -11187,26 +11286,26 @@
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="85" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="E114" s="85" t="s">
-        <v>1030</v>
+        <v>917</v>
       </c>
       <c r="F114" s="85"/>
       <c r="G114" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>718</v>
+        <v>666</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>1032</v>
+        <v>919</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>705</v>
+        <v>654</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
       <c r="L114" s="85"/>
       <c r="M114" s="85"/>
@@ -11241,45 +11340,45 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>1024</v>
+        <v>912</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>878</v>
+        <v>808</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>1033</v>
+        <v>920</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>820</v>
+        <v>757</v>
       </c>
       <c r="I116" s="84"/>
       <c r="J116" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="K116" s="84" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="L116" s="84" t="s">
-        <v>1035</v>
+        <v>922</v>
       </c>
       <c r="M116" s="84" t="s">
-        <v>725</v>
+        <v>1080</v>
       </c>
       <c r="N116" s="84" t="s">
-        <v>880</v>
+        <v>810</v>
       </c>
       <c r="O116" s="84"/>
       <c r="P116" s="84" t="s">
-        <v>816</v>
+        <v>1054</v>
       </c>
       <c r="Q116" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="R116" s="84" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
       <c r="S116" s="93"/>
       <c r="V116" s="60"/>
@@ -11293,16 +11392,16 @@
         <v>189</v>
       </c>
       <c r="E117" s="80" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="F117" s="98" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="G117" s="81" t="s">
         <v>240</v>
       </c>
       <c r="H117" s="80" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="I117" s="80" t="s">
         <v>186</v>
@@ -11311,28 +11410,28 @@
         <v>189</v>
       </c>
       <c r="K117" s="80" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="L117" s="80" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="M117" s="98" t="s">
         <v>203</v>
       </c>
       <c r="N117" s="98" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="O117" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P117" s="98" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="Q117" s="80" t="s">
         <v>189</v>
       </c>
       <c r="R117" s="80" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="S117" s="94"/>
       <c r="V117" s="60"/>
@@ -11340,45 +11439,45 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>1126</v>
+        <v>1005</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>879</v>
+        <v>809</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>1034</v>
+        <v>921</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>821</v>
+        <v>758</v>
       </c>
       <c r="I118" s="85"/>
       <c r="J118" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="K118" s="85" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="L118" s="85" t="s">
-        <v>1036</v>
+        <v>923</v>
       </c>
       <c r="M118" s="85" t="s">
-        <v>726</v>
+        <v>1081</v>
       </c>
       <c r="N118" s="85" t="s">
-        <v>881</v>
+        <v>811</v>
       </c>
       <c r="O118" s="85"/>
       <c r="P118" s="85" t="s">
-        <v>817</v>
+        <v>1055</v>
       </c>
       <c r="Q118" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="R118" s="85" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
       <c r="S118" s="96"/>
       <c r="V118" s="60"/>
@@ -11406,26 +11505,26 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="84" t="s">
-        <v>1037</v>
+        <v>924</v>
       </c>
       <c r="E120" s="84" t="s">
-        <v>1038</v>
+        <v>925</v>
       </c>
       <c r="F120" s="84"/>
       <c r="G120" s="84" t="s">
-        <v>1015</v>
+        <v>1044</v>
       </c>
       <c r="H120" s="84" t="s">
-        <v>951</v>
+        <v>861</v>
       </c>
       <c r="I120" s="84" t="s">
-        <v>656</v>
+        <v>611</v>
       </c>
       <c r="J120" s="84" t="s">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="K120" s="84" t="s">
-        <v>731</v>
+        <v>1082</v>
       </c>
       <c r="L120" s="84"/>
       <c r="M120" s="84"/>
@@ -11443,28 +11542,28 @@
         <v>30</v>
       </c>
       <c r="D121" s="80" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="E121" s="80" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="F121" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G121" s="81" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="H121" s="80" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="I121" s="80" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="J121" s="80" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="K121" s="80" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="L121" s="80" t="s">
         <v>198</v>
@@ -11481,26 +11580,26 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="85" t="s">
-        <v>1114</v>
+        <v>996</v>
       </c>
       <c r="E122" s="85" t="s">
-        <v>1039</v>
+        <v>926</v>
       </c>
       <c r="F122" s="85"/>
       <c r="G122" s="85" t="s">
-        <v>649</v>
+        <v>1045</v>
       </c>
       <c r="H122" s="85" t="s">
-        <v>1120</v>
+        <v>1001</v>
       </c>
       <c r="I122" s="85" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
       <c r="J122" s="85" t="s">
-        <v>730</v>
+        <v>679</v>
       </c>
       <c r="K122" s="85" t="s">
-        <v>732</v>
+        <v>1083</v>
       </c>
       <c r="L122" s="85"/>
       <c r="M122" s="85"/>
@@ -11535,45 +11634,45 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="84" t="s">
-        <v>816</v>
+        <v>1054</v>
       </c>
       <c r="E124" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="F124" s="84" t="s">
-        <v>960</v>
+        <v>866</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>1040</v>
+        <v>927</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>733</v>
+        <v>680</v>
       </c>
       <c r="I124" s="84"/>
       <c r="J124" s="84" t="s">
-        <v>735</v>
+        <v>682</v>
       </c>
       <c r="K124" s="84" t="s">
-        <v>737</v>
+        <v>684</v>
       </c>
       <c r="L124" s="84" t="s">
-        <v>739</v>
+        <v>686</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>1041</v>
+        <v>928</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>741</v>
+        <v>688</v>
       </c>
       <c r="O124" s="84"/>
       <c r="P124" s="84" t="s">
-        <v>816</v>
+        <v>1054</v>
       </c>
       <c r="Q124" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>743</v>
+        <v>690</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -11584,7 +11683,7 @@
         <v>31</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="E125" s="80" t="s">
         <v>189</v>
@@ -11593,40 +11692,40 @@
         <v>227</v>
       </c>
       <c r="G125" s="81" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="H125" s="98" t="s">
-        <v>472</v>
+        <v>443</v>
       </c>
       <c r="I125" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J125" s="80" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="K125" s="80" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="L125" s="80" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="M125" s="80" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="N125" s="80" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="O125" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P125" s="80" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="Q125" s="80" t="s">
         <v>189</v>
       </c>
       <c r="R125" s="80" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="S125" s="94"/>
       <c r="V125" s="60"/>
@@ -11634,45 +11733,45 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="85" t="s">
-        <v>817</v>
+        <v>1055</v>
       </c>
       <c r="E126" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="F126" s="85" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>1128</v>
+        <v>1007</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>734</v>
+        <v>681</v>
       </c>
       <c r="I126" s="85"/>
       <c r="J126" s="85" t="s">
-        <v>736</v>
+        <v>683</v>
       </c>
       <c r="K126" s="85" t="s">
-        <v>738</v>
+        <v>685</v>
       </c>
       <c r="L126" s="85" t="s">
-        <v>740</v>
+        <v>687</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>1042</v>
+        <v>929</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>742</v>
+        <v>689</v>
       </c>
       <c r="O126" s="85"/>
       <c r="P126" s="85" t="s">
-        <v>817</v>
+        <v>1055</v>
       </c>
       <c r="Q126" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>744</v>
+        <v>691</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -11700,26 +11799,26 @@
     <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="56"/>
       <c r="D128" s="84" t="s">
-        <v>745</v>
+        <v>692</v>
       </c>
       <c r="E128" s="84" t="s">
-        <v>1043</v>
+        <v>930</v>
       </c>
       <c r="F128" s="84"/>
       <c r="G128" s="84" t="s">
-        <v>747</v>
+        <v>694</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>749</v>
+        <v>696</v>
       </c>
       <c r="I128" s="84" t="s">
-        <v>751</v>
+        <v>698</v>
       </c>
       <c r="J128" s="84" t="s">
-        <v>1044</v>
+        <v>931</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>753</v>
+        <v>700</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84"/>
@@ -11737,28 +11836,28 @@
         <v>32</v>
       </c>
       <c r="D129" s="80" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="E129" s="80" t="s">
-        <v>869</v>
+        <v>799</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G129" s="80" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="H129" s="80" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="I129" s="80" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="J129" s="80" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="K129" s="80" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="L129" s="80" t="s">
         <v>198</v>
@@ -11775,26 +11874,26 @@
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="85" t="s">
-        <v>746</v>
+        <v>693</v>
       </c>
       <c r="E130" s="85" t="s">
-        <v>1129</v>
+        <v>1008</v>
       </c>
       <c r="F130" s="85"/>
       <c r="G130" s="85" t="s">
-        <v>748</v>
+        <v>695</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>750</v>
+        <v>697</v>
       </c>
       <c r="I130" s="85" t="s">
-        <v>752</v>
+        <v>699</v>
       </c>
       <c r="J130" s="85" t="s">
-        <v>1045</v>
+        <v>932</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>754</v>
+        <v>701</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85"/>
@@ -11829,45 +11928,45 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>816</v>
+        <v>1054</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>755</v>
+        <v>702</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>1046</v>
+        <v>933</v>
       </c>
       <c r="H132" s="84" t="s">
-        <v>759</v>
+        <v>706</v>
       </c>
       <c r="I132" s="84"/>
       <c r="J132" s="84" t="s">
-        <v>761</v>
+        <v>708</v>
       </c>
       <c r="K132" s="84" t="s">
-        <v>1048</v>
+        <v>935</v>
       </c>
       <c r="L132" s="84" t="s">
-        <v>1029</v>
+        <v>916</v>
       </c>
       <c r="M132" s="84" t="s">
-        <v>1050</v>
+        <v>937</v>
       </c>
       <c r="N132" s="84" t="s">
-        <v>741</v>
+        <v>688</v>
       </c>
       <c r="O132" s="84"/>
       <c r="P132" s="84" t="s">
-        <v>963</v>
+        <v>272</v>
       </c>
       <c r="Q132" s="84" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="R132" s="84" t="s">
-        <v>988</v>
+        <v>884</v>
       </c>
       <c r="S132" s="93"/>
       <c r="V132" s="60"/>
@@ -11878,37 +11977,37 @@
         <v>33</v>
       </c>
       <c r="D133" s="80" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
       <c r="E133" s="80" t="s">
         <v>189</v>
       </c>
       <c r="F133" s="80" t="s">
-        <v>485</v>
-      </c>
-      <c r="G133" s="101" t="s">
-        <v>486</v>
+        <v>456</v>
+      </c>
+      <c r="G133" s="100" t="s">
+        <v>457</v>
       </c>
       <c r="H133" s="80" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="I133" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J133" s="80" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="K133" s="80" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="L133" s="80" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="M133" s="80" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="N133" s="98" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="O133" s="80" t="s">
         <v>198</v>
@@ -11917,7 +12016,7 @@
         <v>231</v>
       </c>
       <c r="Q133" s="80" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="R133" s="80" t="s">
         <v>218</v>
@@ -11928,45 +12027,45 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>817</v>
+        <v>1055</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>756</v>
+        <v>703</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>1047</v>
+        <v>934</v>
       </c>
       <c r="H134" s="85" t="s">
-        <v>760</v>
+        <v>707</v>
       </c>
       <c r="I134" s="85"/>
       <c r="J134" s="85" t="s">
-        <v>762</v>
+        <v>709</v>
       </c>
       <c r="K134" s="85" t="s">
-        <v>1049</v>
+        <v>936</v>
       </c>
       <c r="L134" s="85" t="s">
-        <v>1030</v>
+        <v>917</v>
       </c>
       <c r="M134" s="85" t="s">
-        <v>1051</v>
+        <v>938</v>
       </c>
       <c r="N134" s="85" t="s">
-        <v>742</v>
+        <v>689</v>
       </c>
       <c r="O134" s="85"/>
       <c r="P134" s="85" t="s">
-        <v>653</v>
+        <v>273</v>
       </c>
       <c r="Q134" s="85" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="R134" s="85" t="s">
-        <v>989</v>
+        <v>885</v>
       </c>
       <c r="S134" s="96"/>
       <c r="V134" s="60"/>
@@ -11994,26 +12093,26 @@
     <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="56"/>
       <c r="D136" s="84" t="s">
-        <v>1052</v>
+        <v>939</v>
       </c>
       <c r="E136" s="84" t="s">
-        <v>763</v>
+        <v>712</v>
       </c>
       <c r="F136" s="84"/>
       <c r="G136" s="84" t="s">
-        <v>882</v>
+        <v>812</v>
       </c>
       <c r="H136" s="84" t="s">
-        <v>741</v>
+        <v>688</v>
       </c>
       <c r="I136" s="84" t="s">
-        <v>1053</v>
+        <v>940</v>
       </c>
       <c r="J136" s="84" t="s">
-        <v>765</v>
+        <v>714</v>
       </c>
       <c r="K136" s="84" t="s">
-        <v>1055</v>
+        <v>942</v>
       </c>
       <c r="L136" s="84"/>
       <c r="M136" s="84"/>
@@ -12031,28 +12130,28 @@
         <v>34</v>
       </c>
       <c r="D137" s="80" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="E137" s="80" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="F137" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G137" s="98" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="H137" s="80" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="I137" s="80" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="J137" s="80" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="K137" s="80" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="L137" s="80" t="s">
         <v>198</v>
@@ -12069,26 +12168,26 @@
     <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="58"/>
       <c r="D138" s="85" t="s">
-        <v>1130</v>
+        <v>1009</v>
       </c>
       <c r="E138" s="85" t="s">
-        <v>764</v>
+        <v>713</v>
       </c>
       <c r="F138" s="85"/>
       <c r="G138" s="85" t="s">
-        <v>883</v>
+        <v>813</v>
       </c>
       <c r="H138" s="85" t="s">
-        <v>742</v>
+        <v>689</v>
       </c>
       <c r="I138" s="85" t="s">
-        <v>1054</v>
+        <v>941</v>
       </c>
       <c r="J138" s="85" t="s">
-        <v>766</v>
+        <v>715</v>
       </c>
       <c r="K138" s="85" t="s">
-        <v>860</v>
+        <v>791</v>
       </c>
       <c r="L138" s="85"/>
       <c r="M138" s="85"/>
@@ -12123,45 +12222,45 @@
     <row r="140" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="56"/>
       <c r="D140" s="84" t="s">
-        <v>609</v>
+        <v>1032</v>
       </c>
       <c r="E140" s="84" t="s">
-        <v>253</v>
+        <v>1048</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>884</v>
+        <v>814</v>
       </c>
       <c r="G140" s="84" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H140" s="84" t="s">
-        <v>1056</v>
+        <v>943</v>
       </c>
       <c r="I140" s="84"/>
       <c r="J140" s="84" t="s">
-        <v>644</v>
+        <v>1084</v>
       </c>
       <c r="K140" s="84" t="s">
-        <v>291</v>
+        <v>710</v>
       </c>
       <c r="L140" s="84" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="M140" s="84" t="s">
-        <v>1058</v>
+        <v>945</v>
       </c>
       <c r="N140" s="84" t="s">
-        <v>886</v>
+        <v>816</v>
       </c>
       <c r="O140" s="84"/>
       <c r="P140" s="84" t="s">
-        <v>1005</v>
+        <v>898</v>
       </c>
       <c r="Q140" s="84" t="s">
-        <v>710</v>
+        <v>659</v>
       </c>
       <c r="R140" s="84" t="s">
-        <v>768</v>
+        <v>717</v>
       </c>
       <c r="S140" s="93"/>
       <c r="V140" s="60"/>
@@ -12172,37 +12271,37 @@
         <v>35</v>
       </c>
       <c r="D141" s="80" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="E141" s="80" t="s">
         <v>199</v>
       </c>
       <c r="F141" s="98" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="G141" s="81" t="s">
         <v>236</v>
       </c>
       <c r="H141" s="80" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="I141" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J141" s="98" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="K141" s="98" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="L141" s="80" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="M141" s="80" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="N141" s="98" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="O141" s="80" t="s">
         <v>198</v>
@@ -12211,10 +12310,10 @@
         <v>209</v>
       </c>
       <c r="Q141" s="80" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="R141" s="80" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="S141" s="94"/>
       <c r="V141" s="60"/>
@@ -12222,45 +12321,45 @@
     <row r="142" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="58"/>
       <c r="D142" s="85" t="s">
-        <v>610</v>
+        <v>1033</v>
       </c>
       <c r="E142" s="85" t="s">
-        <v>254</v>
+        <v>1049</v>
       </c>
       <c r="F142" s="85" t="s">
-        <v>885</v>
+        <v>815</v>
       </c>
       <c r="G142" s="85" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="H142" s="85" t="s">
-        <v>1057</v>
+        <v>944</v>
       </c>
       <c r="I142" s="85"/>
       <c r="J142" s="85" t="s">
-        <v>645</v>
+        <v>1085</v>
       </c>
       <c r="K142" s="85" t="s">
-        <v>292</v>
+        <v>711</v>
       </c>
       <c r="L142" s="85" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="M142" s="85" t="s">
-        <v>767</v>
+        <v>716</v>
       </c>
       <c r="N142" s="85" t="s">
-        <v>887</v>
+        <v>817</v>
       </c>
       <c r="O142" s="85"/>
       <c r="P142" s="85" t="s">
-        <v>1006</v>
+        <v>899</v>
       </c>
       <c r="Q142" s="85" t="s">
-        <v>711</v>
+        <v>660</v>
       </c>
       <c r="R142" s="85" t="s">
-        <v>769</v>
+        <v>718</v>
       </c>
       <c r="S142" s="96"/>
       <c r="V142" s="60"/>
@@ -12288,26 +12387,26 @@
     <row r="144" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="56"/>
       <c r="D144" s="84" t="s">
-        <v>846</v>
+        <v>781</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>770</v>
+        <v>719</v>
       </c>
       <c r="F144" s="84"/>
       <c r="G144" s="84" t="s">
-        <v>678</v>
+        <v>1058</v>
       </c>
       <c r="H144" s="84" t="s">
-        <v>1059</v>
+        <v>946</v>
       </c>
       <c r="I144" s="84" t="s">
-        <v>768</v>
+        <v>717</v>
       </c>
       <c r="J144" s="84" t="s">
-        <v>846</v>
+        <v>781</v>
       </c>
       <c r="K144" s="84" t="s">
-        <v>1060</v>
+        <v>947</v>
       </c>
       <c r="L144" s="84"/>
       <c r="M144" s="84"/>
@@ -12325,28 +12424,28 @@
         <v>36</v>
       </c>
       <c r="D145" s="80" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="E145" s="80" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="F145" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G145" s="81" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="H145" s="98" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="I145" s="80" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="J145" s="80" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="K145" s="80" t="s">
-        <v>870</v>
+        <v>800</v>
       </c>
       <c r="L145" s="80" t="s">
         <v>198</v>
@@ -12363,26 +12462,26 @@
     <row r="146" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="58"/>
       <c r="D146" s="85" t="s">
-        <v>847</v>
+        <v>782</v>
       </c>
       <c r="E146" s="85" t="s">
-        <v>771</v>
+        <v>720</v>
       </c>
       <c r="F146" s="85"/>
       <c r="G146" s="85" t="s">
-        <v>679</v>
+        <v>1059</v>
       </c>
       <c r="H146" s="85" t="s">
-        <v>1131</v>
+        <v>1010</v>
       </c>
       <c r="I146" s="85" t="s">
-        <v>769</v>
+        <v>718</v>
       </c>
       <c r="J146" s="85" t="s">
-        <v>847</v>
+        <v>782</v>
       </c>
       <c r="K146" s="85" t="s">
-        <v>861</v>
+        <v>792</v>
       </c>
       <c r="L146" s="85"/>
       <c r="M146" s="85"/>
@@ -12417,45 +12516,45 @@
     <row r="148" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="56"/>
       <c r="D148" s="84" t="s">
-        <v>772</v>
+        <v>1086</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>774</v>
+        <v>721</v>
       </c>
       <c r="F148" s="84" t="s">
-        <v>776</v>
+        <v>723</v>
       </c>
       <c r="G148" s="84" t="s">
-        <v>778</v>
+        <v>725</v>
       </c>
       <c r="H148" s="84" t="s">
-        <v>991</v>
+        <v>1088</v>
       </c>
       <c r="I148" s="84"/>
       <c r="J148" s="84" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="K148" s="84" t="s">
-        <v>780</v>
+        <v>727</v>
       </c>
       <c r="L148" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="M148" s="84" t="s">
-        <v>966</v>
+        <v>867</v>
       </c>
       <c r="N148" s="84" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
       <c r="O148" s="84"/>
       <c r="P148" s="84" t="s">
-        <v>1061</v>
+        <v>948</v>
       </c>
       <c r="Q148" s="84" t="s">
-        <v>970</v>
+        <v>777</v>
       </c>
       <c r="R148" s="84" t="s">
-        <v>822</v>
+        <v>759</v>
       </c>
       <c r="S148" s="93"/>
       <c r="V148" s="60"/>
@@ -12466,19 +12565,19 @@
         <v>37</v>
       </c>
       <c r="D149" s="80" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="E149" s="80" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="F149" s="80" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="G149" s="80" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="H149" s="80" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
       <c r="I149" s="80" t="s">
         <v>186</v>
@@ -12487,7 +12586,7 @@
         <v>237</v>
       </c>
       <c r="K149" s="80" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="L149" s="80" t="s">
         <v>189</v>
@@ -12496,19 +12595,19 @@
         <v>191</v>
       </c>
       <c r="N149" s="98" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="O149" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P149" s="80" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="Q149" s="98" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="R149" s="80" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="S149" s="94"/>
       <c r="V149" s="60"/>
@@ -12516,45 +12615,45 @@
     <row r="150" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="58"/>
       <c r="D150" s="85" t="s">
-        <v>773</v>
+        <v>1087</v>
       </c>
       <c r="E150" s="85" t="s">
-        <v>775</v>
+        <v>722</v>
       </c>
       <c r="F150" s="85" t="s">
-        <v>777</v>
+        <v>724</v>
       </c>
       <c r="G150" s="85" t="s">
-        <v>779</v>
+        <v>726</v>
       </c>
       <c r="H150" s="85" t="s">
-        <v>992</v>
+        <v>1089</v>
       </c>
       <c r="I150" s="85"/>
       <c r="J150" s="85" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="K150" s="85" t="s">
-        <v>781</v>
+        <v>728</v>
       </c>
       <c r="L150" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="M150" s="85" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="N150" s="85" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
       <c r="O150" s="85"/>
       <c r="P150" s="85" t="s">
-        <v>782</v>
+        <v>729</v>
       </c>
       <c r="Q150" s="85" t="s">
-        <v>971</v>
+        <v>778</v>
       </c>
       <c r="R150" s="85" t="s">
-        <v>823</v>
+        <v>760</v>
       </c>
       <c r="S150" s="96"/>
       <c r="V150" s="60"/>
@@ -12582,26 +12681,26 @@
     <row r="152" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="56"/>
       <c r="D152" s="84" t="s">
-        <v>1033</v>
+        <v>920</v>
       </c>
       <c r="E152" s="84" t="s">
-        <v>783</v>
+        <v>864</v>
       </c>
       <c r="F152" s="84"/>
       <c r="G152" s="84" t="s">
-        <v>656</v>
+        <v>611</v>
       </c>
       <c r="H152" s="84" t="s">
-        <v>1008</v>
+        <v>900</v>
       </c>
       <c r="I152" s="84" t="s">
-        <v>776</v>
+        <v>723</v>
       </c>
       <c r="J152" s="84" t="s">
-        <v>968</v>
+        <v>1046</v>
       </c>
       <c r="K152" s="84" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="L152" s="84"/>
       <c r="M152" s="84"/>
@@ -12622,25 +12721,25 @@
         <v>240</v>
       </c>
       <c r="E153" s="98" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="F153" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G153" s="80" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="H153" s="80" t="s">
         <v>238</v>
       </c>
       <c r="I153" s="80" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="J153" s="80" t="s">
         <v>226</v>
       </c>
       <c r="K153" s="98" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="L153" s="80" t="s">
         <v>198</v>
@@ -12657,26 +12756,26 @@
     <row r="154" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="58"/>
       <c r="D154" s="85" t="s">
-        <v>1034</v>
+        <v>921</v>
       </c>
       <c r="E154" s="85" t="s">
-        <v>784</v>
+        <v>865</v>
       </c>
       <c r="F154" s="85"/>
       <c r="G154" s="85" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
       <c r="H154" s="85" t="s">
-        <v>1009</v>
+        <v>901</v>
       </c>
       <c r="I154" s="85" t="s">
-        <v>777</v>
+        <v>724</v>
       </c>
       <c r="J154" s="85" t="s">
-        <v>969</v>
+        <v>1047</v>
       </c>
       <c r="K154" s="85" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="L154" s="85"/>
       <c r="M154" s="85"/>
@@ -12711,45 +12810,45 @@
     <row r="156" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="56"/>
       <c r="D156" s="84" t="s">
-        <v>1062</v>
+        <v>949</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="F156" s="84" t="s">
-        <v>1064</v>
+        <v>951</v>
       </c>
       <c r="G156" s="84" t="s">
-        <v>253</v>
+        <v>1048</v>
       </c>
       <c r="H156" s="84" t="s">
-        <v>1065</v>
+        <v>952</v>
       </c>
       <c r="I156" s="84"/>
       <c r="J156" s="84" t="s">
-        <v>786</v>
+        <v>731</v>
       </c>
       <c r="K156" s="84" t="s">
-        <v>788</v>
+        <v>1090</v>
       </c>
       <c r="L156" s="84" t="s">
-        <v>1066</v>
+        <v>953</v>
       </c>
       <c r="M156" s="84" t="s">
-        <v>251</v>
+        <v>1070</v>
       </c>
       <c r="N156" s="84" t="s">
-        <v>891</v>
+        <v>1016</v>
       </c>
       <c r="O156" s="84"/>
       <c r="P156" s="84" t="s">
-        <v>1068</v>
+        <v>955</v>
       </c>
       <c r="Q156" s="84" t="s">
-        <v>646</v>
+        <v>601</v>
       </c>
       <c r="R156" s="84" t="s">
-        <v>790</v>
+        <v>733</v>
       </c>
       <c r="S156" s="93"/>
       <c r="V156" s="60"/>
@@ -12760,49 +12859,49 @@
         <v>39</v>
       </c>
       <c r="D157" s="98" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="E157" s="80" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="F157" s="98" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="G157" s="80" t="s">
         <v>199</v>
       </c>
       <c r="H157" s="98" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="I157" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J157" s="98" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="K157" s="80" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="L157" s="80" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="M157" s="80" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="N157" s="98" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="O157" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P157" s="80" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="Q157" s="98" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="R157" s="80" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="S157" s="94"/>
       <c r="V157" s="60"/>
@@ -12810,45 +12909,45 @@
     <row r="158" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="58"/>
       <c r="D158" s="85" t="s">
-        <v>1063</v>
+        <v>950</v>
       </c>
       <c r="E158" s="85" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="F158" s="85" t="s">
-        <v>1132</v>
+        <v>1011</v>
       </c>
       <c r="G158" s="85" t="s">
-        <v>254</v>
+        <v>1049</v>
       </c>
       <c r="H158" s="85" t="s">
-        <v>1133</v>
+        <v>1012</v>
       </c>
       <c r="I158" s="85"/>
       <c r="J158" s="85" t="s">
-        <v>787</v>
+        <v>732</v>
       </c>
       <c r="K158" s="85" t="s">
-        <v>789</v>
+        <v>1091</v>
       </c>
       <c r="L158" s="85" t="s">
-        <v>1067</v>
+        <v>954</v>
       </c>
       <c r="M158" s="85" t="s">
-        <v>252</v>
+        <v>1071</v>
       </c>
       <c r="N158" s="85" t="s">
-        <v>892</v>
+        <v>1017</v>
       </c>
       <c r="O158" s="85"/>
       <c r="P158" s="85" t="s">
-        <v>1069</v>
+        <v>956</v>
       </c>
       <c r="Q158" s="85" t="s">
-        <v>647</v>
+        <v>602</v>
       </c>
       <c r="R158" s="85" t="s">
-        <v>791</v>
+        <v>734</v>
       </c>
       <c r="S158" s="96"/>
       <c r="V158" s="60"/>
@@ -12876,26 +12975,26 @@
     <row r="160" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="56"/>
       <c r="D160" s="84" t="s">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="E160" s="84" t="s">
-        <v>687</v>
+        <v>638</v>
       </c>
       <c r="F160" s="84"/>
       <c r="G160" s="84" t="s">
-        <v>794</v>
+        <v>737</v>
       </c>
       <c r="H160" s="84" t="s">
-        <v>966</v>
+        <v>867</v>
       </c>
       <c r="I160" s="84" t="s">
-        <v>968</v>
+        <v>1046</v>
       </c>
       <c r="J160" s="84" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="K160" s="84" t="s">
-        <v>796</v>
+        <v>1143</v>
       </c>
       <c r="L160" s="84"/>
       <c r="M160" s="84"/>
@@ -12916,13 +13015,13 @@
         <v>214</v>
       </c>
       <c r="E161" s="80" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="F161" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G161" s="80" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="H161" s="80" t="s">
         <v>191</v>
@@ -12931,7 +13030,7 @@
         <v>226</v>
       </c>
       <c r="J161" s="80" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="K161" s="80" t="s">
         <v>201</v>
@@ -12951,26 +13050,26 @@
     <row r="162" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B162" s="58"/>
       <c r="D162" s="85" t="s">
-        <v>793</v>
+        <v>736</v>
       </c>
       <c r="E162" s="85" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="F162" s="85"/>
       <c r="G162" s="85" t="s">
-        <v>795</v>
+        <v>738</v>
       </c>
       <c r="H162" s="85" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="I162" s="85" t="s">
-        <v>969</v>
+        <v>1047</v>
       </c>
       <c r="J162" s="85" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="K162" s="85" t="s">
-        <v>797</v>
+        <v>1144</v>
       </c>
       <c r="L162" s="85"/>
       <c r="M162" s="85"/>
@@ -13005,45 +13104,45 @@
     <row r="164" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="56"/>
       <c r="D164" s="84" t="s">
-        <v>937</v>
+        <v>585</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>1070</v>
+        <v>957</v>
       </c>
       <c r="F164" s="84" t="s">
-        <v>798</v>
+        <v>739</v>
       </c>
       <c r="G164" s="84" t="s">
-        <v>735</v>
+        <v>682</v>
       </c>
       <c r="H164" s="84" t="s">
-        <v>942</v>
+        <v>1125</v>
       </c>
       <c r="I164" s="84"/>
       <c r="J164" s="84" t="s">
-        <v>1072</v>
+        <v>959</v>
       </c>
       <c r="K164" s="84" t="s">
-        <v>888</v>
+        <v>818</v>
       </c>
       <c r="L164" s="84" t="s">
-        <v>801</v>
+        <v>742</v>
       </c>
       <c r="M164" s="84" t="s">
-        <v>678</v>
+        <v>1058</v>
       </c>
       <c r="N164" s="84" t="s">
-        <v>803</v>
+        <v>744</v>
       </c>
       <c r="O164" s="84"/>
       <c r="P164" s="84" t="s">
-        <v>1073</v>
+        <v>960</v>
       </c>
       <c r="Q164" s="84" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="R164" s="84" t="s">
-        <v>805</v>
+        <v>1145</v>
       </c>
       <c r="S164" s="93"/>
       <c r="V164" s="60"/>
@@ -13054,49 +13153,49 @@
         <v>41</v>
       </c>
       <c r="D165" s="80" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="E165" s="98" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="F165" s="98" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="G165" s="80" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="H165" s="98" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="I165" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J165" s="80" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="K165" s="98" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="L165" s="80" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="M165" s="98" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="N165" s="98" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="O165" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P165" s="80" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="Q165" s="80" t="s">
         <v>241</v>
       </c>
       <c r="R165" s="80" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="S165" s="94"/>
       <c r="V165" s="60"/>
@@ -13104,45 +13203,45 @@
     <row r="166" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="58"/>
       <c r="D166" s="85" t="s">
-        <v>1118</v>
+        <v>586</v>
       </c>
       <c r="E166" s="85" t="s">
-        <v>1071</v>
+        <v>958</v>
       </c>
       <c r="F166" s="85" t="s">
-        <v>799</v>
+        <v>740</v>
       </c>
       <c r="G166" s="85" t="s">
-        <v>736</v>
+        <v>683</v>
       </c>
       <c r="H166" s="85" t="s">
-        <v>943</v>
+        <v>1126</v>
       </c>
       <c r="I166" s="85"/>
       <c r="J166" s="85" t="s">
-        <v>800</v>
+        <v>741</v>
       </c>
       <c r="K166" s="85" t="s">
-        <v>889</v>
+        <v>819</v>
       </c>
       <c r="L166" s="85" t="s">
-        <v>802</v>
+        <v>743</v>
       </c>
       <c r="M166" s="85" t="s">
-        <v>679</v>
+        <v>1059</v>
       </c>
       <c r="N166" s="85" t="s">
-        <v>804</v>
+        <v>745</v>
       </c>
       <c r="O166" s="85"/>
       <c r="P166" s="85" t="s">
-        <v>1074</v>
+        <v>961</v>
       </c>
       <c r="Q166" s="85" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="R166" s="85" t="s">
-        <v>806</v>
+        <v>1146</v>
       </c>
       <c r="S166" s="96"/>
       <c r="V166" s="60"/>
@@ -13170,26 +13269,26 @@
       <c r="B168" s="56"/>
       <c r="C168" s="1"/>
       <c r="D168" s="84" t="s">
-        <v>255</v>
+        <v>1020</v>
       </c>
       <c r="E168" s="84" t="s">
-        <v>872</v>
+        <v>802</v>
       </c>
       <c r="F168" s="84"/>
       <c r="G168" s="84" t="s">
-        <v>807</v>
+        <v>746</v>
       </c>
       <c r="H168" s="84" t="s">
-        <v>1075</v>
+        <v>962</v>
       </c>
       <c r="I168" s="84" t="s">
-        <v>809</v>
+        <v>748</v>
       </c>
       <c r="J168" s="84" t="s">
         <v>248</v>
       </c>
       <c r="K168" s="84" t="s">
-        <v>776</v>
+        <v>1147</v>
       </c>
       <c r="L168" s="84"/>
       <c r="M168" s="84"/>
@@ -13209,7 +13308,7 @@
         <v>202</v>
       </c>
       <c r="E169" s="98" t="s">
-        <v>871</v>
+        <v>801</v>
       </c>
       <c r="F169" s="80" t="s">
         <v>186</v>
@@ -13218,16 +13317,16 @@
         <v>212</v>
       </c>
       <c r="H169" s="80" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="I169" s="80" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="J169" s="80" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="K169" s="98" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="L169" s="80" t="s">
         <v>198</v>
@@ -13243,26 +13342,26 @@
       <c r="B170" s="58"/>
       <c r="C170" s="1"/>
       <c r="D170" s="85" t="s">
-        <v>256</v>
+        <v>1021</v>
       </c>
       <c r="E170" s="85" t="s">
-        <v>873</v>
+        <v>803</v>
       </c>
       <c r="F170" s="85"/>
       <c r="G170" s="85" t="s">
-        <v>808</v>
+        <v>747</v>
       </c>
       <c r="H170" s="85" t="s">
-        <v>1112</v>
+        <v>994</v>
       </c>
       <c r="I170" s="85" t="s">
-        <v>810</v>
+        <v>749</v>
       </c>
       <c r="J170" s="85" t="s">
         <v>249</v>
       </c>
       <c r="K170" s="85" t="s">
-        <v>777</v>
+        <v>1148</v>
       </c>
       <c r="L170" s="85"/>
       <c r="M170" s="85"/>
@@ -13295,45 +13394,45 @@
       <c r="B172" s="56"/>
       <c r="C172" s="1"/>
       <c r="D172" s="84" t="s">
-        <v>255</v>
+        <v>1020</v>
       </c>
       <c r="E172" s="84" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="F172" s="84" t="s">
-        <v>1076</v>
+        <v>963</v>
       </c>
       <c r="G172" s="84" t="s">
-        <v>811</v>
+        <v>750</v>
       </c>
       <c r="H172" s="84" t="s">
         <v>246</v>
       </c>
       <c r="I172" s="84"/>
       <c r="J172" s="84" t="s">
-        <v>813</v>
+        <v>752</v>
       </c>
       <c r="K172" s="84" t="s">
-        <v>1010</v>
+        <v>1062</v>
       </c>
       <c r="L172" s="84" t="s">
-        <v>1078</v>
+        <v>965</v>
       </c>
       <c r="M172" s="84" t="s">
+        <v>653</v>
+      </c>
+      <c r="N172" s="84" t="s">
         <v>704</v>
-      </c>
-      <c r="N172" s="84" t="s">
-        <v>757</v>
       </c>
       <c r="O172" s="84"/>
       <c r="P172" s="84" t="s">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="Q172" s="84" t="s">
-        <v>909</v>
+        <v>831</v>
       </c>
       <c r="R172" s="84" t="s">
-        <v>1079</v>
+        <v>966</v>
       </c>
     </row>
     <row r="173" spans="2:22" ht="58.5">
@@ -13346,34 +13445,34 @@
         <v>202</v>
       </c>
       <c r="E173" s="80" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="F173" s="80" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="G173" s="81" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="H173" s="80" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="I173" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J173" s="80" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="K173" s="80" t="s">
         <v>213</v>
       </c>
       <c r="L173" s="80" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="M173" s="80" t="s">
         <v>185</v>
       </c>
       <c r="N173" s="80" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="O173" s="80" t="s">
         <v>198</v>
@@ -13385,52 +13484,52 @@
         <v>219</v>
       </c>
       <c r="R173" s="80" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
       <c r="C174" s="1"/>
       <c r="D174" s="85" t="s">
-        <v>256</v>
+        <v>1021</v>
       </c>
       <c r="E174" s="85" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="F174" s="85" t="s">
-        <v>1077</v>
+        <v>964</v>
       </c>
       <c r="G174" s="85" t="s">
-        <v>812</v>
+        <v>751</v>
       </c>
       <c r="H174" s="85" t="s">
         <v>247</v>
       </c>
       <c r="I174" s="85"/>
       <c r="J174" s="85" t="s">
-        <v>814</v>
+        <v>753</v>
       </c>
       <c r="K174" s="85" t="s">
-        <v>1011</v>
+        <v>1063</v>
       </c>
       <c r="L174" s="85" t="s">
-        <v>1134</v>
+        <v>1013</v>
       </c>
       <c r="M174" s="85" t="s">
+        <v>654</v>
+      </c>
+      <c r="N174" s="85" t="s">
         <v>705</v>
-      </c>
-      <c r="N174" s="85" t="s">
-        <v>758</v>
       </c>
       <c r="O174" s="85"/>
       <c r="P174" s="85" t="s">
-        <v>793</v>
+        <v>736</v>
       </c>
       <c r="Q174" s="85" t="s">
-        <v>785</v>
+        <v>730</v>
       </c>
       <c r="R174" s="85" t="s">
-        <v>815</v>
+        <v>754</v>
       </c>
     </row>
     <row r="175" spans="2:22">
@@ -13456,26 +13555,26 @@
       <c r="B176" s="56"/>
       <c r="C176" s="1"/>
       <c r="D176" s="84" t="s">
-        <v>1080</v>
+        <v>967</v>
       </c>
       <c r="E176" s="84" t="s">
-        <v>1082</v>
+        <v>969</v>
       </c>
       <c r="F176" s="84"/>
       <c r="G176" s="84" t="s">
-        <v>283</v>
+        <v>1149</v>
       </c>
       <c r="H176" s="84" t="s">
-        <v>656</v>
+        <v>611</v>
       </c>
       <c r="I176" s="84" t="s">
-        <v>1084</v>
+        <v>971</v>
       </c>
       <c r="J176" s="84" t="s">
-        <v>1085</v>
+        <v>972</v>
       </c>
       <c r="K176" s="84" t="s">
-        <v>1087</v>
+        <v>974</v>
       </c>
       <c r="L176" s="84"/>
       <c r="M176" s="84"/>
@@ -13492,28 +13591,28 @@
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="80" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="E177" s="98" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="F177" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="G177" s="101" t="s">
+      <c r="G177" s="100" t="s">
         <v>195</v>
       </c>
       <c r="H177" s="80" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="I177" s="80" t="s">
         <v>216</v>
       </c>
       <c r="J177" s="98" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="K177" s="98" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="L177" s="80" t="s">
         <v>198</v>
@@ -13529,26 +13628,26 @@
       <c r="B178" s="58"/>
       <c r="C178" s="1"/>
       <c r="D178" s="85" t="s">
-        <v>1081</v>
+        <v>968</v>
       </c>
       <c r="E178" s="85" t="s">
-        <v>1083</v>
+        <v>970</v>
       </c>
       <c r="F178" s="85"/>
       <c r="G178" s="85" t="s">
-        <v>284</v>
+        <v>1150</v>
       </c>
       <c r="H178" s="85" t="s">
-        <v>657</v>
+        <v>612</v>
       </c>
       <c r="I178" s="85" t="s">
-        <v>632</v>
+        <v>591</v>
       </c>
       <c r="J178" s="85" t="s">
-        <v>1086</v>
+        <v>973</v>
       </c>
       <c r="K178" s="85" t="s">
-        <v>1088</v>
+        <v>975</v>
       </c>
       <c r="L178" s="85"/>
       <c r="M178" s="85"/>
@@ -13581,45 +13680,45 @@
       <c r="B180" s="56"/>
       <c r="C180" s="1"/>
       <c r="D180" s="84" t="s">
-        <v>1061</v>
+        <v>948</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>990</v>
+        <v>886</v>
       </c>
       <c r="F180" s="84" t="s">
-        <v>1089</v>
+        <v>976</v>
       </c>
       <c r="G180" s="84" t="s">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="H180" s="84" t="s">
-        <v>1090</v>
+        <v>977</v>
       </c>
       <c r="I180" s="84"/>
       <c r="J180" s="84" t="s">
-        <v>710</v>
+        <v>787</v>
       </c>
       <c r="K180" s="84" t="s">
-        <v>1092</v>
+        <v>1151</v>
       </c>
       <c r="L180" s="84" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="M180" s="84" t="s">
-        <v>1094</v>
+        <v>979</v>
       </c>
       <c r="N180" s="84" t="s">
-        <v>818</v>
+        <v>755</v>
       </c>
       <c r="O180" s="84"/>
       <c r="P180" s="84" t="s">
-        <v>820</v>
+        <v>757</v>
       </c>
       <c r="Q180" s="84" t="s">
-        <v>848</v>
+        <v>1052</v>
       </c>
       <c r="R180" s="84" t="s">
-        <v>1096</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="181" spans="2:18" ht="58.5">
@@ -13629,19 +13728,19 @@
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="80" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="E181" s="80" t="s">
-        <v>406</v>
+        <v>377</v>
       </c>
       <c r="F181" s="98" t="s">
-        <v>555</v>
-      </c>
-      <c r="G181" s="101" t="s">
-        <v>556</v>
+        <v>526</v>
+      </c>
+      <c r="G181" s="100" t="s">
+        <v>527</v>
       </c>
       <c r="H181" s="80" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="I181" s="80" t="s">
         <v>186</v>
@@ -13650,73 +13749,73 @@
         <v>189</v>
       </c>
       <c r="K181" s="98" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="L181" s="80" t="s">
-        <v>404</v>
+        <v>375</v>
       </c>
       <c r="M181" s="98" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="N181" s="80" t="s">
-        <v>560</v>
+        <v>531</v>
       </c>
       <c r="O181" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P181" s="80" t="s">
-        <v>561</v>
+        <v>532</v>
       </c>
       <c r="Q181" s="80" t="s">
         <v>204</v>
       </c>
       <c r="R181" s="98" t="s">
-        <v>562</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
       <c r="C182" s="1"/>
       <c r="D182" s="85" t="s">
-        <v>782</v>
+        <v>729</v>
       </c>
       <c r="E182" s="85" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="F182" s="85" t="s">
-        <v>1135</v>
+        <v>1014</v>
       </c>
       <c r="G182" s="85" t="s">
-        <v>793</v>
+        <v>736</v>
       </c>
       <c r="H182" s="85" t="s">
-        <v>1091</v>
+        <v>978</v>
       </c>
       <c r="I182" s="85"/>
       <c r="J182" s="85" t="s">
-        <v>711</v>
+        <v>788</v>
       </c>
       <c r="K182" s="85" t="s">
-        <v>1093</v>
+        <v>1152</v>
       </c>
       <c r="L182" s="85" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="M182" s="85" t="s">
-        <v>1095</v>
+        <v>980</v>
       </c>
       <c r="N182" s="85" t="s">
-        <v>819</v>
+        <v>756</v>
       </c>
       <c r="O182" s="85"/>
       <c r="P182" s="85" t="s">
-        <v>821</v>
+        <v>758</v>
       </c>
       <c r="Q182" s="85" t="s">
-        <v>849</v>
+        <v>1053</v>
       </c>
       <c r="R182" s="85" t="s">
-        <v>1136</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -13742,26 +13841,26 @@
       <c r="B184" s="56"/>
       <c r="C184" s="1"/>
       <c r="D184" s="84" t="s">
-        <v>1097</v>
+        <v>981</v>
       </c>
       <c r="E184" s="84" t="s">
-        <v>1099</v>
+        <v>983</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="84" t="s">
-        <v>937</v>
+        <v>585</v>
       </c>
       <c r="H184" s="84" t="s">
-        <v>1033</v>
+        <v>920</v>
       </c>
       <c r="I184" s="84" t="s">
-        <v>968</v>
+        <v>1046</v>
       </c>
       <c r="J184" s="84" t="s">
-        <v>1101</v>
+        <v>985</v>
       </c>
       <c r="K184" s="84" t="s">
-        <v>1046</v>
+        <v>933</v>
       </c>
       <c r="L184" s="84"/>
       <c r="M184" s="84"/>
@@ -13778,16 +13877,16 @@
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="80" t="s">
-        <v>563</v>
+        <v>534</v>
       </c>
       <c r="E185" s="80" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="F185" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="G185" s="101" t="s">
-        <v>356</v>
+      <c r="G185" s="100" t="s">
+        <v>329</v>
       </c>
       <c r="H185" s="80" t="s">
         <v>240</v>
@@ -13796,10 +13895,10 @@
         <v>226</v>
       </c>
       <c r="J185" s="80" t="s">
-        <v>565</v>
+        <v>536</v>
       </c>
       <c r="K185" s="98" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="L185" s="80" t="s">
         <v>198</v>
@@ -13815,26 +13914,26 @@
       <c r="B186" s="58"/>
       <c r="C186" s="1"/>
       <c r="D186" s="85" t="s">
-        <v>1098</v>
+        <v>982</v>
       </c>
       <c r="E186" s="85" t="s">
-        <v>1100</v>
+        <v>984</v>
       </c>
       <c r="F186" s="85"/>
       <c r="G186" s="85" t="s">
-        <v>1118</v>
+        <v>586</v>
       </c>
       <c r="H186" s="85" t="s">
-        <v>1034</v>
+        <v>921</v>
       </c>
       <c r="I186" s="85" t="s">
-        <v>969</v>
+        <v>1047</v>
       </c>
       <c r="J186" s="85" t="s">
-        <v>1102</v>
+        <v>986</v>
       </c>
       <c r="K186" s="85" t="s">
-        <v>1047</v>
+        <v>934</v>
       </c>
       <c r="L186" s="85"/>
       <c r="M186" s="85"/>
@@ -13867,45 +13966,45 @@
       <c r="B188" s="56"/>
       <c r="C188" s="1"/>
       <c r="D188" s="84" t="s">
-        <v>822</v>
+        <v>759</v>
       </c>
       <c r="E188" s="84" t="s">
-        <v>909</v>
+        <v>831</v>
       </c>
       <c r="F188" s="84" t="s">
-        <v>824</v>
+        <v>761</v>
       </c>
       <c r="G188" s="84" t="s">
-        <v>824</v>
+        <v>761</v>
       </c>
       <c r="H188" s="84" t="s">
-        <v>1017</v>
+        <v>905</v>
       </c>
       <c r="I188" s="84"/>
       <c r="J188" s="84" t="s">
-        <v>973</v>
+        <v>870</v>
       </c>
       <c r="K188" s="84" t="s">
-        <v>719</v>
+        <v>667</v>
       </c>
       <c r="L188" s="84" t="s">
-        <v>915</v>
+        <v>835</v>
       </c>
       <c r="M188" s="84" t="s">
-        <v>826</v>
+        <v>763</v>
       </c>
       <c r="N188" s="84" t="s">
-        <v>599</v>
+        <v>1026</v>
       </c>
       <c r="O188" s="84"/>
       <c r="P188" s="84" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="Q188" s="84" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="R188" s="84" t="s">
-        <v>1092</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="58.5">
@@ -13915,94 +14014,94 @@
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="80" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="E189" s="80" t="s">
         <v>219</v>
       </c>
       <c r="F189" s="80" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="G189" s="80" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="H189" s="98" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="I189" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J189" s="98" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="K189" s="80" t="s">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="L189" s="80" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="M189" s="98" t="s">
         <v>220</v>
       </c>
       <c r="N189" s="98" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="O189" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P189" s="80" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="Q189" s="80" t="s">
-        <v>569</v>
+        <v>540</v>
       </c>
       <c r="R189" s="80" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
       <c r="C190" s="1"/>
       <c r="D190" s="85" t="s">
-        <v>823</v>
+        <v>760</v>
       </c>
       <c r="E190" s="85" t="s">
-        <v>785</v>
+        <v>730</v>
       </c>
       <c r="F190" s="85" t="s">
-        <v>825</v>
+        <v>762</v>
       </c>
       <c r="G190" s="85" t="s">
-        <v>825</v>
+        <v>762</v>
       </c>
       <c r="H190" s="85" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="I190" s="85"/>
       <c r="J190" s="85" t="s">
-        <v>974</v>
+        <v>871</v>
       </c>
       <c r="K190" s="85" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
       <c r="L190" s="85" t="s">
-        <v>916</v>
+        <v>836</v>
       </c>
       <c r="M190" s="85" t="s">
-        <v>827</v>
+        <v>764</v>
       </c>
       <c r="N190" s="85" t="s">
-        <v>600</v>
+        <v>1027</v>
       </c>
       <c r="O190" s="85"/>
       <c r="P190" s="85" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="Q190" s="85" t="s">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="R190" s="85" t="s">
-        <v>1093</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="191" spans="2:18">
@@ -14028,26 +14127,26 @@
       <c r="B192" s="56"/>
       <c r="C192" s="1"/>
       <c r="D192" s="84" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="E192" s="84" t="s">
-        <v>1103</v>
+        <v>987</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="84" t="s">
-        <v>944</v>
+        <v>856</v>
       </c>
       <c r="H192" s="84" t="s">
-        <v>678</v>
+        <v>1058</v>
       </c>
       <c r="I192" s="84" t="s">
-        <v>1104</v>
+        <v>988</v>
       </c>
       <c r="J192" s="84" t="s">
-        <v>848</v>
+        <v>1052</v>
       </c>
       <c r="K192" s="84" t="s">
-        <v>828</v>
+        <v>765</v>
       </c>
       <c r="L192" s="84"/>
       <c r="M192" s="84"/>
@@ -14064,22 +14163,22 @@
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="80" t="s">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="E193" s="80" t="s">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="F193" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G193" s="81" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="H193" s="80" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
       <c r="I193" s="98" t="s">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="J193" s="98" t="s">
         <v>204</v>
@@ -14101,26 +14200,26 @@
       <c r="B194" s="58"/>
       <c r="C194" s="1"/>
       <c r="D194" s="85" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="E194" s="85" t="s">
-        <v>1137</v>
+        <v>1015</v>
       </c>
       <c r="F194" s="85"/>
       <c r="G194" s="85" t="s">
-        <v>635</v>
+        <v>592</v>
       </c>
       <c r="H194" s="85" t="s">
-        <v>679</v>
+        <v>1059</v>
       </c>
       <c r="I194" s="85" t="s">
-        <v>978</v>
+        <v>874</v>
       </c>
       <c r="J194" s="85" t="s">
-        <v>849</v>
+        <v>1053</v>
       </c>
       <c r="K194" s="85" t="s">
-        <v>829</v>
+        <v>766</v>
       </c>
       <c r="L194" s="85"/>
       <c r="M194" s="85"/>
@@ -14153,45 +14252,45 @@
       <c r="B196" s="56"/>
       <c r="C196" s="1"/>
       <c r="D196" s="84" t="s">
-        <v>830</v>
+        <v>767</v>
       </c>
       <c r="E196" s="84" t="s">
-        <v>280</v>
+        <v>1133</v>
       </c>
       <c r="F196" s="84" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G196" s="84" t="s">
-        <v>846</v>
+        <v>781</v>
       </c>
       <c r="H196" s="84" t="s">
-        <v>854</v>
+        <v>1155</v>
       </c>
       <c r="I196" s="84"/>
       <c r="J196" s="84" t="s">
-        <v>832</v>
+        <v>769</v>
       </c>
       <c r="K196" s="84" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="L196" s="84" t="s">
-        <v>1017</v>
+        <v>905</v>
       </c>
       <c r="M196" s="84" t="s">
-        <v>834</v>
+        <v>771</v>
       </c>
       <c r="N196" s="84" t="s">
-        <v>836</v>
+        <v>773</v>
       </c>
       <c r="O196" s="84"/>
       <c r="P196" s="84" t="s">
-        <v>934</v>
+        <v>851</v>
       </c>
       <c r="Q196" s="84" t="s">
-        <v>626</v>
+        <v>1123</v>
       </c>
       <c r="R196" s="84" t="s">
-        <v>832</v>
+        <v>769</v>
       </c>
     </row>
     <row r="197" spans="2:18" ht="58.5">
@@ -14201,7 +14300,7 @@
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="80" t="s">
-        <v>573</v>
+        <v>544</v>
       </c>
       <c r="E197" s="80" t="s">
         <v>188</v>
@@ -14210,7 +14309,7 @@
         <v>236</v>
       </c>
       <c r="G197" s="81" t="s">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="H197" s="80" t="s">
         <v>192</v>
@@ -14219,76 +14318,76 @@
         <v>186</v>
       </c>
       <c r="J197" s="80" t="s">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="K197" s="80" t="s">
-        <v>576</v>
+        <v>547</v>
       </c>
       <c r="L197" s="80" t="s">
-        <v>445</v>
+        <v>416</v>
       </c>
       <c r="M197" s="80" t="s">
-        <v>577</v>
+        <v>548</v>
       </c>
       <c r="N197" s="80" t="s">
-        <v>578</v>
+        <v>549</v>
       </c>
       <c r="O197" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P197" s="80" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="Q197" s="80" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="R197" s="80" t="s">
-        <v>579</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
       <c r="C198" s="1"/>
       <c r="D198" s="85" t="s">
-        <v>831</v>
+        <v>768</v>
       </c>
       <c r="E198" s="85" t="s">
-        <v>281</v>
+        <v>1134</v>
       </c>
       <c r="F198" s="85" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G198" s="85" t="s">
-        <v>847</v>
+        <v>782</v>
       </c>
       <c r="H198" s="85" t="s">
-        <v>855</v>
+        <v>1156</v>
       </c>
       <c r="I198" s="85"/>
       <c r="J198" s="85" t="s">
-        <v>833</v>
+        <v>770</v>
       </c>
       <c r="K198" s="85" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="L198" s="85" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="M198" s="85" t="s">
-        <v>835</v>
+        <v>772</v>
       </c>
       <c r="N198" s="85" t="s">
-        <v>837</v>
+        <v>774</v>
       </c>
       <c r="O198" s="85"/>
       <c r="P198" s="85" t="s">
-        <v>1117</v>
+        <v>999</v>
       </c>
       <c r="Q198" s="85" t="s">
-        <v>627</v>
+        <v>1124</v>
       </c>
       <c r="R198" s="85" t="s">
-        <v>833</v>
+        <v>770</v>
       </c>
     </row>
     <row r="199" spans="2:18">
@@ -14314,26 +14413,26 @@
       <c r="B200" s="56"/>
       <c r="C200" s="1"/>
       <c r="D200" s="84" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>1105</v>
+        <v>1157</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="84" t="s">
-        <v>765</v>
+        <v>714</v>
       </c>
       <c r="H200" s="84" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="I200" s="84" t="s">
-        <v>1107</v>
+        <v>989</v>
       </c>
       <c r="J200" s="84" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
       <c r="K200" s="84" t="s">
-        <v>836</v>
+        <v>773</v>
       </c>
       <c r="L200" s="84"/>
       <c r="M200" s="84"/>
@@ -14350,28 +14449,28 @@
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="80" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="E201" s="80" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="F201" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="G201" s="101" t="s">
-        <v>496</v>
+      <c r="G201" s="100" t="s">
+        <v>467</v>
       </c>
       <c r="H201" s="80" t="s">
         <v>237</v>
       </c>
       <c r="I201" s="98" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="J201" s="80" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="K201" s="80" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
       <c r="L201" s="80" t="s">
         <v>198</v>
@@ -14387,26 +14486,26 @@
       <c r="B202" s="58"/>
       <c r="C202" s="1"/>
       <c r="D202" s="85" t="s">
-        <v>839</v>
+        <v>572</v>
       </c>
       <c r="E202" s="85" t="s">
-        <v>1106</v>
+        <v>1158</v>
       </c>
       <c r="F202" s="85"/>
       <c r="G202" s="85" t="s">
-        <v>766</v>
+        <v>715</v>
       </c>
       <c r="H202" s="85" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="I202" s="85" t="s">
-        <v>1108</v>
+        <v>990</v>
       </c>
       <c r="J202" s="85" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
       <c r="K202" s="85" t="s">
-        <v>837</v>
+        <v>774</v>
       </c>
       <c r="L202" s="85"/>
       <c r="M202" s="85"/>
@@ -15465,7 +15564,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -15483,7 +15582,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="107" t="s">
+      <c r="I5" s="106" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -15508,7 +15607,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="108"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -15528,7 +15627,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="108"/>
+      <c r="I6" s="107"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -15550,7 +15649,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="108"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -15566,7 +15665,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="108"/>
+      <c r="I7" s="107"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -15588,7 +15687,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="108"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -15604,7 +15703,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="108"/>
+      <c r="I8" s="107"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -15626,7 +15725,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="108"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -15642,7 +15741,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="108"/>
+      <c r="I9" s="107"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -15664,7 +15763,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="109"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -15680,7 +15779,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="109"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -15703,7 +15802,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -15721,7 +15820,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="106" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -15745,7 +15844,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="108"/>
+      <c r="B12" s="107"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -15765,7 +15864,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="108"/>
+      <c r="I12" s="107"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -15785,7 +15884,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="108"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -15799,7 +15898,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="108"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -15819,7 +15918,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="108"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -15833,7 +15932,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="108"/>
+      <c r="I14" s="107"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -15853,7 +15952,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="108"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -15867,7 +15966,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="108"/>
+      <c r="I15" s="107"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -15887,7 +15986,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="109"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -15901,7 +16000,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="109"/>
+      <c r="I16" s="108"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>

--- a/output5/【河洛話注音】《正氣歌》【河洛白話音】.xlsx
+++ b/output5/【河洛話注音】《正氣歌》【河洛白話音】.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F737F8-FFD5-4FCA-801F-DA5844C96B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D58A26B-C9AC-4EE9-921A-0FFCB66F4C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="1162">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,14 +1331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jit8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆢㄧㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ki3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1419,14 +1411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㄢ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1866,9 +1850,6 @@
     <t>血</t>
   </si>
   <si>
-    <t>睢</t>
-  </si>
-  <si>
     <t>齒</t>
   </si>
   <si>
@@ -1944,9 +1925,6 @@
     <t>擊</t>
   </si>
   <si>
-    <t>賊</t>
-  </si>
-  <si>
     <t>笏</t>
   </si>
   <si>
@@ -2148,9 +2126,6 @@
     <t>辟</t>
   </si>
   <si>
-    <t>易</t>
-  </si>
-  <si>
     <t>沮</t>
   </si>
   <si>
@@ -2202,9 +2177,6 @@
     <t>悲</t>
   </si>
   <si>
-    <t>曷</t>
-  </si>
-  <si>
     <t>哲</t>
   </si>
   <si>
@@ -2418,14 +2390,6 @@
   </si>
   <si>
     <t>ㄉㄚㆴ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hok8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㆦㆻ˙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2708,14 +2672,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hiat4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㄚㆵ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gan5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2724,14 +2680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>san1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liau5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2752,14 +2700,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>piau2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄅㄧㄠˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kui2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2956,14 +2896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tuan5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄨㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kam1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2988,14 +2920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tian5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄉㄧㄢˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄘㄨㄣ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3008,14 +2932,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄏㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ke1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3240,12 +3156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zo2</t>
-  </si>
-  <si>
-    <t>ㄗㄜˋ</t>
-  </si>
-  <si>
     <t>zi1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3254,30 +3164,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phai3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄞ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sui1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄙㄨㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>siat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒㄧㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lim2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3302,14 +3188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uan7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄨㄢ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漢字庫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3334,14 +3212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ing5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧㄥˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tsik4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3526,10 +3396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄚㆷ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hing7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3650,10 +3516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsai6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tse5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3678,10 +3540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tiang1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liang5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3762,14 +3620,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsat8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄗㄚㆵ˙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>su7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3786,10 +3636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pong6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ban7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3814,10 +3660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>thiau6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tsun1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3826,22 +3668,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tshoo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄘㆦˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iann1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kuan1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sang3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3906,26 +3736,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sir2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄒˋ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tsu7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>phik4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄆㄧㆻ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3934,10 +3748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tsir6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tiunn5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3946,14 +3756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ngau7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄫㄠ˫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>biu7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3982,18 +3784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ah8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tsiau3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄐㄧㄠ˪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白話音</t>
   </si>
   <si>
@@ -4048,10 +3838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄉㄧㄤ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄗㄨㄧ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4064,30 +3850,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄅㆲ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄊㄧㄠ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄧㆩ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄍㄨㄢ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄍㄠ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㄐ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㄅㄧ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4220,14 +3990,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㆤˊ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bo5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4584,10 +4346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bue7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ㆠㄨㆤ˫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4640,14 +4398,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>i1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄧ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hng7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4665,6 +4415,270 @@
   </si>
   <si>
     <t>間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>king1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄥ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ki5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>that4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄨㆤ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoonn3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㆧ˪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiunn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄧㆫ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hueh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄨㆤㆷ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsih8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㄧㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tshat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lih8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄧㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pong7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄅㆲ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thiau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄧㄠ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄧㄣ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄚㆵ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄘㄜˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄍㄨㆩ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thuan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄨㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thian5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㄧㄢˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inn7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆪ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆦ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tso5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄗㄜˊ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>su2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄙㄨˋ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phiah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄆㄧㄚㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄌㄜㆷ˙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄊㆩ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄏㄚㆵ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄉㄜ˫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tsio3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄐㄧㄜ˪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6882,7 +6896,7 @@
         <v>165</v>
       </c>
       <c r="C4" s="54" t="s">
-        <v>993</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5" spans="2:3">
@@ -6890,7 +6904,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="2:3">
@@ -6898,7 +6912,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="76" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -6935,18 +6949,18 @@
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="99" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>991</v>
+        <v>937</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="99" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>992</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -6970,8 +6984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="B2:AC242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -7029,7 +7043,7 @@
       <c r="R3" s="83"/>
       <c r="T3" s="92"/>
       <c r="V3" s="103" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
@@ -7038,39 +7052,39 @@
         <v>259</v>
       </c>
       <c r="E4" s="84" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F4" s="84" t="s">
-        <v>1016</v>
+        <v>957</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>1018</v>
+        <v>959</v>
       </c>
       <c r="J4" s="84" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="K4" s="84" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="L4" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M4" s="84"/>
       <c r="N4" s="84" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O4" s="84" t="s">
-        <v>1022</v>
+        <v>963</v>
       </c>
       <c r="P4" s="84" t="s">
-        <v>1024</v>
+        <v>965</v>
       </c>
       <c r="Q4" s="84" t="s">
-        <v>1105</v>
+        <v>1044</v>
       </c>
       <c r="R4" s="84"/>
       <c r="S4" s="93"/>
@@ -7081,22 +7095,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F5" s="98" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H5" s="80" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J5" s="80" t="s">
         <v>202</v>
@@ -7105,22 +7119,22 @@
         <v>208</v>
       </c>
       <c r="L5" s="80" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M5" s="80" t="s">
         <v>198</v>
       </c>
       <c r="N5" s="98" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O5" s="98" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="P5" s="80" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="98" t="s">
-        <v>1092</v>
+        <v>1031</v>
       </c>
       <c r="R5" s="80" t="s">
         <v>186</v>
@@ -7135,39 +7149,39 @@
         <v>260</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>1017</v>
+        <v>958</v>
       </c>
       <c r="G6" s="85" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="85" t="s">
-        <v>1019</v>
+        <v>960</v>
       </c>
       <c r="J6" s="85" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="K6" s="85" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="L6" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M6" s="85"/>
       <c r="N6" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O6" s="85" t="s">
-        <v>1023</v>
+        <v>964</v>
       </c>
       <c r="P6" s="85" t="s">
-        <v>1025</v>
+        <v>966</v>
       </c>
       <c r="Q6" s="85" t="s">
-        <v>1106</v>
+        <v>1045</v>
       </c>
       <c r="R6" s="85"/>
       <c r="S6" s="95"/>
@@ -7197,42 +7211,42 @@
     <row r="8" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="56"/>
       <c r="D8" s="84" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="E8" s="84" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G8" s="84" t="s">
-        <v>1107</v>
+        <v>1046</v>
       </c>
       <c r="H8" s="84"/>
       <c r="I8" s="84" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="J8" s="84" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>1109</v>
+        <v>1048</v>
       </c>
       <c r="L8" s="84" t="s">
-        <v>824</v>
+        <v>792</v>
       </c>
       <c r="M8" s="84"/>
       <c r="N8" s="84" t="s">
-        <v>1026</v>
+        <v>967</v>
       </c>
       <c r="O8" s="84" t="s">
-        <v>826</v>
+        <v>1096</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>1028</v>
+        <v>969</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>1111</v>
+        <v>1050</v>
       </c>
       <c r="R8" s="84"/>
       <c r="S8" s="93"/>
@@ -7244,13 +7258,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F9" s="80" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G9" s="98" t="s">
         <v>239</v>
@@ -7259,13 +7273,13 @@
         <v>198</v>
       </c>
       <c r="I9" s="80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J9" s="80" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K9" s="98" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L9" s="80" t="s">
         <v>205</v>
@@ -7274,16 +7288,16 @@
         <v>186</v>
       </c>
       <c r="N9" s="80" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O9" s="102" t="s">
-        <v>1159</v>
+        <v>1095</v>
       </c>
       <c r="P9" s="80" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="Q9" s="98" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="R9" s="80" t="s">
         <v>186</v>
@@ -7295,42 +7309,42 @@
     <row r="10" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="58"/>
       <c r="D10" s="85" t="s">
-        <v>995</v>
+        <v>941</v>
       </c>
       <c r="E10" s="85" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G10" s="85" t="s">
-        <v>1108</v>
+        <v>1047</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="85" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="J10" s="85" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="K10" s="85" t="s">
-        <v>1110</v>
+        <v>1049</v>
       </c>
       <c r="L10" s="85" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
       <c r="M10" s="85"/>
       <c r="N10" s="85" t="s">
-        <v>1027</v>
+        <v>968</v>
       </c>
       <c r="O10" s="85" t="s">
-        <v>827</v>
+        <v>1097</v>
       </c>
       <c r="P10" s="85" t="s">
-        <v>1029</v>
+        <v>970</v>
       </c>
       <c r="Q10" s="85" t="s">
-        <v>1112</v>
+        <v>1051</v>
       </c>
       <c r="R10" s="85"/>
       <c r="S10" s="96"/>
@@ -7359,45 +7373,45 @@
     <row r="12" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="56"/>
       <c r="D12" s="84" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E12" s="84" t="s">
-        <v>1030</v>
+        <v>971</v>
       </c>
       <c r="F12" s="84" t="s">
-        <v>1113</v>
+        <v>1052</v>
       </c>
       <c r="G12" s="84" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="H12" s="84" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="I12" s="84"/>
       <c r="J12" s="84" t="s">
-        <v>1032</v>
+        <v>973</v>
       </c>
       <c r="K12" s="84" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
       <c r="L12" s="84" t="s">
-        <v>829</v>
+        <v>795</v>
       </c>
       <c r="M12" s="84" t="s">
-        <v>261</v>
+        <v>1098</v>
       </c>
       <c r="N12" s="84"/>
       <c r="O12" s="84" t="s">
-        <v>832</v>
+        <v>798</v>
       </c>
       <c r="P12" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="Q12" s="84" t="s">
-        <v>833</v>
+        <v>799</v>
       </c>
       <c r="R12" s="84" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="S12" s="93"/>
       <c r="V12" s="104"/>
@@ -7408,46 +7422,46 @@
         <v>3</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E13" s="80" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F13" s="80" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H13" s="80" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>198</v>
       </c>
       <c r="J13" s="80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K13" s="80" t="s">
         <v>219</v>
       </c>
       <c r="L13" s="98" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M13" s="98" t="s">
-        <v>1093</v>
+        <v>1032</v>
       </c>
       <c r="N13" s="80" t="s">
         <v>186</v>
       </c>
       <c r="O13" s="80" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P13" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="80" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="R13" s="98" t="s">
         <v>207</v>
@@ -7458,45 +7472,45 @@
     <row r="14" spans="2:29" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="58"/>
       <c r="D14" s="85" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E14" s="85" t="s">
-        <v>1031</v>
+        <v>972</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>1114</v>
+        <v>1053</v>
       </c>
       <c r="G14" s="85" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H14" s="85" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="I14" s="85"/>
       <c r="J14" s="85" t="s">
-        <v>1033</v>
+        <v>974</v>
       </c>
       <c r="K14" s="85" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="L14" s="85" t="s">
-        <v>830</v>
+        <v>796</v>
       </c>
       <c r="M14" s="85" t="s">
-        <v>262</v>
+        <v>1099</v>
       </c>
       <c r="N14" s="85"/>
       <c r="O14" s="85" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="P14" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q14" s="85" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="R14" s="85" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="S14" s="96"/>
       <c r="V14" s="104"/>
@@ -7528,42 +7542,42 @@
       <c r="B16" s="56"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84" t="s">
-        <v>1034</v>
+        <v>975</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="G16" s="84" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="H16" s="84" t="s">
-        <v>834</v>
+        <v>800</v>
       </c>
       <c r="I16" s="84"/>
       <c r="J16" s="84" t="s">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="K16" s="84" t="s">
-        <v>1115</v>
+        <v>1054</v>
       </c>
       <c r="L16" s="84" t="s">
-        <v>1117</v>
+        <v>1056</v>
       </c>
       <c r="M16" s="84" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="N16" s="84"/>
       <c r="O16" s="84" t="s">
         <v>255</v>
       </c>
       <c r="P16" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="Q16" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="R16" s="84" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="S16" s="93"/>
       <c r="V16" s="104"/>
@@ -7577,31 +7591,31 @@
         <v>221</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F17" s="80" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="I17" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J17" s="80" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K17" s="80" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L17" s="80" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M17" s="80" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="N17" s="80" t="s">
         <v>186</v>
@@ -7610,7 +7624,7 @@
         <v>224</v>
       </c>
       <c r="P17" s="98" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="80" t="s">
         <v>189</v>
@@ -7625,42 +7639,42 @@
       <c r="B18" s="58"/>
       <c r="D18" s="85"/>
       <c r="E18" s="85" t="s">
-        <v>1035</v>
+        <v>976</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="G18" s="85" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="H18" s="85" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="I18" s="85"/>
       <c r="J18" s="85" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="K18" s="85" t="s">
-        <v>1116</v>
+        <v>1055</v>
       </c>
       <c r="L18" s="85" t="s">
-        <v>1118</v>
+        <v>1057</v>
       </c>
       <c r="M18" s="85" t="s">
-        <v>997</v>
+        <v>943</v>
       </c>
       <c r="N18" s="85"/>
       <c r="O18" s="85" t="s">
         <v>256</v>
       </c>
       <c r="P18" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="R18" s="85" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
       <c r="S18" s="96"/>
       <c r="V18" s="104"/>
@@ -7688,43 +7702,43 @@
     <row r="20" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="56"/>
       <c r="D20" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E20" s="84"/>
       <c r="F20" s="84" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="G20" s="84" t="s">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="H20" s="84" t="s">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="J20" s="84"/>
       <c r="K20" s="84" t="s">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="L20" s="84" t="s">
-        <v>848</v>
+        <v>814</v>
       </c>
       <c r="M20" s="84" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="N20" s="84" t="s">
-        <v>1119</v>
+        <v>1058</v>
       </c>
       <c r="O20" s="84"/>
       <c r="P20" s="84" t="s">
         <v>255</v>
       </c>
       <c r="Q20" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="R20" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="S20" s="93"/>
       <c r="V20" s="104"/>
@@ -7735,37 +7749,37 @@
         <v>5</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>193</v>
       </c>
       <c r="F21" s="98" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>1094</v>
+        <v>1033</v>
       </c>
       <c r="H21" s="80" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J21" s="80" t="s">
         <v>186</v>
       </c>
       <c r="K21" s="80" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L21" s="80" t="s">
-        <v>1095</v>
+        <v>1034</v>
       </c>
       <c r="M21" s="98" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N21" s="98" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="O21" s="80" t="s">
         <v>186</v>
@@ -7774,7 +7788,7 @@
         <v>224</v>
       </c>
       <c r="Q21" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R21" s="98" t="s">
         <v>189</v>
@@ -7785,43 +7799,43 @@
     <row r="22" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="58"/>
       <c r="D22" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E22" s="85"/>
       <c r="F22" s="85" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="G22" s="85" t="s">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="H22" s="85" t="s">
-        <v>846</v>
+        <v>812</v>
       </c>
       <c r="I22" s="85" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="J22" s="85"/>
       <c r="K22" s="85" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="L22" s="85" t="s">
-        <v>998</v>
+        <v>944</v>
       </c>
       <c r="M22" s="85" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="N22" s="85" t="s">
-        <v>1120</v>
+        <v>1059</v>
       </c>
       <c r="O22" s="85"/>
       <c r="P22" s="85" t="s">
         <v>256</v>
       </c>
       <c r="Q22" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R22" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="S22" s="96"/>
       <c r="V22" s="105"/>
@@ -7849,43 +7863,43 @@
     <row r="24" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="56"/>
       <c r="D24" s="84" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="E24" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F24" s="84"/>
       <c r="G24" s="84" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="H24" s="84" t="s">
-        <v>850</v>
+        <v>816</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="J24" s="84" t="s">
-        <v>1121</v>
+        <v>1060</v>
       </c>
       <c r="K24" s="84"/>
       <c r="L24" s="84" t="s">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="M24" s="84" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="N24" s="84" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="O24" s="84" t="s">
-        <v>283</v>
+        <v>1108</v>
       </c>
       <c r="P24" s="84"/>
       <c r="Q24" s="84" t="s">
         <v>255</v>
       </c>
       <c r="R24" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="S24" s="93"/>
       <c r="V24" s="60"/>
@@ -7899,37 +7913,37 @@
         <v>208</v>
       </c>
       <c r="E25" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F25" s="80" t="s">
         <v>193</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="I25" s="98" t="s">
-        <v>1096</v>
+        <v>1035</v>
       </c>
       <c r="J25" s="98" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K25" s="80" t="s">
         <v>186</v>
       </c>
       <c r="L25" s="80" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M25" s="98" t="s">
         <v>237</v>
       </c>
       <c r="N25" s="80" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O25" s="80" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P25" s="80" t="s">
         <v>186</v>
@@ -7938,7 +7952,7 @@
         <v>224</v>
       </c>
       <c r="R25" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="S25" s="94"/>
       <c r="V25" s="60"/>
@@ -7946,43 +7960,43 @@
     <row r="26" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="58"/>
       <c r="D26" s="85" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="E26" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F26" s="85"/>
       <c r="G26" s="85" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="H26" s="85" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="I26" s="85" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="J26" s="85" t="s">
-        <v>1122</v>
+        <v>1061</v>
       </c>
       <c r="K26" s="85"/>
       <c r="L26" s="85" t="s">
-        <v>999</v>
+        <v>945</v>
       </c>
       <c r="M26" s="85" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="N26" s="85" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="O26" s="85" t="s">
-        <v>284</v>
+        <v>1109</v>
       </c>
       <c r="P26" s="85"/>
       <c r="Q26" s="85" t="s">
         <v>256</v>
       </c>
       <c r="R26" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="S26" s="96"/>
       <c r="U26" s="1" t="str">
@@ -8018,39 +8032,39 @@
     <row r="28" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="56"/>
       <c r="D28" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="E28" s="84" t="s">
-        <v>261</v>
+        <v>1098</v>
       </c>
       <c r="F28" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="G28" s="84"/>
       <c r="H28" s="84" t="s">
-        <v>1123</v>
+        <v>1062</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="J28" s="84" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="K28" s="84" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="L28" s="84"/>
       <c r="M28" s="84" t="s">
-        <v>852</v>
+        <v>818</v>
       </c>
       <c r="N28" s="84" t="s">
-        <v>1036</v>
+        <v>977</v>
       </c>
       <c r="O28" s="84" t="s">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="P28" s="84" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="Q28" s="84"/>
       <c r="R28" s="84" t="s">
@@ -8075,37 +8089,37 @@
         <v>236</v>
       </c>
       <c r="F29" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G29" s="80" t="s">
         <v>193</v>
       </c>
       <c r="H29" s="98" t="s">
-        <v>1097</v>
+        <v>1036</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J29" s="80" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K29" s="80" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L29" s="80" t="s">
         <v>186</v>
       </c>
       <c r="M29" s="80" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N29" s="80" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="O29" s="80" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P29" s="98" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="Q29" s="80" t="s">
         <v>186</v>
@@ -8123,39 +8137,39 @@
     <row r="30" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="58"/>
       <c r="D30" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="E30" s="85" t="s">
-        <v>262</v>
+        <v>1099</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G30" s="85"/>
       <c r="H30" s="85" t="s">
-        <v>1124</v>
+        <v>1063</v>
       </c>
       <c r="I30" s="85" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="J30" s="85" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="K30" s="85" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="L30" s="85"/>
       <c r="M30" s="85" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="N30" s="85" t="s">
-        <v>1037</v>
+        <v>978</v>
       </c>
       <c r="O30" s="85" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="P30" s="85" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="Q30" s="85"/>
       <c r="R30" s="85" t="s">
@@ -8195,42 +8209,42 @@
     <row r="32" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="56"/>
       <c r="D32" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="F32" s="84" t="s">
-        <v>1125</v>
+        <v>1064</v>
       </c>
       <c r="G32" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H32" s="84"/>
       <c r="I32" s="84" t="s">
-        <v>1127</v>
+        <v>1066</v>
       </c>
       <c r="J32" s="84" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="K32" s="84" t="s">
-        <v>1038</v>
+        <v>979</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>1129</v>
+        <v>1068</v>
       </c>
       <c r="M32" s="84"/>
       <c r="N32" s="84" t="s">
-        <v>1131</v>
+        <v>1070</v>
       </c>
       <c r="O32" s="84" t="s">
-        <v>1131</v>
+        <v>1070</v>
       </c>
       <c r="P32" s="84" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q32" s="84" t="s">
-        <v>1133</v>
+        <v>1072</v>
       </c>
       <c r="R32" s="84"/>
       <c r="S32" s="93"/>
@@ -8246,43 +8260,43 @@
         <v>8</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E33" s="80" t="s">
         <v>189</v>
       </c>
       <c r="F33" s="80" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>193</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>1098</v>
+        <v>1037</v>
       </c>
       <c r="J33" s="80" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K33" s="98" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L33" s="98" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M33" s="80" t="s">
         <v>186</v>
       </c>
       <c r="N33" s="98" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="O33" s="80" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P33" s="98" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q33" s="80" t="s">
         <v>188</v>
@@ -8296,42 +8310,42 @@
     <row r="34" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="58"/>
       <c r="D34" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E34" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>1126</v>
+        <v>1065</v>
       </c>
       <c r="G34" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H34" s="85"/>
       <c r="I34" s="85" t="s">
-        <v>1128</v>
+        <v>1067</v>
       </c>
       <c r="J34" s="85" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="K34" s="85" t="s">
-        <v>1039</v>
+        <v>980</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>1130</v>
+        <v>1069</v>
       </c>
       <c r="M34" s="85"/>
       <c r="N34" s="85" t="s">
-        <v>1132</v>
+        <v>1071</v>
       </c>
       <c r="O34" s="85" t="s">
-        <v>1132</v>
+        <v>1071</v>
       </c>
       <c r="P34" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q34" s="85" t="s">
-        <v>1134</v>
+        <v>1073</v>
       </c>
       <c r="R34" s="85"/>
       <c r="S34" s="96"/>
@@ -8363,42 +8377,42 @@
         <v>255</v>
       </c>
       <c r="E36" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="F36" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="G36" s="84" t="s">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="H36" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="84" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="K36" s="84" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="L36" s="84" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="M36" s="84" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="N36" s="84"/>
       <c r="O36" s="84" t="s">
-        <v>1044</v>
+        <v>985</v>
       </c>
       <c r="P36" s="84" t="s">
-        <v>1135</v>
+        <v>1074</v>
       </c>
       <c r="Q36" s="84" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="R36" s="84" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="S36" s="93"/>
       <c r="V36" s="60"/>
@@ -8412,46 +8426,46 @@
         <v>224</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F37" s="80" t="s">
         <v>189</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I37" s="80" t="s">
         <v>193</v>
       </c>
       <c r="J37" s="80" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K37" s="80" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L37" s="80" t="s">
         <v>197</v>
       </c>
       <c r="M37" s="80" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N37" s="80" t="s">
         <v>186</v>
       </c>
       <c r="O37" s="98" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P37" s="98" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q37" s="80" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="R37" s="98" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="S37" s="94"/>
       <c r="V37" s="60"/>
@@ -8462,42 +8476,42 @@
         <v>256</v>
       </c>
       <c r="E38" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G38" s="85" t="s">
-        <v>858</v>
+        <v>824</v>
       </c>
       <c r="H38" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I38" s="85"/>
       <c r="J38" s="85" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="K38" s="85" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="L38" s="85" t="s">
         <v>250</v>
       </c>
       <c r="M38" s="85" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="N38" s="85"/>
       <c r="O38" s="85" t="s">
-        <v>1045</v>
+        <v>986</v>
       </c>
       <c r="P38" s="85" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="Q38" s="85" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="R38" s="85" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="S38" s="96"/>
       <c r="V38" s="60"/>
@@ -8529,36 +8543,36 @@
         <v>255</v>
       </c>
       <c r="F40" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="G40" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="H40" s="84" t="s">
-        <v>1133</v>
+        <v>1072</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="J40" s="84"/>
       <c r="K40" s="84" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="L40" s="84" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="M40" s="84" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="N40" s="84"/>
       <c r="O40" s="84" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="P40" s="84" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="Q40" s="84" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="R40" s="84"/>
       <c r="S40" s="93"/>
@@ -8576,7 +8590,7 @@
         <v>224</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>189</v>
@@ -8585,31 +8599,31 @@
         <v>188</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J41" s="80" t="s">
         <v>193</v>
       </c>
       <c r="K41" s="98" t="s">
-        <v>1099</v>
+        <v>1038</v>
       </c>
       <c r="L41" s="80" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M41" s="80" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="N41" s="80" t="s">
         <v>211</v>
       </c>
       <c r="O41" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="P41" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q41" s="80" t="s">
         <v>350</v>
-      </c>
-      <c r="P41" s="80" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q41" s="80" t="s">
-        <v>354</v>
       </c>
       <c r="R41" s="80" t="s">
         <v>211</v>
@@ -8624,36 +8638,36 @@
         <v>256</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G42" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="H42" s="85" t="s">
-        <v>1134</v>
+        <v>1073</v>
       </c>
       <c r="I42" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J42" s="85"/>
       <c r="K42" s="85" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="L42" s="85" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="M42" s="85" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="N42" s="85"/>
       <c r="O42" s="85" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="P42" s="85" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="Q42" s="85" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="R42" s="85"/>
       <c r="S42" s="96"/>
@@ -8682,42 +8696,42 @@
     <row r="44" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="56"/>
       <c r="D44" s="84" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F44" s="84" t="s">
-        <v>1136</v>
+        <v>1075</v>
       </c>
       <c r="G44" s="84"/>
       <c r="H44" s="84" t="s">
-        <v>1040</v>
+        <v>981</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="J44" s="84" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="K44" s="84" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="L44" s="84"/>
       <c r="M44" s="84" t="s">
         <v>255</v>
       </c>
       <c r="N44" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="O44" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="P44" s="84" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="Q44" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="R44" s="84"/>
       <c r="S44" s="93"/>
@@ -8729,22 +8743,22 @@
         <v>11</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E45" s="80" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F45" s="98" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G45" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H45" s="98" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J45" s="80" t="s">
         <v>197</v>
@@ -8759,16 +8773,16 @@
         <v>224</v>
       </c>
       <c r="N45" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O45" s="80" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="80" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="Q45" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="R45" s="80" t="s">
         <v>198</v>
@@ -8779,42 +8793,42 @@
     <row r="46" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="58"/>
       <c r="D46" s="85" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G46" s="85"/>
       <c r="H46" s="85" t="s">
-        <v>1041</v>
+        <v>982</v>
       </c>
       <c r="I46" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J46" s="85" t="s">
         <v>250</v>
       </c>
       <c r="K46" s="85" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L46" s="85"/>
       <c r="M46" s="85" t="s">
         <v>256</v>
       </c>
       <c r="N46" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O46" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="P46" s="85" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="Q46" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="R46" s="85"/>
       <c r="S46" s="96"/>
@@ -8833,56 +8847,56 @@
       <c r="K47" s="83"/>
       <c r="L47" s="83"/>
       <c r="M47" s="83" t="s">
-        <v>1100</v>
+        <v>1039</v>
       </c>
       <c r="N47" s="83"/>
       <c r="O47" s="83"/>
       <c r="P47" s="83"/>
       <c r="Q47" s="83"/>
       <c r="R47" s="83" t="s">
-        <v>1101</v>
+        <v>1040</v>
       </c>
       <c r="V47" s="68"/>
     </row>
     <row r="48" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="56"/>
       <c r="D48" s="84" t="s">
-        <v>1137</v>
+        <v>1076</v>
       </c>
       <c r="E48" s="84" t="s">
-        <v>272</v>
+        <v>657</v>
       </c>
       <c r="F48" s="84" t="s">
-        <v>1042</v>
+        <v>983</v>
       </c>
       <c r="G48" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="H48" s="84"/>
       <c r="I48" s="84" t="s">
-        <v>1032</v>
+        <v>973</v>
       </c>
       <c r="J48" s="84" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="K48" s="84" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="L48" s="84" t="s">
-        <v>1044</v>
+        <v>985</v>
       </c>
       <c r="M48" s="84" t="s">
-        <v>1139</v>
+        <v>1039</v>
       </c>
       <c r="N48" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="O48" s="84" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="P48" s="84"/>
       <c r="Q48" s="84" t="s">
-        <v>1113</v>
+        <v>1052</v>
       </c>
       <c r="R48" s="84" t="s">
         <v>259</v>
@@ -8896,7 +8910,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="98" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E49" s="80" t="s">
         <v>231</v>
@@ -8905,13 +8919,13 @@
         <v>194</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H49" s="80" t="s">
         <v>186</v>
       </c>
       <c r="I49" s="80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J49" s="80" t="s">
         <v>191</v>
@@ -8920,25 +8934,25 @@
         <v>242</v>
       </c>
       <c r="L49" s="80" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M49" s="98" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="N49" s="80" t="s">
         <v>189</v>
       </c>
       <c r="O49" s="80" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P49" s="80" t="s">
         <v>198</v>
       </c>
       <c r="Q49" s="80" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="R49" s="98" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="S49" s="94"/>
       <c r="V49" s="60"/>
@@ -8946,42 +8960,42 @@
     <row r="50" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="58"/>
       <c r="D50" s="85" t="s">
-        <v>1138</v>
+        <v>1077</v>
       </c>
       <c r="E50" s="85" t="s">
-        <v>273</v>
+        <v>658</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>1043</v>
+        <v>984</v>
       </c>
       <c r="G50" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="H50" s="85"/>
       <c r="I50" s="85" t="s">
-        <v>1033</v>
+        <v>974</v>
       </c>
       <c r="J50" s="85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K50" s="85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L50" s="85" t="s">
-        <v>1045</v>
+        <v>986</v>
       </c>
       <c r="M50" s="85" t="s">
-        <v>1140</v>
+        <v>1078</v>
       </c>
       <c r="N50" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="O50" s="85" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="P50" s="85"/>
       <c r="Q50" s="85" t="s">
-        <v>1114</v>
+        <v>1053</v>
       </c>
       <c r="R50" s="85" t="s">
         <v>260</v>
@@ -8999,10 +9013,10 @@
       <c r="H51" s="83"/>
       <c r="I51" s="83"/>
       <c r="J51" s="83" t="s">
-        <v>1102</v>
+        <v>1041</v>
       </c>
       <c r="K51" s="83" t="s">
-        <v>1103</v>
+        <v>1042</v>
       </c>
       <c r="L51" s="83"/>
       <c r="M51" s="83"/>
@@ -9016,42 +9030,42 @@
     <row r="52" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="56"/>
       <c r="D52" s="84" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="E52" s="84" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="F52" s="84" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="G52" s="84"/>
       <c r="H52" s="84" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="I52" s="84" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
       <c r="J52" s="84" t="s">
         <v>251</v>
       </c>
       <c r="K52" s="84" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="L52" s="84"/>
       <c r="M52" s="84" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N52" s="84" t="s">
-        <v>804</v>
+        <v>780</v>
       </c>
       <c r="O52" s="84" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="P52" s="84" t="s">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="Q52" s="84" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="R52" s="84"/>
       <c r="S52" s="93"/>
@@ -9063,22 +9077,22 @@
         <v>13</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E53" s="80" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F53" s="80" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G53" s="80" t="s">
         <v>186</v>
       </c>
       <c r="H53" s="80" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I53" s="80" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J53" s="80" t="s">
         <v>199</v>
@@ -9090,19 +9104,19 @@
         <v>186</v>
       </c>
       <c r="M53" s="98" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="N53" s="98" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="O53" s="80" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="P53" s="80" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q53" s="98" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R53" s="80" t="s">
         <v>186</v>
@@ -9113,42 +9127,42 @@
     <row r="54" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="58"/>
       <c r="D54" s="85" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="E54" s="85" t="s">
-        <v>1002</v>
+        <v>948</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G54" s="85"/>
       <c r="H54" s="85" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="I54" s="85" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="J54" s="85" t="s">
         <v>252</v>
       </c>
       <c r="K54" s="85" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="L54" s="85"/>
       <c r="M54" s="85" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N54" s="85" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
       <c r="O54" s="85" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="P54" s="85" t="s">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="Q54" s="85" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="R54" s="85"/>
       <c r="S54" s="96"/>
@@ -9177,45 +9191,45 @@
     <row r="56" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="56"/>
       <c r="D56" s="84" t="s">
-        <v>875</v>
+        <v>840</v>
       </c>
       <c r="E56" s="84" t="s">
-        <v>1113</v>
+        <v>1052</v>
       </c>
       <c r="F56" s="84" t="s">
-        <v>1050</v>
+        <v>989</v>
       </c>
       <c r="G56" s="84" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
       <c r="H56" s="84"/>
       <c r="I56" s="84" t="s">
-        <v>272</v>
+        <v>657</v>
       </c>
       <c r="J56" s="84" t="s">
-        <v>879</v>
+        <v>844</v>
       </c>
       <c r="K56" s="84" t="s">
-        <v>1052</v>
+        <v>991</v>
       </c>
       <c r="L56" s="84" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="M56" s="84" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="N56" s="84" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="O56" s="84" t="s">
-        <v>882</v>
+        <v>847</v>
       </c>
       <c r="P56" s="84"/>
       <c r="Q56" s="84" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="R56" s="84" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="S56" s="93"/>
       <c r="V56" s="60"/>
@@ -9226,16 +9240,16 @@
         <v>14</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E57" s="98" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F57" s="80" t="s">
         <v>196</v>
       </c>
       <c r="G57" s="100" t="s">
-        <v>1104</v>
+        <v>1043</v>
       </c>
       <c r="H57" s="80" t="s">
         <v>186</v>
@@ -9244,22 +9258,22 @@
         <v>231</v>
       </c>
       <c r="J57" s="80" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K57" s="80" t="s">
         <v>204</v>
       </c>
       <c r="L57" s="80" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M57" s="80" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N57" s="80" t="s">
         <v>207</v>
       </c>
       <c r="O57" s="80" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="P57" s="80" t="s">
         <v>198</v>
@@ -9268,7 +9282,7 @@
         <v>207</v>
       </c>
       <c r="R57" s="80" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="S57" s="94"/>
       <c r="V57" s="60"/>
@@ -9276,45 +9290,45 @@
     <row r="58" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="58"/>
       <c r="D58" s="85" t="s">
-        <v>876</v>
+        <v>841</v>
       </c>
       <c r="E58" s="85" t="s">
-        <v>1114</v>
+        <v>1053</v>
       </c>
       <c r="F58" s="85" t="s">
-        <v>1051</v>
+        <v>990</v>
       </c>
       <c r="G58" s="85" t="s">
-        <v>878</v>
+        <v>843</v>
       </c>
       <c r="H58" s="85"/>
       <c r="I58" s="85" t="s">
-        <v>273</v>
+        <v>658</v>
       </c>
       <c r="J58" s="85" t="s">
-        <v>1003</v>
+        <v>949</v>
       </c>
       <c r="K58" s="85" t="s">
-        <v>1053</v>
+        <v>992</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="M58" s="85" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="N58" s="85" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="O58" s="85" t="s">
-        <v>883</v>
+        <v>848</v>
       </c>
       <c r="P58" s="85"/>
       <c r="Q58" s="85" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="R58" s="85" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="S58" s="96"/>
       <c r="V58" s="60"/>
@@ -9342,43 +9356,43 @@
     <row r="60" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="56"/>
       <c r="D60" s="84" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="E60" s="84" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="F60" s="84" t="s">
-        <v>884</v>
+        <v>849</v>
       </c>
       <c r="G60" s="84" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="H60" s="84" t="s">
         <v>257</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="J60" s="84"/>
       <c r="K60" s="84" t="s">
-        <v>887</v>
+        <v>852</v>
       </c>
       <c r="L60" s="84" t="s">
-        <v>889</v>
+        <v>854</v>
       </c>
       <c r="M60" s="84" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="N60" s="84"/>
       <c r="O60" s="84"/>
       <c r="P60" s="84" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="Q60" s="84" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="R60" s="84" t="s">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="S60" s="93"/>
       <c r="V60" s="60"/>
@@ -9389,34 +9403,34 @@
         <v>15</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E61" s="80" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F61" s="80" t="s">
         <v>218</v>
       </c>
       <c r="G61" s="100" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H61" s="80" t="s">
         <v>232</v>
       </c>
       <c r="I61" s="80" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J61" s="80" t="s">
         <v>233</v>
       </c>
       <c r="K61" s="80" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L61" s="98" t="s">
         <v>225</v>
       </c>
       <c r="M61" s="80" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="N61" s="80" t="s">
         <v>221</v>
@@ -9425,13 +9439,13 @@
         <v>222</v>
       </c>
       <c r="P61" s="80" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q61" s="98" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R61" s="98" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="S61" s="94"/>
       <c r="V61" s="60"/>
@@ -9439,43 +9453,43 @@
     <row r="62" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="58"/>
       <c r="D62" s="85" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="E62" s="85" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F62" s="85" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="G62" s="85" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="H62" s="85" t="s">
         <v>258</v>
       </c>
       <c r="I62" s="85" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="J62" s="85"/>
       <c r="K62" s="85" t="s">
-        <v>888</v>
+        <v>853</v>
       </c>
       <c r="L62" s="85" t="s">
-        <v>890</v>
+        <v>855</v>
       </c>
       <c r="M62" s="85" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="N62" s="85"/>
       <c r="O62" s="85"/>
       <c r="P62" s="85" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="Q62" s="85" t="s">
-        <v>894</v>
+        <v>859</v>
       </c>
       <c r="R62" s="85" t="s">
-        <v>881</v>
+        <v>846</v>
       </c>
       <c r="S62" s="96"/>
       <c r="V62" s="60"/>
@@ -9503,43 +9517,43 @@
     <row r="64" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="56"/>
       <c r="D64" s="84" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="E64" s="84" t="s">
-        <v>1141</v>
+        <v>1079</v>
       </c>
       <c r="F64" s="84" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="G64" s="84" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="H64" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I64" s="84"/>
       <c r="J64" s="84"/>
       <c r="K64" s="84" t="s">
-        <v>1056</v>
+        <v>995</v>
       </c>
       <c r="L64" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="M64" s="84" t="s">
-        <v>1052</v>
+        <v>991</v>
       </c>
       <c r="N64" s="84" t="s">
-        <v>895</v>
+        <v>860</v>
       </c>
       <c r="O64" s="84"/>
       <c r="P64" s="84" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="Q64" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="R64" s="84" t="s">
-        <v>1052</v>
+        <v>991</v>
       </c>
       <c r="S64" s="93"/>
       <c r="V64" s="60"/>
@@ -9550,10 +9564,10 @@
         <v>16</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E65" s="98" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F65" s="98" t="s">
         <v>207</v>
@@ -9562,7 +9576,7 @@
         <v>191</v>
       </c>
       <c r="H65" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I65" s="80" t="s">
         <v>198</v>
@@ -9571,25 +9585,25 @@
         <v>230</v>
       </c>
       <c r="K65" s="80" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L65" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M65" s="80" t="s">
         <v>204</v>
       </c>
       <c r="N65" s="80" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O65" s="80" t="s">
         <v>186</v>
       </c>
       <c r="P65" s="80" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="Q65" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="R65" s="80" t="s">
         <v>204</v>
@@ -9600,43 +9614,43 @@
     <row r="66" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="58"/>
       <c r="D66" s="85" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="E66" s="85" t="s">
-        <v>1142</v>
+        <v>1080</v>
       </c>
       <c r="F66" s="85" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="G66" s="85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H66" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I66" s="85"/>
       <c r="J66" s="85"/>
       <c r="K66" s="85" t="s">
-        <v>1057</v>
+        <v>996</v>
       </c>
       <c r="L66" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="M66" s="85" t="s">
-        <v>1053</v>
+        <v>992</v>
       </c>
       <c r="N66" s="85" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="O66" s="85"/>
       <c r="P66" s="85" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="Q66" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="R66" s="85" t="s">
-        <v>1053</v>
+        <v>992</v>
       </c>
       <c r="S66" s="96"/>
       <c r="V66" s="60"/>
@@ -9664,43 +9678,43 @@
     <row r="68" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="56"/>
       <c r="D68" s="84" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="E68" s="84"/>
       <c r="F68" s="84" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="G68" s="84" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="H68" s="84" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>895</v>
+        <v>860</v>
       </c>
       <c r="J68" s="84"/>
       <c r="K68" s="84" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="L68" s="84" t="s">
         <v>257</v>
       </c>
       <c r="M68" s="84" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="N68" s="84" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O68" s="84"/>
       <c r="P68" s="84" t="s">
-        <v>896</v>
+        <v>861</v>
       </c>
       <c r="Q68" s="84" t="s">
-        <v>1141</v>
+        <v>1079</v>
       </c>
       <c r="R68" s="84" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="S68" s="93"/>
       <c r="V68" s="60"/>
@@ -9717,28 +9731,28 @@
         <v>186</v>
       </c>
       <c r="F69" s="80" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G69" s="81" t="s">
         <v>202</v>
       </c>
       <c r="H69" s="98" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I69" s="80" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J69" s="80" t="s">
         <v>186</v>
       </c>
       <c r="K69" s="80" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L69" s="80" t="s">
         <v>232</v>
       </c>
       <c r="M69" s="80" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="N69" s="80" t="s">
         <v>228</v>
@@ -9747,10 +9761,10 @@
         <v>235</v>
       </c>
       <c r="P69" s="80" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q69" s="80" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R69" s="80" t="s">
         <v>207</v>
@@ -9761,43 +9775,43 @@
     <row r="70" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="58"/>
       <c r="D70" s="85" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="E70" s="85"/>
       <c r="F70" s="85" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="G70" s="85" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="H70" s="85" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="I70" s="85" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="J70" s="85"/>
       <c r="K70" s="85" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="L70" s="85" t="s">
         <v>258</v>
       </c>
       <c r="M70" s="85" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="N70" s="85" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O70" s="85"/>
       <c r="P70" s="85" t="s">
-        <v>897</v>
+        <v>862</v>
       </c>
       <c r="Q70" s="85" t="s">
-        <v>1142</v>
+        <v>1080</v>
       </c>
       <c r="R70" s="85" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="S70" s="96"/>
       <c r="V70" s="60"/>
@@ -9825,45 +9839,45 @@
     <row r="72" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="56"/>
       <c r="D72" s="84" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="E72" s="84"/>
       <c r="F72" s="84" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="G72" s="84" t="s">
-        <v>1058</v>
+        <v>997</v>
       </c>
       <c r="H72" s="84" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="J72" s="84" t="s">
-        <v>1060</v>
+        <v>999</v>
       </c>
       <c r="K72" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="L72" s="84" t="s">
-        <v>900</v>
+        <v>865</v>
       </c>
       <c r="M72" s="84"/>
       <c r="N72" s="84" t="s">
-        <v>1062</v>
+        <v>1001</v>
       </c>
       <c r="O72" s="84" t="s">
-        <v>1060</v>
+        <v>999</v>
       </c>
       <c r="P72" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="Q72" s="84" t="s">
-        <v>902</v>
+        <v>867</v>
       </c>
       <c r="R72" s="84" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="S72" s="93"/>
       <c r="V72" s="60"/>
@@ -9883,7 +9897,7 @@
         <v>217</v>
       </c>
       <c r="G73" s="80" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H73" s="80" t="s">
         <v>209</v>
@@ -9892,10 +9906,10 @@
         <v>191</v>
       </c>
       <c r="J73" s="98" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K73" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L73" s="80" t="s">
         <v>238</v>
@@ -9907,13 +9921,13 @@
         <v>213</v>
       </c>
       <c r="O73" s="98" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="P73" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q73" s="80" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="R73" s="80" t="s">
         <v>202</v>
@@ -9924,45 +9938,45 @@
     <row r="74" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="58"/>
       <c r="D74" s="85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E74" s="85"/>
       <c r="F74" s="85" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="G74" s="85" t="s">
-        <v>1059</v>
+        <v>998</v>
       </c>
       <c r="H74" s="85" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="I74" s="85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J74" s="85" t="s">
-        <v>1061</v>
+        <v>1000</v>
       </c>
       <c r="K74" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="L74" s="85" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="M74" s="85"/>
       <c r="N74" s="85" t="s">
-        <v>1063</v>
+        <v>1002</v>
       </c>
       <c r="O74" s="85" t="s">
-        <v>1061</v>
+        <v>1000</v>
       </c>
       <c r="P74" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q74" s="85" t="s">
-        <v>1004</v>
+        <v>950</v>
       </c>
       <c r="R74" s="85" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="S74" s="96"/>
       <c r="V74" s="60"/>
@@ -9990,7 +10004,7 @@
     <row r="76" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="56"/>
       <c r="D76" s="84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E76" s="84"/>
       <c r="F76" s="84"/>
@@ -10015,7 +10029,7 @@
         <v>19</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E77" s="80" t="s">
         <v>198</v>
@@ -10039,7 +10053,7 @@
     <row r="78" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="58"/>
       <c r="D78" s="85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E78" s="85"/>
       <c r="F78" s="85"/>
@@ -10164,45 +10178,45 @@
     <row r="84" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="56"/>
       <c r="D84" s="84" t="s">
-        <v>1058</v>
+        <v>997</v>
       </c>
       <c r="E84" s="84" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="F84" s="84" t="s">
-        <v>1052</v>
+        <v>991</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>1060</v>
+        <v>999</v>
       </c>
       <c r="H84" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="I84" s="84"/>
       <c r="J84" s="84" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="K84" s="84" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="L84" s="84" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="M84" s="84" t="s">
-        <v>1064</v>
+        <v>1003</v>
       </c>
       <c r="N84" s="84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O84" s="84"/>
       <c r="P84" s="84" t="s">
-        <v>1030</v>
+        <v>971</v>
       </c>
       <c r="Q84" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="R84" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="S84" s="93"/>
       <c r="V84" s="60"/>
@@ -10213,7 +10227,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E85" s="80" t="s">
         <v>209</v>
@@ -10222,10 +10236,10 @@
         <v>204</v>
       </c>
       <c r="G85" s="100" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H85" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I85" s="80" t="s">
         <v>186</v>
@@ -10237,22 +10251,22 @@
         <v>207</v>
       </c>
       <c r="L85" s="80" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M85" s="80" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N85" s="80" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="O85" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P85" s="80" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q85" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="R85" s="80" t="s">
         <v>189</v>
@@ -10263,45 +10277,45 @@
     <row r="86" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="58"/>
       <c r="D86" s="85" t="s">
-        <v>1059</v>
+        <v>998</v>
       </c>
       <c r="E86" s="85" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="F86" s="85" t="s">
-        <v>1053</v>
+        <v>992</v>
       </c>
       <c r="G86" s="85" t="s">
-        <v>1061</v>
+        <v>1000</v>
       </c>
       <c r="H86" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="I86" s="85"/>
       <c r="J86" s="85" t="s">
         <v>250</v>
       </c>
       <c r="K86" s="85" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="L86" s="85" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="M86" s="85" t="s">
-        <v>1065</v>
+        <v>1004</v>
       </c>
       <c r="N86" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O86" s="85"/>
       <c r="P86" s="85" t="s">
-        <v>1031</v>
+        <v>972</v>
       </c>
       <c r="Q86" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="R86" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="S86" s="96"/>
       <c r="V86" s="60"/>
@@ -10332,23 +10346,23 @@
         <v>257</v>
       </c>
       <c r="E88" s="84" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="F88" s="84"/>
       <c r="G88" s="84" t="s">
-        <v>903</v>
+        <v>868</v>
       </c>
       <c r="H88" s="84" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="I88" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="J88" s="84" t="s">
-        <v>261</v>
+        <v>1098</v>
       </c>
       <c r="K88" s="84" t="s">
-        <v>673</v>
+        <v>826</v>
       </c>
       <c r="L88" s="84"/>
       <c r="M88" s="84"/>
@@ -10366,19 +10380,19 @@
         <v>22</v>
       </c>
       <c r="D89" s="80" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E89" s="80" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F89" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G89" s="80" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H89" s="80" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I89" s="80" t="s">
         <v>189</v>
@@ -10387,7 +10401,7 @@
         <v>236</v>
       </c>
       <c r="K89" s="98" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L89" s="80" t="s">
         <v>198</v>
@@ -10407,23 +10421,23 @@
         <v>258</v>
       </c>
       <c r="E90" s="85" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F90" s="85"/>
       <c r="G90" s="85" t="s">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="H90" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I90" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="J90" s="85" t="s">
-        <v>262</v>
+        <v>1099</v>
       </c>
       <c r="K90" s="85" t="s">
-        <v>674</v>
+        <v>946</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -10461,32 +10475,32 @@
         <v>259</v>
       </c>
       <c r="E92" s="84" t="s">
-        <v>1133</v>
+        <v>1072</v>
       </c>
       <c r="F92" s="84" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G92" s="84" t="s">
-        <v>1141</v>
+        <v>1079</v>
       </c>
       <c r="H92" s="84" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="I92" s="84"/>
       <c r="J92" s="84" t="s">
-        <v>806</v>
+        <v>1110</v>
       </c>
       <c r="K92" s="84" t="s">
-        <v>636</v>
+        <v>1112</v>
       </c>
       <c r="L92" s="84" t="s">
-        <v>283</v>
+        <v>1108</v>
       </c>
       <c r="M92" s="84" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="N92" s="84" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="O92" s="84"/>
       <c r="P92" s="84" t="s">
@@ -10496,7 +10510,7 @@
         <v>246</v>
       </c>
       <c r="R92" s="84" t="s">
-        <v>1032</v>
+        <v>973</v>
       </c>
       <c r="S92" s="93"/>
       <c r="V92" s="60"/>
@@ -10507,16 +10521,16 @@
         <v>23</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E93" s="80" t="s">
         <v>188</v>
       </c>
       <c r="F93" s="80" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G93" s="80" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H93" s="80" t="s">
         <v>207</v>
@@ -10525,31 +10539,31 @@
         <v>186</v>
       </c>
       <c r="J93" s="98" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K93" s="98" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L93" s="98" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M93" s="80" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="N93" s="80" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="O93" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P93" s="80" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q93" s="80" t="s">
         <v>190</v>
       </c>
       <c r="R93" s="80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="S93" s="94"/>
       <c r="V93" s="60"/>
@@ -10560,32 +10574,32 @@
         <v>260</v>
       </c>
       <c r="E94" s="85" t="s">
-        <v>1134</v>
+        <v>1073</v>
       </c>
       <c r="F94" s="85" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G94" s="85" t="s">
-        <v>1142</v>
+        <v>1080</v>
       </c>
       <c r="H94" s="85" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="I94" s="85"/>
       <c r="J94" s="85" t="s">
-        <v>807</v>
+        <v>1111</v>
       </c>
       <c r="K94" s="85" t="s">
-        <v>637</v>
+        <v>1113</v>
       </c>
       <c r="L94" s="85" t="s">
-        <v>284</v>
+        <v>1109</v>
       </c>
       <c r="M94" s="85" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="N94" s="85" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="O94" s="85"/>
       <c r="P94" s="85" t="s">
@@ -10595,7 +10609,7 @@
         <v>247</v>
       </c>
       <c r="R94" s="85" t="s">
-        <v>1033</v>
+        <v>974</v>
       </c>
       <c r="S94" s="96"/>
       <c r="V94" s="60"/>
@@ -10623,26 +10637,26 @@
     <row r="96" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B96" s="56"/>
       <c r="D96" s="84" t="s">
-        <v>1044</v>
+        <v>985</v>
       </c>
       <c r="E96" s="84" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="F96" s="84"/>
       <c r="G96" s="84" t="s">
-        <v>1066</v>
+        <v>1005</v>
       </c>
       <c r="H96" s="84" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="I96" s="84" t="s">
         <v>253</v>
       </c>
       <c r="J96" s="84" t="s">
-        <v>1068</v>
+        <v>1007</v>
       </c>
       <c r="K96" s="84" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="L96" s="84"/>
       <c r="M96" s="84"/>
@@ -10660,28 +10674,28 @@
         <v>24</v>
       </c>
       <c r="D97" s="80" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E97" s="80" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F97" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G97" s="81" t="s">
-        <v>407</v>
-      </c>
-      <c r="H97" s="80" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="H97" s="98" t="s">
+        <v>404</v>
       </c>
       <c r="I97" s="80" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J97" s="80" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K97" s="80" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L97" s="80" t="s">
         <v>198</v>
@@ -10698,26 +10712,26 @@
     <row r="98" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B98" s="58"/>
       <c r="D98" s="85" t="s">
-        <v>1045</v>
+        <v>986</v>
       </c>
       <c r="E98" s="85" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F98" s="85"/>
       <c r="G98" s="85" t="s">
-        <v>1067</v>
+        <v>1006</v>
       </c>
       <c r="H98" s="85" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="I98" s="85" t="s">
         <v>254</v>
       </c>
       <c r="J98" s="85" t="s">
-        <v>1069</v>
+        <v>1008</v>
       </c>
       <c r="K98" s="85" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -10755,39 +10769,39 @@
         <v>255</v>
       </c>
       <c r="E100" s="84" t="s">
-        <v>1070</v>
+        <v>1009</v>
       </c>
       <c r="F100" s="84" t="s">
-        <v>1072</v>
+        <v>1011</v>
       </c>
       <c r="G100" s="84" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="H100" s="84" t="s">
-        <v>1074</v>
+        <v>1013</v>
       </c>
       <c r="I100" s="84"/>
       <c r="J100" s="84" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="K100" s="84" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="L100" s="84" t="s">
-        <v>1076</v>
+        <v>1015</v>
       </c>
       <c r="M100" s="84" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="N100" s="84" t="s">
-        <v>860</v>
+        <v>826</v>
       </c>
       <c r="O100" s="84"/>
       <c r="P100" s="84" t="s">
-        <v>905</v>
+        <v>270</v>
       </c>
       <c r="Q100" s="84" t="s">
-        <v>906</v>
+        <v>870</v>
       </c>
       <c r="R100" s="84" t="s">
         <v>244</v>
@@ -10804,16 +10818,16 @@
         <v>224</v>
       </c>
       <c r="E101" s="80" t="s">
-        <v>411</v>
-      </c>
-      <c r="F101" s="80" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+      <c r="F101" s="98" t="s">
+        <v>1100</v>
       </c>
       <c r="G101" s="80" t="s">
         <v>217</v>
       </c>
       <c r="H101" s="80" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I101" s="80" t="s">
         <v>186</v>
@@ -10828,19 +10842,19 @@
         <v>215</v>
       </c>
       <c r="M101" s="80" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="N101" s="80" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O101" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P101" s="80" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="Q101" s="80" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="R101" s="80" t="s">
         <v>184</v>
@@ -10854,39 +10868,39 @@
         <v>256</v>
       </c>
       <c r="E102" s="85" t="s">
-        <v>1071</v>
+        <v>1010</v>
       </c>
       <c r="F102" s="85" t="s">
-        <v>1073</v>
+        <v>1012</v>
       </c>
       <c r="G102" s="85" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="H102" s="85" t="s">
-        <v>1075</v>
+        <v>1014</v>
       </c>
       <c r="I102" s="85"/>
       <c r="J102" s="85" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="K102" s="85" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="L102" s="85" t="s">
-        <v>1077</v>
+        <v>1016</v>
       </c>
       <c r="M102" s="85" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="N102" s="85" t="s">
-        <v>1000</v>
+        <v>946</v>
       </c>
       <c r="O102" s="85"/>
       <c r="P102" s="85" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
       <c r="Q102" s="85" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="R102" s="85" t="s">
         <v>245</v>
@@ -10917,26 +10931,26 @@
     <row r="104" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="56"/>
       <c r="D104" s="84" t="s">
-        <v>907</v>
+        <v>871</v>
       </c>
       <c r="E104" s="84" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F104" s="84"/>
       <c r="G104" s="84" t="s">
-        <v>905</v>
+        <v>270</v>
       </c>
       <c r="H104" s="84" t="s">
-        <v>909</v>
+        <v>873</v>
       </c>
       <c r="I104" s="84" t="s">
-        <v>910</v>
+        <v>874</v>
       </c>
       <c r="J104" s="84" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="K104" s="84" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="L104" s="84"/>
       <c r="M104" s="84"/>
@@ -10954,28 +10968,28 @@
         <v>26</v>
       </c>
       <c r="D105" s="98" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E105" s="80" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F105" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G105" s="100" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H105" s="80" t="s">
         <v>183</v>
       </c>
       <c r="I105" s="80" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J105" s="80" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K105" s="80" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L105" s="80" t="s">
         <v>198</v>
@@ -10992,26 +11006,26 @@
     <row r="106" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="58"/>
       <c r="D106" s="85" t="s">
-        <v>908</v>
+        <v>872</v>
       </c>
       <c r="E106" s="85" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="F106" s="85"/>
       <c r="G106" s="85" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
       <c r="H106" s="85" t="s">
         <v>243</v>
       </c>
       <c r="I106" s="85" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="J106" s="85" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="K106" s="85" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -11046,45 +11060,45 @@
     <row r="108" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="56"/>
       <c r="D108" s="84" t="s">
-        <v>905</v>
+        <v>270</v>
       </c>
       <c r="E108" s="84" t="s">
-        <v>911</v>
+        <v>875</v>
       </c>
       <c r="F108" s="84" t="s">
-        <v>912</v>
+        <v>1114</v>
       </c>
       <c r="G108" s="84" t="s">
-        <v>913</v>
+        <v>876</v>
       </c>
       <c r="H108" s="84" t="s">
-        <v>915</v>
+        <v>878</v>
       </c>
       <c r="I108" s="84"/>
       <c r="J108" s="84" t="s">
-        <v>905</v>
+        <v>270</v>
       </c>
       <c r="K108" s="84" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="L108" s="84" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="M108" s="84" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="N108" s="84" t="s">
-        <v>1072</v>
+        <v>1011</v>
       </c>
       <c r="O108" s="84"/>
       <c r="P108" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="Q108" s="84" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="R108" s="84" t="s">
-        <v>1078</v>
+        <v>1017</v>
       </c>
       <c r="S108" s="93"/>
       <c r="V108" s="60"/>
@@ -11095,37 +11109,37 @@
         <v>27</v>
       </c>
       <c r="D109" s="80" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E109" s="80" t="s">
         <v>223</v>
       </c>
       <c r="F109" s="98" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G109" s="80" t="s">
         <v>210</v>
       </c>
       <c r="H109" s="80" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="I109" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J109" s="80" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K109" s="80" t="s">
         <v>234</v>
       </c>
       <c r="L109" s="80" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M109" s="80" t="s">
         <v>187</v>
       </c>
       <c r="N109" s="80" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="O109" s="80" t="s">
         <v>198</v>
@@ -11134,10 +11148,10 @@
         <v>189</v>
       </c>
       <c r="Q109" s="80" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="R109" s="80" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="S109" s="94"/>
       <c r="V109" s="60"/>
@@ -11145,45 +11159,45 @@
     <row r="110" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="58"/>
       <c r="D110" s="85" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
       <c r="E110" s="85" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>1005</v>
+        <v>1115</v>
       </c>
       <c r="G110" s="85" t="s">
-        <v>914</v>
+        <v>877</v>
       </c>
       <c r="H110" s="85" t="s">
-        <v>1006</v>
+        <v>951</v>
       </c>
       <c r="I110" s="85"/>
       <c r="J110" s="85" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
       <c r="K110" s="85" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="L110" s="85" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="M110" s="85" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="N110" s="85" t="s">
-        <v>1073</v>
+        <v>1012</v>
       </c>
       <c r="O110" s="85"/>
       <c r="P110" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="Q110" s="85" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="R110" s="85" t="s">
-        <v>1079</v>
+        <v>1018</v>
       </c>
       <c r="S110" s="96"/>
       <c r="V110" s="60"/>
@@ -11211,26 +11225,26 @@
     <row r="112" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="56"/>
       <c r="D112" s="84" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E112" s="84" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="F112" s="84"/>
       <c r="G112" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="H112" s="84" t="s">
-        <v>665</v>
+        <v>724</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>918</v>
+        <v>881</v>
       </c>
       <c r="J112" s="84" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="K112" s="84" t="s">
-        <v>669</v>
+        <v>1116</v>
       </c>
       <c r="L112" s="84"/>
       <c r="M112" s="84"/>
@@ -11248,10 +11262,10 @@
         <v>28</v>
       </c>
       <c r="D113" s="80" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E113" s="80" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F113" s="80" t="s">
         <v>186</v>
@@ -11260,16 +11274,16 @@
         <v>189</v>
       </c>
       <c r="H113" s="98" t="s">
-        <v>797</v>
-      </c>
-      <c r="I113" s="80" t="s">
-        <v>429</v>
+        <v>775</v>
+      </c>
+      <c r="I113" s="98" t="s">
+        <v>425</v>
       </c>
       <c r="J113" s="80" t="s">
         <v>185</v>
       </c>
       <c r="K113" s="98" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L113" s="80" t="s">
         <v>198</v>
@@ -11286,26 +11300,26 @@
     <row r="114" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="58"/>
       <c r="D114" s="85" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E114" s="85" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="F114" s="85"/>
       <c r="G114" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="H114" s="85" t="s">
-        <v>666</v>
+        <v>725</v>
       </c>
       <c r="I114" s="85" t="s">
-        <v>919</v>
+        <v>882</v>
       </c>
       <c r="J114" s="85" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="K114" s="85" t="s">
-        <v>670</v>
+        <v>1117</v>
       </c>
       <c r="L114" s="85"/>
       <c r="M114" s="85"/>
@@ -11340,45 +11354,45 @@
     <row r="116" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="56"/>
       <c r="D116" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="E116" s="84" t="s">
-        <v>912</v>
+        <v>1114</v>
       </c>
       <c r="F116" s="84" t="s">
-        <v>808</v>
+        <v>878</v>
       </c>
       <c r="G116" s="84" t="s">
-        <v>920</v>
+        <v>883</v>
       </c>
       <c r="H116" s="84" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="I116" s="84"/>
       <c r="J116" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="K116" s="84" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="L116" s="84" t="s">
-        <v>922</v>
+        <v>885</v>
       </c>
       <c r="M116" s="84" t="s">
-        <v>1080</v>
+        <v>1019</v>
       </c>
       <c r="N116" s="84" t="s">
-        <v>810</v>
+        <v>1118</v>
       </c>
       <c r="O116" s="84"/>
       <c r="P116" s="84" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="Q116" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="R116" s="84" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="S116" s="93"/>
       <c r="V116" s="60"/>
@@ -11392,16 +11406,16 @@
         <v>189</v>
       </c>
       <c r="E117" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="F117" s="98" t="s">
-        <v>431</v>
+        <v>419</v>
+      </c>
+      <c r="F117" s="81" t="s">
+        <v>1101</v>
       </c>
       <c r="G117" s="81" t="s">
         <v>240</v>
       </c>
       <c r="H117" s="80" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I117" s="80" t="s">
         <v>186</v>
@@ -11410,28 +11424,28 @@
         <v>189</v>
       </c>
       <c r="K117" s="80" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="L117" s="80" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M117" s="98" t="s">
         <v>203</v>
       </c>
       <c r="N117" s="98" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O117" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P117" s="98" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q117" s="80" t="s">
         <v>189</v>
       </c>
       <c r="R117" s="80" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="S117" s="94"/>
       <c r="V117" s="60"/>
@@ -11439,45 +11453,45 @@
     <row r="118" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="58"/>
       <c r="D118" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="E118" s="85" t="s">
-        <v>1005</v>
+        <v>1115</v>
       </c>
       <c r="F118" s="85" t="s">
-        <v>809</v>
+        <v>951</v>
       </c>
       <c r="G118" s="85" t="s">
-        <v>921</v>
+        <v>884</v>
       </c>
       <c r="H118" s="85" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="I118" s="85"/>
       <c r="J118" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="K118" s="85" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="L118" s="85" t="s">
-        <v>923</v>
+        <v>886</v>
       </c>
       <c r="M118" s="85" t="s">
-        <v>1081</v>
+        <v>1020</v>
       </c>
       <c r="N118" s="85" t="s">
-        <v>811</v>
+        <v>1119</v>
       </c>
       <c r="O118" s="85"/>
       <c r="P118" s="85" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="Q118" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="R118" s="85" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="S118" s="96"/>
       <c r="V118" s="60"/>
@@ -11505,26 +11519,26 @@
     <row r="120" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="56"/>
       <c r="D120" s="84" t="s">
-        <v>924</v>
+        <v>887</v>
       </c>
       <c r="E120" s="84" t="s">
-        <v>925</v>
+        <v>888</v>
       </c>
       <c r="F120" s="84"/>
       <c r="G120" s="84" t="s">
-        <v>1044</v>
+        <v>985</v>
       </c>
       <c r="H120" s="84" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="I120" s="84" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="J120" s="84" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="K120" s="84" t="s">
-        <v>1082</v>
+        <v>1021</v>
       </c>
       <c r="L120" s="84"/>
       <c r="M120" s="84"/>
@@ -11542,28 +11556,28 @@
         <v>30</v>
       </c>
       <c r="D121" s="80" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E121" s="80" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F121" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G121" s="81" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="H121" s="80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I121" s="80" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="J121" s="80" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K121" s="80" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L121" s="80" t="s">
         <v>198</v>
@@ -11580,26 +11594,26 @@
     <row r="122" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="58"/>
       <c r="D122" s="85" t="s">
-        <v>996</v>
+        <v>942</v>
       </c>
       <c r="E122" s="85" t="s">
-        <v>926</v>
+        <v>889</v>
       </c>
       <c r="F122" s="85"/>
       <c r="G122" s="85" t="s">
-        <v>1045</v>
+        <v>986</v>
       </c>
       <c r="H122" s="85" t="s">
-        <v>1001</v>
+        <v>947</v>
       </c>
       <c r="I122" s="85" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="J122" s="85" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="K122" s="85" t="s">
-        <v>1083</v>
+        <v>1022</v>
       </c>
       <c r="L122" s="85"/>
       <c r="M122" s="85"/>
@@ -11634,45 +11648,45 @@
     <row r="124" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="56"/>
       <c r="D124" s="84" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="E124" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="F124" s="84" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="G124" s="84" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="H124" s="84" t="s">
-        <v>680</v>
+        <v>1120</v>
       </c>
       <c r="I124" s="84"/>
       <c r="J124" s="84" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="K124" s="84" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="L124" s="84" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="M124" s="84" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="N124" s="84" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="O124" s="84"/>
       <c r="P124" s="84" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="Q124" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="R124" s="84" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="S124" s="93"/>
       <c r="V124" s="60"/>
@@ -11683,7 +11697,7 @@
         <v>31</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E125" s="80" t="s">
         <v>189</v>
@@ -11692,40 +11706,40 @@
         <v>227</v>
       </c>
       <c r="G125" s="81" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H125" s="98" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I125" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J125" s="80" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K125" s="80" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L125" s="80" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M125" s="80" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="N125" s="80" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O125" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P125" s="80" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q125" s="80" t="s">
         <v>189</v>
       </c>
       <c r="R125" s="80" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="S125" s="94"/>
       <c r="V125" s="60"/>
@@ -11733,45 +11747,45 @@
     <row r="126" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="58"/>
       <c r="D126" s="85" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="E126" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="F126" s="85" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G126" s="85" t="s">
-        <v>1007</v>
+        <v>952</v>
       </c>
       <c r="H126" s="85" t="s">
-        <v>681</v>
+        <v>1121</v>
       </c>
       <c r="I126" s="85"/>
       <c r="J126" s="85" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="K126" s="85" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="L126" s="85" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="M126" s="85" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="N126" s="85" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="O126" s="85"/>
       <c r="P126" s="85" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="Q126" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="R126" s="85" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="S126" s="96"/>
       <c r="V126" s="60"/>
@@ -11799,26 +11813,26 @@
     <row r="128" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B128" s="56"/>
       <c r="D128" s="84" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="E128" s="84" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="F128" s="84"/>
       <c r="G128" s="84" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="H128" s="84" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="I128" s="84" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="J128" s="84" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="K128" s="84" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="L128" s="84"/>
       <c r="M128" s="84"/>
@@ -11836,28 +11850,28 @@
         <v>32</v>
       </c>
       <c r="D129" s="80" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E129" s="80" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="F129" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G129" s="80" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H129" s="80" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="I129" s="80" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="J129" s="80" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="K129" s="80" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L129" s="80" t="s">
         <v>198</v>
@@ -11874,26 +11888,26 @@
     <row r="130" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B130" s="58"/>
       <c r="D130" s="85" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="E130" s="85" t="s">
-        <v>1008</v>
+        <v>953</v>
       </c>
       <c r="F130" s="85"/>
       <c r="G130" s="85" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="H130" s="85" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="I130" s="85" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="J130" s="85" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
       <c r="K130" s="85" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="L130" s="85"/>
       <c r="M130" s="85"/>
@@ -11928,45 +11942,45 @@
     <row r="132" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B132" s="56"/>
       <c r="D132" s="84" t="s">
-        <v>1054</v>
+        <v>993</v>
       </c>
       <c r="E132" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="F132" s="84" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="G132" s="84" t="s">
-        <v>933</v>
+        <v>1122</v>
       </c>
       <c r="H132" s="84" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="I132" s="84"/>
       <c r="J132" s="84" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="K132" s="84" t="s">
-        <v>935</v>
+        <v>896</v>
       </c>
       <c r="L132" s="84" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="M132" s="84" t="s">
-        <v>937</v>
+        <v>898</v>
       </c>
       <c r="N132" s="84" t="s">
-        <v>688</v>
+        <v>1124</v>
       </c>
       <c r="O132" s="84"/>
       <c r="P132" s="84" t="s">
-        <v>272</v>
+        <v>657</v>
       </c>
       <c r="Q132" s="84" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="R132" s="84" t="s">
-        <v>884</v>
+        <v>849</v>
       </c>
       <c r="S132" s="93"/>
       <c r="V132" s="60"/>
@@ -11977,37 +11991,37 @@
         <v>33</v>
       </c>
       <c r="D133" s="80" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E133" s="80" t="s">
         <v>189</v>
       </c>
       <c r="F133" s="80" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G133" s="100" t="s">
-        <v>457</v>
+        <v>1102</v>
       </c>
       <c r="H133" s="80" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I133" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J133" s="80" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K133" s="80" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="L133" s="80" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M133" s="80" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="N133" s="98" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="O133" s="80" t="s">
         <v>198</v>
@@ -12016,7 +12030,7 @@
         <v>231</v>
       </c>
       <c r="Q133" s="80" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="R133" s="80" t="s">
         <v>218</v>
@@ -12027,45 +12041,45 @@
     <row r="134" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B134" s="58"/>
       <c r="D134" s="85" t="s">
-        <v>1055</v>
+        <v>994</v>
       </c>
       <c r="E134" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="G134" s="85" t="s">
-        <v>934</v>
+        <v>1123</v>
       </c>
       <c r="H134" s="85" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="I134" s="85"/>
       <c r="J134" s="85" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="K134" s="85" t="s">
-        <v>936</v>
+        <v>897</v>
       </c>
       <c r="L134" s="85" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="M134" s="85" t="s">
-        <v>938</v>
+        <v>899</v>
       </c>
       <c r="N134" s="85" t="s">
-        <v>689</v>
+        <v>1125</v>
       </c>
       <c r="O134" s="85"/>
       <c r="P134" s="85" t="s">
-        <v>273</v>
+        <v>658</v>
       </c>
       <c r="Q134" s="85" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="R134" s="85" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="S134" s="96"/>
       <c r="V134" s="60"/>
@@ -12093,26 +12107,26 @@
     <row r="136" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B136" s="56"/>
       <c r="D136" s="84" t="s">
-        <v>939</v>
+        <v>1126</v>
       </c>
       <c r="E136" s="84" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="F136" s="84"/>
       <c r="G136" s="84" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
       <c r="H136" s="84" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="I136" s="84" t="s">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="J136" s="84" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="K136" s="84" t="s">
-        <v>942</v>
+        <v>902</v>
       </c>
       <c r="L136" s="84"/>
       <c r="M136" s="84"/>
@@ -12130,28 +12144,28 @@
         <v>34</v>
       </c>
       <c r="D137" s="80" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E137" s="80" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F137" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="G137" s="98" t="s">
-        <v>465</v>
+      <c r="G137" s="80" t="s">
+        <v>459</v>
       </c>
       <c r="H137" s="80" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="I137" s="80" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="J137" s="80" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K137" s="80" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L137" s="80" t="s">
         <v>198</v>
@@ -12168,26 +12182,26 @@
     <row r="138" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B138" s="58"/>
       <c r="D138" s="85" t="s">
-        <v>1009</v>
+        <v>1127</v>
       </c>
       <c r="E138" s="85" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F138" s="85"/>
       <c r="G138" s="85" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="H138" s="85" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="I138" s="85" t="s">
-        <v>941</v>
+        <v>901</v>
       </c>
       <c r="J138" s="85" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="K138" s="85" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="L138" s="85"/>
       <c r="M138" s="85"/>
@@ -12203,7 +12217,9 @@
       <c r="B139" s="63"/>
       <c r="C139" s="90"/>
       <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
+      <c r="E139" s="83" t="s">
+        <v>1103</v>
+      </c>
       <c r="F139" s="83"/>
       <c r="G139" s="83"/>
       <c r="H139" s="83"/>
@@ -12222,45 +12238,45 @@
     <row r="140" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B140" s="56"/>
       <c r="D140" s="84" t="s">
-        <v>1032</v>
+        <v>973</v>
       </c>
       <c r="E140" s="84" t="s">
-        <v>1048</v>
+        <v>251</v>
       </c>
       <c r="F140" s="84" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
       <c r="G140" s="84" t="s">
-        <v>261</v>
+        <v>1098</v>
       </c>
       <c r="H140" s="84" t="s">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="I140" s="84"/>
       <c r="J140" s="84" t="s">
-        <v>1084</v>
+        <v>1023</v>
       </c>
       <c r="K140" s="84" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="L140" s="84" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="M140" s="84" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="N140" s="84" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
       <c r="O140" s="84"/>
       <c r="P140" s="84" t="s">
-        <v>898</v>
+        <v>863</v>
       </c>
       <c r="Q140" s="84" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="R140" s="84" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="S140" s="93"/>
       <c r="V140" s="60"/>
@@ -12271,37 +12287,37 @@
         <v>35</v>
       </c>
       <c r="D141" s="80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E141" s="80" t="s">
         <v>199</v>
       </c>
-      <c r="F141" s="98" t="s">
-        <v>469</v>
+      <c r="F141" s="80" t="s">
+        <v>463</v>
       </c>
       <c r="G141" s="81" t="s">
         <v>236</v>
       </c>
       <c r="H141" s="80" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I141" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="J141" s="98" t="s">
-        <v>471</v>
-      </c>
-      <c r="K141" s="98" t="s">
-        <v>472</v>
+      <c r="J141" s="80" t="s">
+        <v>465</v>
+      </c>
+      <c r="K141" s="80" t="s">
+        <v>466</v>
       </c>
       <c r="L141" s="80" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M141" s="80" t="s">
-        <v>473</v>
-      </c>
-      <c r="N141" s="98" t="s">
-        <v>474</v>
+        <v>467</v>
+      </c>
+      <c r="N141" s="80" t="s">
+        <v>468</v>
       </c>
       <c r="O141" s="80" t="s">
         <v>198</v>
@@ -12310,10 +12326,10 @@
         <v>209</v>
       </c>
       <c r="Q141" s="80" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="R141" s="80" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="S141" s="94"/>
       <c r="V141" s="60"/>
@@ -12321,45 +12337,45 @@
     <row r="142" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B142" s="58"/>
       <c r="D142" s="85" t="s">
-        <v>1033</v>
+        <v>974</v>
       </c>
       <c r="E142" s="85" t="s">
-        <v>1049</v>
+        <v>252</v>
       </c>
       <c r="F142" s="85" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
       <c r="G142" s="85" t="s">
-        <v>262</v>
+        <v>1099</v>
       </c>
       <c r="H142" s="85" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="I142" s="85"/>
       <c r="J142" s="85" t="s">
-        <v>1085</v>
+        <v>1024</v>
       </c>
       <c r="K142" s="85" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="L142" s="85" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="M142" s="85" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="N142" s="85" t="s">
-        <v>817</v>
+        <v>787</v>
       </c>
       <c r="O142" s="85"/>
       <c r="P142" s="85" t="s">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="Q142" s="85" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="R142" s="85" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="S142" s="96"/>
       <c r="V142" s="60"/>
@@ -12387,26 +12403,26 @@
     <row r="144" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B144" s="56"/>
       <c r="D144" s="84" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="E144" s="84" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="F144" s="84"/>
       <c r="G144" s="84" t="s">
-        <v>1058</v>
+        <v>997</v>
       </c>
       <c r="H144" s="84" t="s">
-        <v>946</v>
+        <v>1128</v>
       </c>
       <c r="I144" s="84" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="J144" s="84" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="K144" s="84" t="s">
-        <v>947</v>
+        <v>906</v>
       </c>
       <c r="L144" s="84"/>
       <c r="M144" s="84"/>
@@ -12424,28 +12440,28 @@
         <v>36</v>
       </c>
       <c r="D145" s="80" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E145" s="80" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F145" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G145" s="81" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H145" s="98" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="I145" s="80" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="J145" s="80" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K145" s="80" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="L145" s="80" t="s">
         <v>198</v>
@@ -12462,26 +12478,26 @@
     <row r="146" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B146" s="58"/>
       <c r="D146" s="85" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="E146" s="85" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="F146" s="85"/>
       <c r="G146" s="85" t="s">
-        <v>1059</v>
+        <v>998</v>
       </c>
       <c r="H146" s="85" t="s">
-        <v>1010</v>
+        <v>1129</v>
       </c>
       <c r="I146" s="85" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="J146" s="85" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="K146" s="85" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="L146" s="85"/>
       <c r="M146" s="85"/>
@@ -12516,45 +12532,45 @@
     <row r="148" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B148" s="56"/>
       <c r="D148" s="84" t="s">
-        <v>1086</v>
+        <v>1025</v>
       </c>
       <c r="E148" s="84" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F148" s="84" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="G148" s="84" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="H148" s="84" t="s">
-        <v>1088</v>
+        <v>1027</v>
       </c>
       <c r="I148" s="84"/>
       <c r="J148" s="84" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K148" s="84" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="L148" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="M148" s="84" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="N148" s="84" t="s">
-        <v>663</v>
+        <v>1130</v>
       </c>
       <c r="O148" s="84"/>
       <c r="P148" s="84" t="s">
-        <v>948</v>
+        <v>907</v>
       </c>
       <c r="Q148" s="84" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="R148" s="84" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="S148" s="93"/>
       <c r="V148" s="60"/>
@@ -12565,19 +12581,19 @@
         <v>37</v>
       </c>
       <c r="D149" s="80" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="E149" s="80" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F149" s="80" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G149" s="80" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H149" s="80" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="I149" s="80" t="s">
         <v>186</v>
@@ -12586,7 +12602,7 @@
         <v>237</v>
       </c>
       <c r="K149" s="80" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L149" s="80" t="s">
         <v>189</v>
@@ -12595,19 +12611,19 @@
         <v>191</v>
       </c>
       <c r="N149" s="98" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="O149" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P149" s="80" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q149" s="98" t="s">
-        <v>360</v>
+        <v>480</v>
+      </c>
+      <c r="Q149" s="80" t="s">
+        <v>356</v>
       </c>
       <c r="R149" s="80" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="S149" s="94"/>
       <c r="V149" s="60"/>
@@ -12615,45 +12631,45 @@
     <row r="150" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B150" s="58"/>
       <c r="D150" s="85" t="s">
-        <v>1087</v>
+        <v>1026</v>
       </c>
       <c r="E150" s="85" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F150" s="85" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G150" s="85" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="H150" s="85" t="s">
-        <v>1089</v>
+        <v>1028</v>
       </c>
       <c r="I150" s="85"/>
       <c r="J150" s="85" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="K150" s="85" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="L150" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="M150" s="85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N150" s="85" t="s">
-        <v>664</v>
+        <v>1131</v>
       </c>
       <c r="O150" s="85"/>
       <c r="P150" s="85" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="Q150" s="85" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="R150" s="85" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="S150" s="96"/>
       <c r="V150" s="60"/>
@@ -12681,26 +12697,26 @@
     <row r="152" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B152" s="56"/>
       <c r="D152" s="84" t="s">
-        <v>920</v>
+        <v>883</v>
       </c>
       <c r="E152" s="84" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="F152" s="84"/>
       <c r="G152" s="84" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="H152" s="84" t="s">
-        <v>900</v>
+        <v>865</v>
       </c>
       <c r="I152" s="84" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="J152" s="84" t="s">
-        <v>1046</v>
+        <v>987</v>
       </c>
       <c r="K152" s="84" t="s">
-        <v>579</v>
+        <v>1132</v>
       </c>
       <c r="L152" s="84"/>
       <c r="M152" s="84"/>
@@ -12720,26 +12736,26 @@
       <c r="D153" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="E153" s="98" t="s">
-        <v>488</v>
+      <c r="E153" s="80" t="s">
+        <v>482</v>
       </c>
       <c r="F153" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G153" s="80" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H153" s="80" t="s">
         <v>238</v>
       </c>
       <c r="I153" s="80" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="J153" s="80" t="s">
         <v>226</v>
       </c>
       <c r="K153" s="98" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="L153" s="80" t="s">
         <v>198</v>
@@ -12756,26 +12772,26 @@
     <row r="154" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B154" s="58"/>
       <c r="D154" s="85" t="s">
-        <v>921</v>
+        <v>884</v>
       </c>
       <c r="E154" s="85" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="F154" s="85"/>
       <c r="G154" s="85" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H154" s="85" t="s">
-        <v>901</v>
+        <v>866</v>
       </c>
       <c r="I154" s="85" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="J154" s="85" t="s">
-        <v>1047</v>
+        <v>988</v>
       </c>
       <c r="K154" s="85" t="s">
-        <v>580</v>
+        <v>1133</v>
       </c>
       <c r="L154" s="85"/>
       <c r="M154" s="85"/>
@@ -12793,7 +12809,9 @@
       <c r="D155" s="83"/>
       <c r="E155" s="83"/>
       <c r="F155" s="83"/>
-      <c r="G155" s="83"/>
+      <c r="G155" s="83" t="s">
+        <v>1103</v>
+      </c>
       <c r="H155" s="83"/>
       <c r="I155" s="83"/>
       <c r="J155" s="83"/>
@@ -12810,45 +12828,45 @@
     <row r="156" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B156" s="56"/>
       <c r="D156" s="84" t="s">
-        <v>949</v>
+        <v>1134</v>
       </c>
       <c r="E156" s="84" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="F156" s="84" t="s">
-        <v>951</v>
+        <v>908</v>
       </c>
       <c r="G156" s="84" t="s">
-        <v>1048</v>
+        <v>251</v>
       </c>
       <c r="H156" s="84" t="s">
-        <v>952</v>
+        <v>1136</v>
       </c>
       <c r="I156" s="84"/>
       <c r="J156" s="84" t="s">
-        <v>731</v>
+        <v>1138</v>
       </c>
       <c r="K156" s="84" t="s">
-        <v>1090</v>
+        <v>1029</v>
       </c>
       <c r="L156" s="84" t="s">
-        <v>953</v>
+        <v>909</v>
       </c>
       <c r="M156" s="84" t="s">
-        <v>1070</v>
+        <v>1009</v>
       </c>
       <c r="N156" s="84" t="s">
-        <v>1016</v>
+        <v>957</v>
       </c>
       <c r="O156" s="84"/>
       <c r="P156" s="84" t="s">
-        <v>955</v>
+        <v>911</v>
       </c>
       <c r="Q156" s="84" t="s">
-        <v>601</v>
+        <v>975</v>
       </c>
       <c r="R156" s="84" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="S156" s="93"/>
       <c r="V156" s="60"/>
@@ -12859,49 +12877,49 @@
         <v>39</v>
       </c>
       <c r="D157" s="98" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="E157" s="80" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F157" s="98" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G157" s="80" t="s">
         <v>199</v>
       </c>
       <c r="H157" s="98" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="I157" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J157" s="98" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="K157" s="80" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L157" s="80" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="M157" s="80" t="s">
-        <v>411</v>
-      </c>
-      <c r="N157" s="98" t="s">
-        <v>288</v>
+        <v>407</v>
+      </c>
+      <c r="N157" s="80" t="s">
+        <v>284</v>
       </c>
       <c r="O157" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P157" s="80" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q157" s="98" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="R157" s="80" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="S157" s="94"/>
       <c r="V157" s="60"/>
@@ -12909,45 +12927,45 @@
     <row r="158" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B158" s="58"/>
       <c r="D158" s="85" t="s">
-        <v>950</v>
+        <v>1135</v>
       </c>
       <c r="E158" s="85" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F158" s="85" t="s">
-        <v>1011</v>
+        <v>954</v>
       </c>
       <c r="G158" s="85" t="s">
-        <v>1049</v>
+        <v>252</v>
       </c>
       <c r="H158" s="85" t="s">
-        <v>1012</v>
+        <v>1137</v>
       </c>
       <c r="I158" s="85"/>
       <c r="J158" s="85" t="s">
-        <v>732</v>
+        <v>1139</v>
       </c>
       <c r="K158" s="85" t="s">
-        <v>1091</v>
+        <v>1030</v>
       </c>
       <c r="L158" s="85" t="s">
-        <v>954</v>
+        <v>910</v>
       </c>
       <c r="M158" s="85" t="s">
-        <v>1071</v>
+        <v>1010</v>
       </c>
       <c r="N158" s="85" t="s">
-        <v>1017</v>
+        <v>958</v>
       </c>
       <c r="O158" s="85"/>
       <c r="P158" s="85" t="s">
-        <v>956</v>
+        <v>912</v>
       </c>
       <c r="Q158" s="85" t="s">
-        <v>602</v>
+        <v>976</v>
       </c>
       <c r="R158" s="85" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="S158" s="96"/>
       <c r="V158" s="60"/>
@@ -12975,26 +12993,26 @@
     <row r="160" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B160" s="56"/>
       <c r="D160" s="84" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="E160" s="84" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="F160" s="84"/>
       <c r="G160" s="84" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="H160" s="84" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="I160" s="84" t="s">
-        <v>1046</v>
+        <v>987</v>
       </c>
       <c r="J160" s="84" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="K160" s="84" t="s">
-        <v>1143</v>
+        <v>1081</v>
       </c>
       <c r="L160" s="84"/>
       <c r="M160" s="84"/>
@@ -13015,13 +13033,13 @@
         <v>214</v>
       </c>
       <c r="E161" s="80" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F161" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G161" s="80" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H161" s="80" t="s">
         <v>191</v>
@@ -13030,7 +13048,7 @@
         <v>226</v>
       </c>
       <c r="J161" s="80" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K161" s="80" t="s">
         <v>201</v>
@@ -13050,26 +13068,26 @@
     <row r="162" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B162" s="58"/>
       <c r="D162" s="85" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="E162" s="85" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F162" s="85"/>
       <c r="G162" s="85" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="H162" s="85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I162" s="85" t="s">
-        <v>1047</v>
+        <v>988</v>
       </c>
       <c r="J162" s="85" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="K162" s="85" t="s">
-        <v>1144</v>
+        <v>1082</v>
       </c>
       <c r="L162" s="85"/>
       <c r="M162" s="85"/>
@@ -13104,45 +13122,45 @@
     <row r="164" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B164" s="56"/>
       <c r="D164" s="84" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E164" s="84" t="s">
-        <v>957</v>
+        <v>913</v>
       </c>
       <c r="F164" s="84" t="s">
-        <v>739</v>
+        <v>1140</v>
       </c>
       <c r="G164" s="84" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="H164" s="84" t="s">
-        <v>1125</v>
+        <v>1064</v>
       </c>
       <c r="I164" s="84"/>
       <c r="J164" s="84" t="s">
-        <v>959</v>
+        <v>915</v>
       </c>
       <c r="K164" s="84" t="s">
-        <v>818</v>
+        <v>1142</v>
       </c>
       <c r="L164" s="84" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="M164" s="84" t="s">
-        <v>1058</v>
+        <v>997</v>
       </c>
       <c r="N164" s="84" t="s">
-        <v>744</v>
+        <v>1144</v>
       </c>
       <c r="O164" s="84"/>
       <c r="P164" s="84" t="s">
-        <v>960</v>
+        <v>916</v>
       </c>
       <c r="Q164" s="84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="R164" s="84" t="s">
-        <v>1145</v>
+        <v>1083</v>
       </c>
       <c r="S164" s="93"/>
       <c r="V164" s="60"/>
@@ -13153,49 +13171,49 @@
         <v>41</v>
       </c>
       <c r="D165" s="80" t="s">
-        <v>329</v>
-      </c>
-      <c r="E165" s="98" t="s">
-        <v>502</v>
+        <v>325</v>
+      </c>
+      <c r="E165" s="80" t="s">
+        <v>496</v>
       </c>
       <c r="F165" s="98" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="G165" s="80" t="s">
-        <v>444</v>
-      </c>
-      <c r="H165" s="98" t="s">
-        <v>336</v>
+        <v>439</v>
+      </c>
+      <c r="H165" s="80" t="s">
+        <v>1104</v>
       </c>
       <c r="I165" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J165" s="80" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K165" s="98" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L165" s="80" t="s">
-        <v>506</v>
-      </c>
-      <c r="M165" s="98" t="s">
-        <v>388</v>
+        <v>500</v>
+      </c>
+      <c r="M165" s="80" t="s">
+        <v>384</v>
       </c>
       <c r="N165" s="98" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="O165" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P165" s="80" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="Q165" s="80" t="s">
         <v>241</v>
       </c>
       <c r="R165" s="80" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="S165" s="94"/>
       <c r="V165" s="60"/>
@@ -13203,45 +13221,45 @@
     <row r="166" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B166" s="58"/>
       <c r="D166" s="85" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E166" s="85" t="s">
-        <v>958</v>
+        <v>914</v>
       </c>
       <c r="F166" s="85" t="s">
-        <v>740</v>
+        <v>1141</v>
       </c>
       <c r="G166" s="85" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="H166" s="85" t="s">
-        <v>1126</v>
+        <v>1065</v>
       </c>
       <c r="I166" s="85"/>
       <c r="J166" s="85" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="K166" s="85" t="s">
-        <v>819</v>
+        <v>1143</v>
       </c>
       <c r="L166" s="85" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="M166" s="85" t="s">
-        <v>1059</v>
+        <v>998</v>
       </c>
       <c r="N166" s="85" t="s">
-        <v>745</v>
+        <v>1145</v>
       </c>
       <c r="O166" s="85"/>
       <c r="P166" s="85" t="s">
-        <v>961</v>
+        <v>917</v>
       </c>
       <c r="Q166" s="85" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R166" s="85" t="s">
-        <v>1146</v>
+        <v>1084</v>
       </c>
       <c r="S166" s="96"/>
       <c r="V166" s="60"/>
@@ -13269,26 +13287,26 @@
       <c r="B168" s="56"/>
       <c r="C168" s="1"/>
       <c r="D168" s="84" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="E168" s="84" t="s">
-        <v>802</v>
+        <v>1146</v>
       </c>
       <c r="F168" s="84"/>
       <c r="G168" s="84" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="H168" s="84" t="s">
-        <v>962</v>
+        <v>918</v>
       </c>
       <c r="I168" s="84" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="J168" s="84" t="s">
         <v>248</v>
       </c>
       <c r="K168" s="84" t="s">
-        <v>1147</v>
+        <v>1085</v>
       </c>
       <c r="L168" s="84"/>
       <c r="M168" s="84"/>
@@ -13308,7 +13326,7 @@
         <v>202</v>
       </c>
       <c r="E169" s="98" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="F169" s="80" t="s">
         <v>186</v>
@@ -13317,16 +13335,16 @@
         <v>212</v>
       </c>
       <c r="H169" s="80" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="I169" s="80" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="J169" s="80" t="s">
-        <v>512</v>
-      </c>
-      <c r="K169" s="98" t="s">
-        <v>513</v>
+        <v>506</v>
+      </c>
+      <c r="K169" s="80" t="s">
+        <v>507</v>
       </c>
       <c r="L169" s="80" t="s">
         <v>198</v>
@@ -13342,26 +13360,26 @@
       <c r="B170" s="58"/>
       <c r="C170" s="1"/>
       <c r="D170" s="85" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="E170" s="85" t="s">
-        <v>803</v>
+        <v>1147</v>
       </c>
       <c r="F170" s="85"/>
       <c r="G170" s="85" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="H170" s="85" t="s">
-        <v>994</v>
+        <v>940</v>
       </c>
       <c r="I170" s="85" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="J170" s="85" t="s">
         <v>249</v>
       </c>
       <c r="K170" s="85" t="s">
-        <v>1148</v>
+        <v>1086</v>
       </c>
       <c r="L170" s="85"/>
       <c r="M170" s="85"/>
@@ -13394,45 +13412,45 @@
       <c r="B172" s="56"/>
       <c r="C172" s="1"/>
       <c r="D172" s="84" t="s">
-        <v>1020</v>
+        <v>961</v>
       </c>
       <c r="E172" s="84" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F172" s="84" t="s">
-        <v>963</v>
+        <v>919</v>
       </c>
       <c r="G172" s="84" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="H172" s="84" t="s">
         <v>246</v>
       </c>
       <c r="I172" s="84"/>
       <c r="J172" s="84" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="K172" s="84" t="s">
-        <v>1062</v>
+        <v>1001</v>
       </c>
       <c r="L172" s="84" t="s">
-        <v>965</v>
+        <v>921</v>
       </c>
       <c r="M172" s="84" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="N172" s="84" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="O172" s="84"/>
       <c r="P172" s="84" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="Q172" s="84" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
       <c r="R172" s="84" t="s">
-        <v>966</v>
+        <v>922</v>
       </c>
     </row>
     <row r="173" spans="2:22" ht="58.5">
@@ -13445,34 +13463,34 @@
         <v>202</v>
       </c>
       <c r="E173" s="80" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F173" s="80" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G173" s="81" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H173" s="80" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="I173" s="80" t="s">
         <v>186</v>
       </c>
       <c r="J173" s="80" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="K173" s="80" t="s">
         <v>213</v>
       </c>
       <c r="L173" s="80" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M173" s="80" t="s">
         <v>185</v>
       </c>
       <c r="N173" s="80" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="O173" s="80" t="s">
         <v>198</v>
@@ -13484,52 +13502,52 @@
         <v>219</v>
       </c>
       <c r="R173" s="80" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="58"/>
       <c r="C174" s="1"/>
       <c r="D174" s="85" t="s">
-        <v>1021</v>
+        <v>962</v>
       </c>
       <c r="E174" s="85" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F174" s="85" t="s">
-        <v>964</v>
+        <v>920</v>
       </c>
       <c r="G174" s="85" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="H174" s="85" t="s">
         <v>247</v>
       </c>
       <c r="I174" s="85"/>
       <c r="J174" s="85" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="K174" s="85" t="s">
-        <v>1063</v>
+        <v>1002</v>
       </c>
       <c r="L174" s="85" t="s">
-        <v>1013</v>
+        <v>955</v>
       </c>
       <c r="M174" s="85" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="N174" s="85" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="O174" s="85"/>
       <c r="P174" s="85" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="Q174" s="85" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="R174" s="85" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
     </row>
     <row r="175" spans="2:22">
@@ -13555,26 +13573,26 @@
       <c r="B176" s="56"/>
       <c r="C176" s="1"/>
       <c r="D176" s="84" t="s">
-        <v>967</v>
+        <v>923</v>
       </c>
       <c r="E176" s="84" t="s">
-        <v>969</v>
+        <v>1148</v>
       </c>
       <c r="F176" s="84"/>
       <c r="G176" s="84" t="s">
-        <v>1149</v>
+        <v>1087</v>
       </c>
       <c r="H176" s="84" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="I176" s="84" t="s">
-        <v>971</v>
+        <v>925</v>
       </c>
       <c r="J176" s="84" t="s">
-        <v>972</v>
+        <v>1150</v>
       </c>
       <c r="K176" s="84" t="s">
-        <v>974</v>
+        <v>926</v>
       </c>
       <c r="L176" s="84"/>
       <c r="M176" s="84"/>
@@ -13591,28 +13609,28 @@
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="80" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E177" s="98" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F177" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="G177" s="100" t="s">
+      <c r="G177" s="80" t="s">
         <v>195</v>
       </c>
       <c r="H177" s="80" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I177" s="80" t="s">
         <v>216</v>
       </c>
       <c r="J177" s="98" t="s">
-        <v>524</v>
-      </c>
-      <c r="K177" s="98" t="s">
-        <v>525</v>
+        <v>518</v>
+      </c>
+      <c r="K177" s="80" t="s">
+        <v>1105</v>
       </c>
       <c r="L177" s="80" t="s">
         <v>198</v>
@@ -13628,26 +13646,26 @@
       <c r="B178" s="58"/>
       <c r="C178" s="1"/>
       <c r="D178" s="85" t="s">
-        <v>968</v>
+        <v>924</v>
       </c>
       <c r="E178" s="85" t="s">
-        <v>970</v>
+        <v>1149</v>
       </c>
       <c r="F178" s="85"/>
       <c r="G178" s="85" t="s">
-        <v>1150</v>
+        <v>1088</v>
       </c>
       <c r="H178" s="85" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="I178" s="85" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="J178" s="85" t="s">
-        <v>973</v>
+        <v>1151</v>
       </c>
       <c r="K178" s="85" t="s">
-        <v>975</v>
+        <v>927</v>
       </c>
       <c r="L178" s="85"/>
       <c r="M178" s="85"/>
@@ -13680,45 +13698,45 @@
       <c r="B180" s="56"/>
       <c r="C180" s="1"/>
       <c r="D180" s="84" t="s">
-        <v>948</v>
+        <v>907</v>
       </c>
       <c r="E180" s="84" t="s">
-        <v>886</v>
+        <v>851</v>
       </c>
       <c r="F180" s="84" t="s">
-        <v>976</v>
+        <v>798</v>
       </c>
       <c r="G180" s="84" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="H180" s="84" t="s">
-        <v>977</v>
+        <v>928</v>
       </c>
       <c r="I180" s="84"/>
       <c r="J180" s="84" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="K180" s="84" t="s">
-        <v>1151</v>
+        <v>1089</v>
       </c>
       <c r="L180" s="84" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="M180" s="84" t="s">
-        <v>979</v>
+        <v>1152</v>
       </c>
       <c r="N180" s="84" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="O180" s="84"/>
       <c r="P180" s="84" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="Q180" s="84" t="s">
-        <v>1052</v>
+        <v>991</v>
       </c>
       <c r="R180" s="84" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="181" spans="2:18" ht="58.5">
@@ -13728,19 +13746,19 @@
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="80" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E181" s="80" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F181" s="98" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G181" s="100" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H181" s="80" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="I181" s="80" t="s">
         <v>186</v>
@@ -13748,74 +13766,74 @@
       <c r="J181" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="K181" s="98" t="s">
-        <v>529</v>
+      <c r="K181" s="80" t="s">
+        <v>522</v>
       </c>
       <c r="L181" s="80" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M181" s="98" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="N181" s="80" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="O181" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P181" s="80" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="Q181" s="80" t="s">
         <v>204</v>
       </c>
       <c r="R181" s="98" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="58"/>
       <c r="C182" s="1"/>
       <c r="D182" s="85" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="E182" s="85" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F182" s="85" t="s">
-        <v>1014</v>
+        <v>564</v>
       </c>
       <c r="G182" s="85" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="H182" s="85" t="s">
-        <v>978</v>
+        <v>929</v>
       </c>
       <c r="I182" s="85"/>
       <c r="J182" s="85" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="K182" s="85" t="s">
-        <v>1152</v>
+        <v>1090</v>
       </c>
       <c r="L182" s="85" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="M182" s="85" t="s">
-        <v>980</v>
+        <v>1153</v>
       </c>
       <c r="N182" s="85" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="O182" s="85"/>
       <c r="P182" s="85" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="Q182" s="85" t="s">
-        <v>1053</v>
+        <v>992</v>
       </c>
       <c r="R182" s="85" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="183" spans="2:18">
@@ -13841,26 +13859,26 @@
       <c r="B184" s="56"/>
       <c r="C184" s="1"/>
       <c r="D184" s="84" t="s">
-        <v>981</v>
+        <v>930</v>
       </c>
       <c r="E184" s="84" t="s">
-        <v>983</v>
+        <v>932</v>
       </c>
       <c r="F184" s="84"/>
       <c r="G184" s="84" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H184" s="84" t="s">
-        <v>920</v>
+        <v>883</v>
       </c>
       <c r="I184" s="84" t="s">
-        <v>1046</v>
+        <v>987</v>
       </c>
       <c r="J184" s="84" t="s">
-        <v>985</v>
+        <v>934</v>
       </c>
       <c r="K184" s="84" t="s">
-        <v>933</v>
+        <v>1122</v>
       </c>
       <c r="L184" s="84"/>
       <c r="M184" s="84"/>
@@ -13877,16 +13895,16 @@
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="80" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E185" s="80" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F185" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="G185" s="100" t="s">
-        <v>329</v>
+      <c r="G185" s="80" t="s">
+        <v>325</v>
       </c>
       <c r="H185" s="80" t="s">
         <v>240</v>
@@ -13895,10 +13913,10 @@
         <v>226</v>
       </c>
       <c r="J185" s="80" t="s">
-        <v>536</v>
-      </c>
-      <c r="K185" s="98" t="s">
-        <v>457</v>
+        <v>529</v>
+      </c>
+      <c r="K185" s="80" t="s">
+        <v>1102</v>
       </c>
       <c r="L185" s="80" t="s">
         <v>198</v>
@@ -13914,26 +13932,26 @@
       <c r="B186" s="58"/>
       <c r="C186" s="1"/>
       <c r="D186" s="85" t="s">
-        <v>982</v>
+        <v>931</v>
       </c>
       <c r="E186" s="85" t="s">
-        <v>984</v>
+        <v>933</v>
       </c>
       <c r="F186" s="85"/>
       <c r="G186" s="85" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="H186" s="85" t="s">
-        <v>921</v>
+        <v>884</v>
       </c>
       <c r="I186" s="85" t="s">
-        <v>1047</v>
+        <v>988</v>
       </c>
       <c r="J186" s="85" t="s">
-        <v>986</v>
+        <v>935</v>
       </c>
       <c r="K186" s="85" t="s">
-        <v>934</v>
+        <v>1123</v>
       </c>
       <c r="L186" s="85"/>
       <c r="M186" s="85"/>
@@ -13966,45 +13984,45 @@
       <c r="B188" s="56"/>
       <c r="C188" s="1"/>
       <c r="D188" s="84" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="E188" s="84" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
       <c r="F188" s="84" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="G188" s="84" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="H188" s="84" t="s">
-        <v>905</v>
+        <v>270</v>
       </c>
       <c r="I188" s="84"/>
       <c r="J188" s="84" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
       <c r="K188" s="84" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="L188" s="84" t="s">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="M188" s="84" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="N188" s="84" t="s">
-        <v>1026</v>
+        <v>967</v>
       </c>
       <c r="O188" s="84"/>
       <c r="P188" s="84" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="Q188" s="84" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="R188" s="84" t="s">
-        <v>1151</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="189" spans="2:18" ht="58.5">
@@ -14014,94 +14032,94 @@
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="80" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E189" s="80" t="s">
         <v>219</v>
       </c>
       <c r="F189" s="80" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G189" s="80" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H189" s="98" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I189" s="80" t="s">
         <v>186</v>
       </c>
-      <c r="J189" s="98" t="s">
-        <v>365</v>
+      <c r="J189" s="80" t="s">
+        <v>361</v>
       </c>
       <c r="K189" s="80" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L189" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="M189" s="98" t="s">
+        <v>310</v>
+      </c>
+      <c r="M189" s="80" t="s">
         <v>220</v>
       </c>
-      <c r="N189" s="98" t="s">
-        <v>300</v>
+      <c r="N189" s="80" t="s">
+        <v>296</v>
       </c>
       <c r="O189" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P189" s="80" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="Q189" s="80" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="R189" s="80" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="58"/>
       <c r="C190" s="1"/>
       <c r="D190" s="85" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="E190" s="85" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="F190" s="85" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G190" s="85" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="H190" s="85" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
       <c r="I190" s="85"/>
       <c r="J190" s="85" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="K190" s="85" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="L190" s="85" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="M190" s="85" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="N190" s="85" t="s">
-        <v>1027</v>
+        <v>968</v>
       </c>
       <c r="O190" s="85"/>
       <c r="P190" s="85" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="Q190" s="85" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="R190" s="85" t="s">
-        <v>1152</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="191" spans="2:18">
@@ -14127,26 +14145,26 @@
       <c r="B192" s="56"/>
       <c r="C192" s="1"/>
       <c r="D192" s="84" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E192" s="84" t="s">
-        <v>987</v>
+        <v>936</v>
       </c>
       <c r="F192" s="84"/>
       <c r="G192" s="84" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="H192" s="84" t="s">
-        <v>1058</v>
+        <v>997</v>
       </c>
       <c r="I192" s="84" t="s">
-        <v>988</v>
+        <v>1156</v>
       </c>
       <c r="J192" s="84" t="s">
-        <v>1052</v>
+        <v>991</v>
       </c>
       <c r="K192" s="84" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="L192" s="84"/>
       <c r="M192" s="84"/>
@@ -14163,24 +14181,24 @@
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="80" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E193" s="80" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F193" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G193" s="81" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H193" s="80" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I193" s="98" t="s">
-        <v>543</v>
-      </c>
-      <c r="J193" s="98" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J193" s="80" t="s">
         <v>204</v>
       </c>
       <c r="K193" s="80" t="s">
@@ -14200,26 +14218,26 @@
       <c r="B194" s="58"/>
       <c r="C194" s="1"/>
       <c r="D194" s="85" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="E194" s="85" t="s">
-        <v>1015</v>
+        <v>956</v>
       </c>
       <c r="F194" s="85"/>
       <c r="G194" s="85" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H194" s="85" t="s">
-        <v>1059</v>
+        <v>998</v>
       </c>
       <c r="I194" s="85" t="s">
-        <v>874</v>
+        <v>1157</v>
       </c>
       <c r="J194" s="85" t="s">
-        <v>1053</v>
+        <v>992</v>
       </c>
       <c r="K194" s="85" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="L194" s="85"/>
       <c r="M194" s="85"/>
@@ -14252,45 +14270,45 @@
       <c r="B196" s="56"/>
       <c r="C196" s="1"/>
       <c r="D196" s="84" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="E196" s="84" t="s">
-        <v>1133</v>
+        <v>1072</v>
       </c>
       <c r="F196" s="84" t="s">
-        <v>261</v>
+        <v>1098</v>
       </c>
       <c r="G196" s="84" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="H196" s="84" t="s">
-        <v>1155</v>
+        <v>1091</v>
       </c>
       <c r="I196" s="84"/>
       <c r="J196" s="84" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="K196" s="84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L196" s="84" t="s">
-        <v>905</v>
+        <v>270</v>
       </c>
       <c r="M196" s="84" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="N196" s="84" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="O196" s="84"/>
       <c r="P196" s="84" t="s">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="Q196" s="84" t="s">
-        <v>1123</v>
+        <v>1062</v>
       </c>
       <c r="R196" s="84" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
     </row>
     <row r="197" spans="2:18" ht="58.5">
@@ -14300,7 +14318,7 @@
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="80" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E197" s="80" t="s">
         <v>188</v>
@@ -14309,7 +14327,7 @@
         <v>236</v>
       </c>
       <c r="G197" s="81" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H197" s="80" t="s">
         <v>192</v>
@@ -14318,76 +14336,76 @@
         <v>186</v>
       </c>
       <c r="J197" s="80" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="K197" s="80" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="L197" s="80" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M197" s="80" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="N197" s="80" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="O197" s="80" t="s">
         <v>198</v>
       </c>
       <c r="P197" s="80" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q197" s="80" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="R197" s="80" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="58"/>
       <c r="C198" s="1"/>
       <c r="D198" s="85" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="E198" s="85" t="s">
-        <v>1134</v>
+        <v>1073</v>
       </c>
       <c r="F198" s="85" t="s">
-        <v>262</v>
+        <v>1099</v>
       </c>
       <c r="G198" s="85" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="H198" s="85" t="s">
-        <v>1156</v>
+        <v>1092</v>
       </c>
       <c r="I198" s="85"/>
       <c r="J198" s="85" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="K198" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L198" s="85" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
       <c r="M198" s="85" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="N198" s="85" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="O198" s="85"/>
       <c r="P198" s="85" t="s">
-        <v>999</v>
+        <v>945</v>
       </c>
       <c r="Q198" s="85" t="s">
-        <v>1124</v>
+        <v>1063</v>
       </c>
       <c r="R198" s="85" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
     </row>
     <row r="199" spans="2:18">
@@ -14397,7 +14415,9 @@
       <c r="E199" s="83"/>
       <c r="F199" s="83"/>
       <c r="G199" s="83"/>
-      <c r="H199" s="83"/>
+      <c r="H199" s="83" t="s">
+        <v>1107</v>
+      </c>
       <c r="I199" s="83"/>
       <c r="J199" s="83"/>
       <c r="K199" s="83"/>
@@ -14413,26 +14433,26 @@
       <c r="B200" s="56"/>
       <c r="C200" s="1"/>
       <c r="D200" s="84" t="s">
-        <v>832</v>
+        <v>798</v>
       </c>
       <c r="E200" s="84" t="s">
-        <v>1157</v>
+        <v>1093</v>
       </c>
       <c r="F200" s="84"/>
       <c r="G200" s="84" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="H200" s="84" t="s">
-        <v>916</v>
+        <v>1158</v>
       </c>
       <c r="I200" s="84" t="s">
-        <v>989</v>
+        <v>1160</v>
       </c>
       <c r="J200" s="84" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="K200" s="84" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="L200" s="84"/>
       <c r="M200" s="84"/>
@@ -14449,28 +14469,28 @@
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="80" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E201" s="80" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F201" s="80" t="s">
         <v>186</v>
       </c>
       <c r="G201" s="100" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H201" s="80" t="s">
         <v>237</v>
       </c>
       <c r="I201" s="98" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="J201" s="80" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K201" s="80" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="L201" s="80" t="s">
         <v>198</v>
@@ -14486,26 +14506,26 @@
       <c r="B202" s="58"/>
       <c r="C202" s="1"/>
       <c r="D202" s="85" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E202" s="85" t="s">
-        <v>1158</v>
+        <v>1094</v>
       </c>
       <c r="F202" s="85"/>
       <c r="G202" s="85" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="H202" s="85" t="s">
-        <v>917</v>
+        <v>1159</v>
       </c>
       <c r="I202" s="85" t="s">
-        <v>990</v>
+        <v>1161</v>
       </c>
       <c r="J202" s="85" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="K202" s="85" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="L202" s="85"/>
       <c r="M202" s="85"/>
